--- a/Process Results/Unified_IBNP_USH.xlsx
+++ b/Process Results/Unified_IBNP_USH.xlsx
@@ -3727,20 +3727,20 @@
         <v/>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.04478385791843711</v>
+        <v>0.01854398918134242</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.01609569300763277</v>
+        <v>0.03692398667380116</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>0.01252333666036123</v>
+        <v>0.01177168672325772</v>
       </c>
       <c r="H7" s="4">
         <f>+I7/I8</f>
         <v/>
       </c>
       <c r="I7" s="5" t="n">
-        <v>0.01252333666036123</v>
+        <v>0.01177168672325772</v>
       </c>
       <c r="J7" s="5">
         <f>I7</f>
@@ -3765,20 +3765,20 @@
         <v/>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.1739409398962418</v>
+        <v>0.173045465106814</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.1085679100432832</v>
+        <v>0.3149975968773203</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.119633964687853</v>
+        <v>0.08592140736550352</v>
       </c>
       <c r="H8" s="4">
         <f>+I8/I9</f>
         <v/>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.119633964687853</v>
+        <v>0.08592140736550352</v>
       </c>
       <c r="J8" s="5">
         <f>I8</f>
@@ -3803,20 +3803,20 @@
         <v/>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.3996991271555222</v>
+        <v>0.1820752325612651</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.1763131747035458</v>
+        <v>0.3716337234141823</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.1724771075249566</v>
+        <v>0.4651173697812254</v>
       </c>
       <c r="H9" s="4">
         <f>+I9/I10</f>
         <v/>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.1724771075249566</v>
+        <v>0.4651173697812254</v>
       </c>
       <c r="J9" s="5">
         <f>I9</f>
@@ -3841,20 +3841,20 @@
         <v/>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.4339493828668904</v>
+        <v>0.2685940641097077</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.2502605306944422</v>
+        <v>0.5089676120683836</v>
       </c>
       <c r="G10" s="5" t="n">
-        <v>0.2880015981233218</v>
+        <v>0.4971111254708712</v>
       </c>
       <c r="H10" s="4">
         <f>+I10/I11</f>
         <v/>
       </c>
       <c r="I10" s="5" t="n">
-        <v>0.2880015981233218</v>
+        <v>0.4971111254708712</v>
       </c>
       <c r="J10" s="5">
         <f>I10</f>
@@ -3879,20 +3879,20 @@
         <v/>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.670132317777829</v>
+        <v>0.3251643935170956</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.3295659800771599</v>
+        <v>0.6179990546674735</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.3457694542731453</v>
+        <v>0.5914479061334196</v>
       </c>
       <c r="H11" s="4">
         <f>+I11/I12</f>
         <v/>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.3457694542731453</v>
+        <v>0.5914479061334196</v>
       </c>
       <c r="J11" s="5">
         <f>I11</f>
@@ -3917,20 +3917,20 @@
         <v/>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.9430574404462944</v>
+        <v>0.3350475927876825</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.3811815389525087</v>
+        <v>0.6455232269478255</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.4464902090013482</v>
+        <v>0.6329654638981981</v>
       </c>
       <c r="H12" s="4">
         <f>+I12/I13</f>
         <v/>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.4464902090013482</v>
+        <v>0.6329654638981981</v>
       </c>
       <c r="J12" s="5">
         <f>I12</f>
@@ -3955,20 +3955,20 @@
         <v/>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.9430574404462944</v>
+        <v>0.753695642317208</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.9353687958221834</v>
+        <v>0.9079700722536166</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>0.7830568447505559</v>
+        <v>0.6767497201781122</v>
       </c>
       <c r="H13" s="4">
         <f>+I13/I14</f>
         <v/>
       </c>
       <c r="I13" s="5" t="n">
-        <v>0.7830568447505559</v>
+        <v>0.6767497201781122</v>
       </c>
       <c r="J13" s="5">
         <f>I13</f>
@@ -3993,20 +3993,20 @@
         <v/>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.9725148901465109</v>
+        <v>0.7623374291644431</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.9690466893083457</v>
+        <v>0.9100205506842198</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.8043520876591893</v>
+        <v>0.6996197611778983</v>
       </c>
       <c r="H14" s="4">
         <f>+I14/I15</f>
         <v/>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.8043520876591893</v>
+        <v>0.6996197611778983</v>
       </c>
       <c r="J14" s="5">
         <f>I14</f>
@@ -4031,20 +4031,20 @@
         <v/>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.9731699456212414</v>
+        <v>0.7623374291644431</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.9758280997940356</v>
+        <v>0.9457587962903141</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.808190406689696</v>
+        <v>0.720482770102821</v>
       </c>
       <c r="H15" s="4">
         <f>+I15/I16</f>
         <v/>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.808190406689696</v>
+        <v>0.720482770102821</v>
       </c>
       <c r="J15" s="5">
         <f>I15</f>
@@ -4069,20 +4069,20 @@
         <v/>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.9731699456212414</v>
+        <v>0.9766583967047622</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.9758656329288157</v>
+        <v>0.981162787039323</v>
       </c>
       <c r="G16" s="5" t="n">
-        <v>0.9575614085909195</v>
+        <v>0.7314223587316669</v>
       </c>
       <c r="H16" s="4">
         <f>+I16/I17</f>
         <v/>
       </c>
       <c r="I16" s="5" t="n">
-        <v>0.9575614085909195</v>
+        <v>0.7314223587316669</v>
       </c>
       <c r="J16" s="5">
         <f>I16</f>
@@ -4107,20 +4107,20 @@
         <v/>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.9731699456212414</v>
+        <v>0.9770075279463533</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.9769253772352898</v>
+        <v>0.9814447598155218</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.958412740717823</v>
+        <v>0.7316625453640778</v>
       </c>
       <c r="H17" s="4">
         <f>+I17/I18</f>
         <v/>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.958412740717823</v>
+        <v>0.7316625453640778</v>
       </c>
       <c r="J17" s="5">
         <f>I17</f>
@@ -4145,20 +4145,20 @@
         <v/>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.9731699456212414</v>
+        <v>0.9770075279463533</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.9787709952316654</v>
+        <v>0.9814447598155218</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.9599938410113424</v>
+        <v>0.7316625453640778</v>
       </c>
       <c r="H18" s="4">
         <f>+I18/I19</f>
         <v/>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.9599938410113424</v>
+        <v>0.7316625453640778</v>
       </c>
       <c r="J18" s="5">
         <f>I18</f>
@@ -4183,20 +4183,20 @@
         <v/>
       </c>
       <c r="E19" s="5" t="n">
-        <v>0.9731699456212414</v>
+        <v>0.9786334531914429</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>0.9787709952316654</v>
+        <v>0.9827955702828415</v>
       </c>
       <c r="G19" s="5" t="n">
-        <v>0.9606317275477158</v>
+        <v>1.003315099924647</v>
       </c>
       <c r="H19" s="4">
         <f>+I19/I20</f>
         <v/>
       </c>
       <c r="I19" s="5" t="n">
-        <v>0.9606317275477158</v>
+        <v>1.003315099924647</v>
       </c>
       <c r="J19" s="5">
         <f>I19</f>
@@ -4221,20 +4221,20 @@
         <v/>
       </c>
       <c r="E20" s="5" t="n">
-        <v>1</v>
+        <v>0.9786334531914429</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.9999498151692684</v>
+        <v>0.9827955702828415</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.9720384003453874</v>
+        <v>0.9808426163636448</v>
       </c>
       <c r="H20" s="4">
         <f>+I20/I21</f>
         <v/>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.9720384003453874</v>
+        <v>0.9808426163636448</v>
       </c>
       <c r="J20" s="5">
         <f>I20</f>
@@ -4259,20 +4259,20 @@
         <v/>
       </c>
       <c r="E21" s="5" t="n">
-        <v>1</v>
+        <v>0.9786334531914429</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>1</v>
+        <v>0.9827955702828415</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.9720785205261864</v>
+        <v>0.9826949556428071</v>
       </c>
       <c r="H21" s="4">
         <f>+I21/I22</f>
         <v/>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.9720785205261864</v>
+        <v>0.9826949556428071</v>
       </c>
       <c r="J21" s="5">
         <f>I21</f>
@@ -4297,20 +4297,20 @@
         <v/>
       </c>
       <c r="E22" s="5" t="n">
-        <v>1</v>
+        <v>0.9786334531914429</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>1</v>
+        <v>0.9827955702828415</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.9765308003412452</v>
+        <v>0.982777561796198</v>
       </c>
       <c r="H22" s="4">
         <f>+I22/I23</f>
         <v/>
       </c>
       <c r="I22" s="5" t="n">
-        <v>0.9765308003412452</v>
+        <v>0.982777561796198</v>
       </c>
       <c r="J22" s="5">
         <f>I22</f>
@@ -4335,20 +4335,20 @@
         <v/>
       </c>
       <c r="E23" s="5" t="n">
-        <v>1</v>
+        <v>0.9786334531914429</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>1</v>
+        <v>0.9827955702828415</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>1</v>
+        <v>0.9827955702828415</v>
       </c>
       <c r="H23" s="4">
         <f>+I23/I24</f>
         <v/>
       </c>
       <c r="I23" s="5" t="n">
-        <v>1</v>
+        <v>0.9827955702828415</v>
       </c>
       <c r="J23" s="5">
         <f>I23</f>
@@ -4373,20 +4373,20 @@
         <v/>
       </c>
       <c r="E24" s="5" t="n">
-        <v>1</v>
+        <v>0.9786334531914429</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>1</v>
+        <v>0.9827955702828415</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>1</v>
+        <v>0.9827955702828415</v>
       </c>
       <c r="H24" s="4">
         <f>+I24/I25</f>
         <v/>
       </c>
       <c r="I24" s="5" t="n">
-        <v>1</v>
+        <v>0.9827955702828415</v>
       </c>
       <c r="J24" s="5">
         <f>I24</f>
@@ -4411,20 +4411,20 @@
         <v/>
       </c>
       <c r="E25" s="5" t="n">
-        <v>1</v>
+        <v>0.9786334531914429</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>1</v>
+        <v>0.9827955702828415</v>
       </c>
       <c r="G25" s="5" t="n">
-        <v>1</v>
+        <v>0.9827955702828415</v>
       </c>
       <c r="H25" s="4">
         <f>+I25/I26</f>
         <v/>
       </c>
       <c r="I25" s="5" t="n">
-        <v>1</v>
+        <v>0.9827955702828415</v>
       </c>
       <c r="J25" s="5">
         <f>I25</f>
@@ -4449,20 +4449,20 @@
         <v/>
       </c>
       <c r="E26" s="5" t="n">
-        <v>1</v>
+        <v>0.9786334531914429</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>1</v>
+        <v>0.9827955702828415</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>1</v>
+        <v>0.9827955702828415</v>
       </c>
       <c r="H26" s="4">
         <f>+I26/I27</f>
         <v/>
       </c>
       <c r="I26" s="5" t="n">
-        <v>1</v>
+        <v>0.9827955702828415</v>
       </c>
       <c r="J26" s="5">
         <f>I26</f>
@@ -4833,43 +4833,43 @@
         <v>0</v>
       </c>
       <c r="B38" s="4" t="n">
-        <v>43.85851804939835</v>
+        <v>15.61185517462352</v>
       </c>
       <c r="C38" s="4" t="n">
-        <v>1.430620655397776</v>
+        <v>1.599807899910928</v>
       </c>
       <c r="D38" s="4" t="n">
-        <v>1.329448029860448</v>
+        <v>2.94859268762027</v>
       </c>
       <c r="E38" s="4" t="n">
-        <v>1.03036882943347</v>
+        <v>1.298591037004422</v>
       </c>
       <c r="F38" s="4" t="n">
-        <v>1.339537556921172</v>
+        <v>1.930359920099654</v>
       </c>
       <c r="G38" s="4" t="n">
-        <v>1.002919788331848</v>
+        <v>1.000951822243204</v>
       </c>
       <c r="H38" s="4" t="n">
-        <v>1.003889761568366</v>
+        <v>1.017339845716989</v>
       </c>
       <c r="I38" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="J38" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="K38" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="L38" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="M38" s="4" t="n">
-        <v>1.008413737338418</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="N38" s="4" t="n">
-        <v>1</v>
+        <v>1.003408860036297</v>
       </c>
       <c r="O38" s="4" t="n">
         <v>1</v>
@@ -4878,7 +4878,7 @@
         <v>1</v>
       </c>
       <c r="Q38" s="4" t="n">
-        <v>1.039473598665034</v>
+        <v>1.000101918375611</v>
       </c>
       <c r="R38" s="4" t="n">
         <v>1</v>
@@ -4908,22 +4908,22 @@
         <v/>
       </c>
       <c r="B39" s="4" t="n">
-        <v>5.926870440706578</v>
+        <v>16.86107054416153</v>
       </c>
       <c r="C39" s="4" t="n">
-        <v>1.086950330081681</v>
+        <v>1.169285808431716</v>
       </c>
       <c r="D39" s="4" t="n">
-        <v>1.033053520125027</v>
+        <v>1.125166667740211</v>
       </c>
       <c r="E39" s="4" t="n">
-        <v>2.405937185770322</v>
+        <v>1.004906085950962</v>
       </c>
       <c r="F39" s="4" t="n">
-        <v>1.41605638787751</v>
+        <v>1.002848386104433</v>
       </c>
       <c r="G39" s="4" t="n">
-        <v>1.0042543121442</v>
+        <v>1.26352264851907</v>
       </c>
       <c r="H39" s="4" t="n">
         <v>1</v>
@@ -4935,25 +4935,25 @@
         <v>1</v>
       </c>
       <c r="K39" s="4" t="n">
-        <v>1.011120260319999</v>
+        <v>1</v>
       </c>
       <c r="L39" s="4" t="n">
-        <v>1.020162926923792</v>
+        <v>1</v>
       </c>
       <c r="M39" s="4" t="n">
-        <v>1.007700422753209</v>
+        <v>1</v>
       </c>
       <c r="N39" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="O39" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="P39" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1.00314708579855</v>
       </c>
       <c r="Q39" s="4" t="n">
-        <v>1.369343002478419</v>
+        <v>1</v>
       </c>
       <c r="R39" s="4" t="n">
         <v>1</v>
@@ -4983,25 +4983,25 @@
         <v/>
       </c>
       <c r="B40" s="4" t="n">
-        <v>29.81329884357882</v>
+        <v>13.60757394624195</v>
       </c>
       <c r="C40" s="4" t="n">
-        <v>1.166847851051125</v>
+        <v>1.560111999727936</v>
       </c>
       <c r="D40" s="4" t="n">
-        <v>1.010987472881237</v>
+        <v>1.607889583613383</v>
       </c>
       <c r="E40" s="4" t="n">
-        <v>1.578014675342655</v>
+        <v>1.007924170187767</v>
       </c>
       <c r="F40" s="4" t="n">
-        <v>1.197745766801193</v>
+        <v>1.191603691739318</v>
       </c>
       <c r="G40" s="4" t="n">
-        <v>1.018864123828861</v>
+        <v>1.752990798555913</v>
       </c>
       <c r="H40" s="4" t="n">
-        <v>1.349582792258853</v>
+        <v>1.086719532258636</v>
       </c>
       <c r="I40" s="4" t="n">
         <v>1</v>
@@ -5016,16 +5016,16 @@
         <v>1</v>
       </c>
       <c r="M40" s="4" t="n">
-        <v>1</v>
+        <v>3.737234866215947</v>
       </c>
       <c r="N40" s="4" t="n">
-        <v>1</v>
+        <v>0.9462512731773102</v>
       </c>
       <c r="O40" s="4" t="n">
-        <v>1</v>
+        <v>1.004482077762793</v>
       </c>
       <c r="P40" s="4" t="n">
-        <v>1.074912352547519</v>
+        <v>1</v>
       </c>
       <c r="Q40" s="4" t="n">
         <v>1</v>
@@ -5058,34 +5058,34 @@
         <v/>
       </c>
       <c r="B41" s="4" t="n">
-        <v>9.524584447285831</v>
+        <v>23.26964019586971</v>
       </c>
       <c r="C41" s="4" t="n">
-        <v>1.256651208201123</v>
+        <v>1.450380841281823</v>
       </c>
       <c r="D41" s="4" t="n">
-        <v>1.210051471302321</v>
+        <v>1.006308232874725</v>
       </c>
       <c r="E41" s="4" t="n">
-        <v>1.846716265780624</v>
+        <v>1.843376817136087</v>
       </c>
       <c r="F41" s="4" t="n">
         <v>1</v>
       </c>
       <c r="G41" s="4" t="n">
-        <v>1</v>
+        <v>7.2492816116384</v>
       </c>
       <c r="H41" s="4" t="n">
-        <v>1.007388124242174</v>
+        <v>1</v>
       </c>
       <c r="I41" s="4" t="n">
-        <v>1.011039737013533</v>
+        <v>1.000464411316437</v>
       </c>
       <c r="J41" s="4" t="n">
         <v>1</v>
       </c>
       <c r="K41" s="4" t="n">
-        <v>1.003814676691216</v>
+        <v>1</v>
       </c>
       <c r="L41" s="4" t="n">
         <v>1</v>
@@ -5094,28 +5094,28 @@
         <v>1</v>
       </c>
       <c r="N41" s="4" t="n">
-        <v>1</v>
+        <v>1.000679882647566</v>
       </c>
       <c r="O41" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="P41" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="Q41" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="R41" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="S41" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="T41" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="U41" s="4" t="n">
-        <v>1</v>
+        <v>1.060913581901356</v>
       </c>
       <c r="V41" s="4" t="n">
         <v/>
@@ -5133,19 +5133,19 @@
         <v/>
       </c>
       <c r="B42" s="4" t="n">
-        <v>10.85538650129795</v>
+        <v>4.320385126162018</v>
       </c>
       <c r="C42" s="4" t="n">
-        <v>1.282966604115117</v>
+        <v>1.247326100472954</v>
       </c>
       <c r="D42" s="4" t="n">
-        <v>1.407150734437535</v>
+        <v>1.855463017933754</v>
       </c>
       <c r="E42" s="4" t="n">
-        <v>1</v>
+        <v>1.007999142733383</v>
       </c>
       <c r="F42" s="4" t="n">
-        <v>1.004599333648541</v>
+        <v>1.080681748421477</v>
       </c>
       <c r="G42" s="4" t="n">
         <v>1</v>
@@ -5154,19 +5154,19 @@
         <v>1</v>
       </c>
       <c r="I42" s="4" t="n">
-        <v>1</v>
+        <v>1.003799067829017</v>
       </c>
       <c r="J42" s="4" t="n">
-        <v>6.951759614838743</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="K42" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="L42" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="M42" s="4" t="n">
-        <v>1</v>
+        <v>1.002208425696137</v>
       </c>
       <c r="N42" s="4" t="n">
         <v>1</v>
@@ -5208,25 +5208,25 @@
         <v/>
       </c>
       <c r="B43" s="4" t="n">
-        <v>14.52163823112295</v>
+        <v>12.55037573058725</v>
       </c>
       <c r="C43" s="4" t="n">
-        <v>1.03788650030778</v>
+        <v>1.098839078802932</v>
       </c>
       <c r="D43" s="4" t="n">
-        <v>1.030629644203407</v>
+        <v>1.010090715532638</v>
       </c>
       <c r="E43" s="4" t="n">
-        <v>1.002476151479604</v>
+        <v>1</v>
       </c>
       <c r="F43" s="4" t="n">
-        <v>1</v>
+        <v>1.884107051877604</v>
       </c>
       <c r="G43" s="4" t="n">
-        <v>1.007332831046826</v>
+        <v>1</v>
       </c>
       <c r="H43" s="4" t="n">
-        <v>1.258356164383561</v>
+        <v>1.856888351599408</v>
       </c>
       <c r="I43" s="4" t="n">
         <v>1</v>
@@ -5247,7 +5247,7 @@
         <v>1</v>
       </c>
       <c r="O43" s="4" t="n">
-        <v>1.001088613106902</v>
+        <v>1</v>
       </c>
       <c r="P43" s="4" t="n">
         <v>1</v>
@@ -5283,34 +5283,34 @@
         <v/>
       </c>
       <c r="B44" s="4" t="n">
-        <v>3.466913804967923</v>
+        <v>13.77571916138469</v>
       </c>
       <c r="C44" s="4" t="n">
-        <v>1.545287198827002</v>
+        <v>1.499911516953352</v>
       </c>
       <c r="D44" s="4" t="n">
-        <v>1.000459923470392</v>
+        <v>1.023431692957514</v>
       </c>
       <c r="E44" s="4" t="n">
-        <v>1.013325436778206</v>
+        <v>2.637019701877962</v>
       </c>
       <c r="F44" s="4" t="n">
-        <v>1.030653157479575</v>
+        <v>1</v>
       </c>
       <c r="G44" s="4" t="n">
-        <v>1.121579233304121</v>
+        <v>1</v>
       </c>
       <c r="H44" s="4" t="n">
-        <v>1</v>
+        <v>1.011987252068916</v>
       </c>
       <c r="I44" s="4" t="n">
-        <v>1.00951271426147</v>
+        <v>1</v>
       </c>
       <c r="J44" s="4" t="n">
-        <v>1.013436769431481</v>
+        <v>1</v>
       </c>
       <c r="K44" s="4" t="n">
-        <v>1.004197208312166</v>
+        <v>1</v>
       </c>
       <c r="L44" s="4" t="n">
         <v>1</v>
@@ -5358,22 +5358,22 @@
         <v/>
       </c>
       <c r="B45" s="4" t="n">
-        <v>39.50245168733776</v>
+        <v>3.732769744160178</v>
       </c>
       <c r="C45" s="4" t="n">
-        <v>1.019856887298748</v>
+        <v>1.054127827973395</v>
       </c>
       <c r="D45" s="4" t="n">
-        <v>1.636043085888978</v>
+        <v>1.090461921185051</v>
       </c>
       <c r="E45" s="4" t="n">
-        <v>1.025444886188343</v>
+        <v>1.207393581168663</v>
       </c>
       <c r="F45" s="4" t="n">
-        <v>1.079589293639684</v>
+        <v>1.797432043629493</v>
       </c>
       <c r="G45" s="4" t="n">
-        <v>1.015244408604701</v>
+        <v>1</v>
       </c>
       <c r="H45" s="4" t="n">
         <v>1</v>
@@ -5382,10 +5382,10 @@
         <v>1</v>
       </c>
       <c r="J45" s="4" t="n">
-        <v>1.003893557913754</v>
+        <v>1</v>
       </c>
       <c r="K45" s="4" t="n">
-        <v>1</v>
+        <v>1.013101813803253</v>
       </c>
       <c r="L45" s="4" t="n">
         <v>1</v>
@@ -5433,37 +5433,37 @@
         <v/>
       </c>
       <c r="B46" s="4" t="n">
-        <v>6.644216892309807</v>
+        <v>14.59087413483722</v>
       </c>
       <c r="C46" s="4" t="n">
-        <v>1.108659495242036</v>
+        <v>1</v>
       </c>
       <c r="D46" s="4" t="n">
-        <v>1.012841325108317</v>
+        <v>1.033925402765333</v>
       </c>
       <c r="E46" s="4" t="n">
-        <v>1.263039601479713</v>
+        <v>1.014927782497876</v>
       </c>
       <c r="F46" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>2.339394091597814</v>
       </c>
       <c r="G46" s="4" t="n">
-        <v>3.370228183690496</v>
+        <v>1</v>
       </c>
       <c r="H46" s="4" t="n">
-        <v>1.002163951340524</v>
+        <v>1</v>
       </c>
       <c r="I46" s="4" t="n">
-        <v>1</v>
+        <v>1.006798899293988</v>
       </c>
       <c r="J46" s="4" t="n">
-        <v>1</v>
+        <v>1.009745625664192</v>
       </c>
       <c r="K46" s="4" t="n">
         <v>1</v>
       </c>
       <c r="L46" s="4" t="n">
-        <v>1.002288835492324</v>
+        <v>1</v>
       </c>
       <c r="M46" s="4" t="n">
         <v>1</v>
@@ -5508,43 +5508,43 @@
         <v/>
       </c>
       <c r="B47" s="4" t="n">
-        <v>17.45291953828591</v>
+        <v>3.884009729868135</v>
       </c>
       <c r="C47" s="4" t="n">
-        <v>1.489351444719814</v>
+        <v>1.391027753971916</v>
       </c>
       <c r="D47" s="4" t="n">
-        <v>1.014691601615556</v>
+        <v>1.215326651027227</v>
       </c>
       <c r="E47" s="4" t="n">
-        <v>1.036126674201072</v>
+        <v>6.84932147870847</v>
       </c>
       <c r="F47" s="4" t="n">
-        <v>1.491845635662909</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="G47" s="4" t="n">
-        <v>2.186546724314772</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="H47" s="4" t="n">
-        <v>1</v>
+        <v>1.00170800027328</v>
       </c>
       <c r="I47" s="4" t="n">
-        <v>1</v>
+        <v>1.065526531169008</v>
       </c>
       <c r="J47" s="4" t="n">
         <v>1</v>
       </c>
       <c r="K47" s="4" t="n">
-        <v>1.005691633014886</v>
+        <v>1</v>
       </c>
       <c r="L47" s="4" t="n">
-        <v>1.006011720662266</v>
+        <v>1</v>
       </c>
       <c r="M47" s="4" t="n">
         <v>1</v>
       </c>
       <c r="N47" s="4" t="n">
-        <v>1.073369102786783</v>
+        <v>1</v>
       </c>
       <c r="O47" s="4" t="n">
         <v>1</v>
@@ -5583,16 +5583,16 @@
         <v/>
       </c>
       <c r="B48" s="4" t="n">
-        <v>80.92450388265748</v>
+        <v/>
       </c>
       <c r="C48" s="4" t="n">
-        <v>1.314426147358769</v>
+        <v>25.82948442534909</v>
       </c>
       <c r="D48" s="4" t="n">
-        <v>3.75660274817086</v>
+        <v>1</v>
       </c>
       <c r="E48" s="4" t="n">
-        <v>1.237432293685351</v>
+        <v>1</v>
       </c>
       <c r="F48" s="4" t="n">
         <v>1</v>
@@ -5604,10 +5604,10 @@
         <v>1</v>
       </c>
       <c r="I48" s="4" t="n">
-        <v>1.066308195256696</v>
+        <v>1.014253189034089</v>
       </c>
       <c r="J48" s="4" t="n">
-        <v>1.000409110732366</v>
+        <v>1</v>
       </c>
       <c r="K48" s="4" t="n">
         <v>1</v>
@@ -5658,40 +5658,40 @@
         <v/>
       </c>
       <c r="B49" s="4" t="n">
-        <v>15.61185517462352</v>
+        <v/>
       </c>
       <c r="C49" s="4" t="n">
-        <v>1.599807899910928</v>
+        <v>68.55200520052004</v>
       </c>
       <c r="D49" s="4" t="n">
-        <v>2.94859268762027</v>
+        <v>1</v>
       </c>
       <c r="E49" s="4" t="n">
-        <v>1.298591037004422</v>
+        <v>1</v>
       </c>
       <c r="F49" s="4" t="n">
-        <v>1.930359920099654</v>
+        <v>1.000109416931759</v>
       </c>
       <c r="G49" s="4" t="n">
-        <v>1.000951822243204</v>
+        <v>1.00692971023002</v>
       </c>
       <c r="H49" s="4" t="n">
-        <v>1.017339845716989</v>
+        <v>1.000060845138981</v>
       </c>
       <c r="I49" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1.053536843111663</v>
       </c>
       <c r="J49" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="K49" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="L49" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="M49" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1.001990302175308</v>
       </c>
       <c r="N49" t="n">
         <v/>
@@ -5733,22 +5733,22 @@
         <v/>
       </c>
       <c r="B50" s="4" t="n">
-        <v>16.86107054416153</v>
+        <v>6.208312568523872</v>
       </c>
       <c r="C50" s="4" t="n">
-        <v>1.169285808431716</v>
+        <v>1.321089134343694</v>
       </c>
       <c r="D50" s="4" t="n">
-        <v>1.125166667740211</v>
+        <v>1.007364378767256</v>
       </c>
       <c r="E50" s="4" t="n">
-        <v>1.004906085950962</v>
+        <v>3.022764011870582</v>
       </c>
       <c r="F50" s="4" t="n">
-        <v>1.002848386104433</v>
+        <v>1.146011677422187</v>
       </c>
       <c r="G50" s="4" t="n">
-        <v>1.26352264851907</v>
+        <v>1</v>
       </c>
       <c r="H50" s="4" t="n">
         <v>1</v>
@@ -5757,10 +5757,10 @@
         <v>1</v>
       </c>
       <c r="J50" s="4" t="n">
-        <v>1</v>
+        <v>1.523226132228239</v>
       </c>
       <c r="K50" s="4" t="n">
-        <v>1</v>
+        <v>1.002862355453336</v>
       </c>
       <c r="L50" s="4" t="n">
         <v>1</v>
@@ -5808,25 +5808,25 @@
         <v/>
       </c>
       <c r="B51" s="4" t="n">
-        <v>13.60757394624195</v>
+        <v>1</v>
       </c>
       <c r="C51" s="4" t="n">
-        <v>1.560111999727936</v>
+        <v>1.057015463428517</v>
       </c>
       <c r="D51" s="4" t="n">
-        <v>1.607889583613383</v>
+        <v>1</v>
       </c>
       <c r="E51" s="4" t="n">
-        <v>1.007924170187767</v>
+        <v>11.36259199425597</v>
       </c>
       <c r="F51" s="4" t="n">
-        <v>1.191603691739318</v>
+        <v>1.169381210407419</v>
       </c>
       <c r="G51" s="4" t="n">
-        <v>1.752990798555913</v>
+        <v>1.034475771044135</v>
       </c>
       <c r="H51" s="4" t="n">
-        <v>1.086719532258636</v>
+        <v>1.017512242899118</v>
       </c>
       <c r="I51" s="4" t="n">
         <v>1</v>
@@ -5883,28 +5883,28 @@
         <v/>
       </c>
       <c r="B52" s="4" t="n">
-        <v>23.2696401958697</v>
+        <v/>
       </c>
       <c r="C52" s="4" t="n">
-        <v>1.450380841281823</v>
+        <v/>
       </c>
       <c r="D52" s="4" t="n">
-        <v>1.006308232874725</v>
+        <v/>
       </c>
       <c r="E52" s="4" t="n">
-        <v>1.843376817136087</v>
+        <v>1.594763161293894</v>
       </c>
       <c r="F52" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="G52" s="4" t="n">
-        <v>7.249281611638403</v>
+        <v>1.026473821232282</v>
       </c>
       <c r="H52" s="4" t="n">
-        <v>1</v>
+        <v>1.030739575935883</v>
       </c>
       <c r="I52" s="4" t="n">
-        <v>1.000464411316437</v>
+        <v>1</v>
       </c>
       <c r="J52" s="4" t="n">
         <v>1</v>
@@ -5958,28 +5958,28 @@
         <v/>
       </c>
       <c r="B53" s="4" t="n">
-        <v>4.320385126162018</v>
+        <v/>
       </c>
       <c r="C53" s="4" t="n">
-        <v>1.247326100472954</v>
+        <v/>
       </c>
       <c r="D53" s="4" t="n">
-        <v>1.855463017933754</v>
+        <v>1.103950391717188</v>
       </c>
       <c r="E53" s="4" t="n">
-        <v>1.007999142733383</v>
+        <v>1</v>
       </c>
       <c r="F53" s="4" t="n">
-        <v>1.080681748421477</v>
+        <v>1</v>
       </c>
       <c r="G53" s="4" t="n">
-        <v>1</v>
+        <v>8.608280254777071</v>
       </c>
       <c r="H53" s="4" t="n">
-        <v>1</v>
+        <v>1.007943929317382</v>
       </c>
       <c r="I53" s="4" t="n">
-        <v>1.003799067829017</v>
+        <v>1</v>
       </c>
       <c r="J53" t="n">
         <v/>
@@ -6033,25 +6033,25 @@
         <v/>
       </c>
       <c r="B54" s="4" t="n">
-        <v>12.55037573058725</v>
+        <v/>
       </c>
       <c r="C54" s="4" t="n">
-        <v>1.098839078802932</v>
+        <v>1.011658532806569</v>
       </c>
       <c r="D54" s="4" t="n">
-        <v>1.010090715532638</v>
+        <v>1.672269229296681</v>
       </c>
       <c r="E54" s="4" t="n">
         <v>1</v>
       </c>
       <c r="F54" s="4" t="n">
-        <v>1.884107051877604</v>
+        <v>1</v>
       </c>
       <c r="G54" s="4" t="n">
         <v>1</v>
       </c>
       <c r="H54" s="4" t="n">
-        <v>1.856888351599408</v>
+        <v>1</v>
       </c>
       <c r="I54" t="n">
         <v/>
@@ -6108,16 +6108,16 @@
         <v/>
       </c>
       <c r="B55" s="4" t="n">
-        <v>13.77571916138469</v>
+        <v>2.540958812563751</v>
       </c>
       <c r="C55" s="4" t="n">
-        <v>1.499911516953352</v>
+        <v>2.080922455081531</v>
       </c>
       <c r="D55" s="4" t="n">
-        <v>1.023431692957514</v>
+        <v>1.059402647508814</v>
       </c>
       <c r="E55" s="4" t="n">
-        <v>2.637019701877962</v>
+        <v>1</v>
       </c>
       <c r="F55" s="4" t="n">
         <v>1</v>
@@ -6183,19 +6183,19 @@
         <v/>
       </c>
       <c r="B56" s="4" t="n">
-        <v>3.732769744160178</v>
+        <v>13.01059126463587</v>
       </c>
       <c r="C56" s="4" t="n">
-        <v>1.054127827973395</v>
+        <v>1.046087148100987</v>
       </c>
       <c r="D56" s="4" t="n">
-        <v>1.090461921185051</v>
+        <v>1.759265935838994</v>
       </c>
       <c r="E56" s="4" t="n">
-        <v>1.207393581168663</v>
+        <v>1.048748171309495</v>
       </c>
       <c r="F56" s="4" t="n">
-        <v>1.797432043629493</v>
+        <v>1.042328349430411</v>
       </c>
       <c r="G56" t="n">
         <v/>
@@ -6258,16 +6258,16 @@
         <v/>
       </c>
       <c r="B57" s="4" t="n">
-        <v>14.59087413483722</v>
+        <v>31.24567134923228</v>
       </c>
       <c r="C57" s="4" t="n">
-        <v>1</v>
+        <v>1.08177284275901</v>
       </c>
       <c r="D57" s="4" t="n">
-        <v>1.033925402765333</v>
+        <v>1</v>
       </c>
       <c r="E57" s="4" t="n">
-        <v>1.014927782497876</v>
+        <v>2.305855176679811</v>
       </c>
       <c r="F57" t="n">
         <v/>
@@ -6333,13 +6333,13 @@
         <v/>
       </c>
       <c r="B58" s="4" t="n">
-        <v>3.884009729868135</v>
+        <v>26.84954462659381</v>
       </c>
       <c r="C58" s="4" t="n">
-        <v>1.391027753971916</v>
+        <v>1</v>
       </c>
       <c r="D58" s="4" t="n">
-        <v>1.215326651027227</v>
+        <v>1.062454207484193</v>
       </c>
       <c r="E58" t="n">
         <v/>
@@ -6408,10 +6408,10 @@
         <v/>
       </c>
       <c r="B59" s="4" t="n">
-        <v/>
+        <v>3.288299610405932</v>
       </c>
       <c r="C59" s="4" t="n">
-        <v>25.82948442534909</v>
+        <v>1.090999426715078</v>
       </c>
       <c r="D59" t="n">
         <v/>
@@ -6704,61 +6704,61 @@
         <v>1</v>
       </c>
       <c r="B2" s="34" t="n">
-        <v>0.01732801639288649</v>
+        <v>0.01145103847713288</v>
       </c>
       <c r="C2" s="34" t="n">
-        <v>0.01252333666036123</v>
+        <v>0.01177168672325772</v>
       </c>
       <c r="D2" s="34" t="n">
-        <v>0.01609569300763277</v>
+        <v>0.03692398667380116</v>
       </c>
       <c r="E2" s="34" t="n">
-        <v>0.04478385791843711</v>
+        <v>0.01854398918134242</v>
       </c>
       <c r="F2" s="34" t="n">
-        <v>0.003764053715950572</v>
+        <v>0.001625408364734627</v>
       </c>
       <c r="G2" s="34" t="n">
-        <v>0.002755023879438029</v>
+        <v>0.0009068374937652933</v>
       </c>
       <c r="H2" s="34" t="n">
-        <v>0.003426638441563142</v>
+        <v>0.01185972947552686</v>
       </c>
       <c r="I2" s="34" t="n">
-        <v>0.007374599933884684</v>
+        <v>0.007784148983793504</v>
       </c>
       <c r="J2" s="34" t="n">
-        <v>0.01252333666036123</v>
+        <v>0.01177168672325772</v>
       </c>
       <c r="M2" s="33" t="n">
         <v>1</v>
       </c>
       <c r="N2" s="22" t="n">
-        <v>10.18298107467514</v>
+        <v>8.845748484962549</v>
       </c>
       <c r="O2" s="22" t="n">
-        <v>9.552882584919841</v>
+        <v>7.298988614413745</v>
       </c>
       <c r="P2" s="22" t="n">
-        <v>6.745152879829344</v>
+        <v>8.53097472004078</v>
       </c>
       <c r="Q2" s="22" t="n">
-        <v>3.884009729868135</v>
+        <v>9.331620257895722</v>
       </c>
       <c r="R2" s="22" t="n">
-        <v>18.31883694318312</v>
+        <v>12.13809715999128</v>
       </c>
       <c r="S2" s="22" t="n">
-        <v>12.22042734878962</v>
+        <v>12.02048260456507</v>
       </c>
       <c r="T2" s="22" t="n">
-        <v>8.995843192562553</v>
+        <v>15.38701313268633</v>
       </c>
       <c r="U2" s="22" t="n">
-        <v>3.884009729868135</v>
+        <v>15.06892211849987</v>
       </c>
       <c r="V2" s="22" t="n">
-        <v>9.552882584919841</v>
+        <v>7.298988614413745</v>
       </c>
     </row>
     <row r="3">
@@ -6767,62 +6767,62 @@
         <v/>
       </c>
       <c r="B3" s="34" t="n">
-        <v>0.1764508629904237</v>
+        <v>0.101293006260346</v>
       </c>
       <c r="C3" s="34" t="n">
-        <v>0.119633964687853</v>
+        <v>0.08592140736550352</v>
       </c>
       <c r="D3" s="34" t="n">
-        <v>0.1085679100432832</v>
+        <v>0.3149975968773203</v>
       </c>
       <c r="E3" s="34" t="n">
-        <v>0.1739409398962418</v>
+        <v>0.173045465106814</v>
       </c>
       <c r="F3" s="34" t="n">
-        <v>0.06895308626788105</v>
+        <v>0.01972936465581145</v>
       </c>
       <c r="G3" s="34" t="n">
-        <v>0.03366756916285297</v>
+        <v>0.0109006243189731</v>
       </c>
       <c r="H3" s="34" t="n">
-        <v>0.03082550209790895</v>
+        <v>0.1824858131900389</v>
       </c>
       <c r="I3" s="34" t="n">
-        <v>0.02864301789709301</v>
+        <v>0.1172987347955842</v>
       </c>
       <c r="J3" s="34" t="n">
-        <v>0.119633964687853</v>
+        <v>0.08592140736550352</v>
       </c>
       <c r="M3">
         <f>+M2+1</f>
         <v/>
       </c>
       <c r="N3" s="22" t="n">
-        <v>1.33366544031822</v>
+        <v>2.493748225568972</v>
       </c>
       <c r="O3" s="22" t="n">
-        <v>1.441706859544287</v>
+        <v>5.413288539404963</v>
       </c>
       <c r="P3" s="22" t="n">
-        <v>1.623989764869327</v>
+        <v>1.179798598777627</v>
       </c>
       <c r="Q3" s="22" t="n">
-        <v>2.297901387643118</v>
+        <v>1.052181474093397</v>
       </c>
       <c r="R3" s="22" t="n">
-        <v>2.392718526158046</v>
+        <v>5.857092672831572</v>
       </c>
       <c r="S3" s="22" t="n">
-        <v>3.351227450019568</v>
+        <v>10.40710346291045</v>
       </c>
       <c r="T3" s="22" t="n">
-        <v>5.312231767175113</v>
+        <v>1.218573400910529</v>
       </c>
       <c r="U3" s="22" t="n">
-        <v>9.406837393107001</v>
+        <v>1.057590756491362</v>
       </c>
       <c r="V3" s="22" t="n">
-        <v>1.441706859544287</v>
+        <v>5.413288539404963</v>
       </c>
     </row>
     <row r="4">
@@ -6831,62 +6831,62 @@
         <v/>
       </c>
       <c r="B4" s="34" t="n">
-        <v>0.2353264178846533</v>
+        <v>0.2525992546242846</v>
       </c>
       <c r="C4" s="34" t="n">
-        <v>0.1724771075249566</v>
+        <v>0.4651173697812254</v>
       </c>
       <c r="D4" s="34" t="n">
-        <v>0.1763131747035458</v>
+        <v>0.3716337234141823</v>
       </c>
       <c r="E4" s="34" t="n">
-        <v>0.3996991271555222</v>
+        <v>0.1820752325612651</v>
       </c>
       <c r="F4" s="34" t="n">
-        <v>0.1649853269489329</v>
+        <v>0.1155567171651754</v>
       </c>
       <c r="G4" s="34" t="n">
-        <v>0.1128276819539852</v>
+        <v>0.1134439250978708</v>
       </c>
       <c r="H4" s="34" t="n">
-        <v>0.163752211483635</v>
+        <v>0.2223723579969092</v>
       </c>
       <c r="I4" s="34" t="n">
-        <v>0.2694402118058076</v>
+        <v>0.1240540576679416</v>
       </c>
       <c r="J4" s="34" t="n">
-        <v>0.1724771075249566</v>
+        <v>0.4651173697812254</v>
       </c>
       <c r="M4">
         <f>+M3+1</f>
         <v/>
       </c>
       <c r="N4" s="22" t="n">
-        <v>1.436135109787983</v>
+        <v>1.283030892092445</v>
       </c>
       <c r="O4" s="22" t="n">
-        <v>1.669796080512594</v>
+        <v>1.06878641342656</v>
       </c>
       <c r="P4" s="22" t="n">
-        <v>1.419409134429302</v>
+        <v>1.369540975432803</v>
       </c>
       <c r="Q4" s="22" t="n">
-        <v>1.085690093834109</v>
+        <v>1.475181771465433</v>
       </c>
       <c r="R4" s="22" t="n">
-        <v>1.398029339538771</v>
+        <v>1.279068168193162</v>
       </c>
       <c r="S4" s="22" t="n">
-        <v>1.557329243586377</v>
+        <v>1.170912131058214</v>
       </c>
       <c r="T4" s="22" t="n">
-        <v>1.20478323356692</v>
+        <v>1.276223735307645</v>
       </c>
       <c r="U4" s="22" t="n">
-        <v>1.113237991659204</v>
+        <v>1.273906714441062</v>
       </c>
       <c r="V4" s="22" t="n">
-        <v>1.669796080512594</v>
+        <v>1.06878641342656</v>
       </c>
     </row>
     <row r="5">
@@ -6895,62 +6895,62 @@
         <v/>
       </c>
       <c r="B5" s="34" t="n">
-        <v>0.3379605309847894</v>
+        <v>0.3240926470024826</v>
       </c>
       <c r="C5" s="34" t="n">
-        <v>0.2880015981233218</v>
+        <v>0.4971111254708712</v>
       </c>
       <c r="D5" s="34" t="n">
-        <v>0.2502605306944422</v>
+        <v>0.5089676120683836</v>
       </c>
       <c r="E5" s="34" t="n">
-        <v>0.4339493828668904</v>
+        <v>0.2685940641097077</v>
       </c>
       <c r="F5" s="34" t="n">
-        <v>0.2306543276680048</v>
+        <v>0.1478049185468762</v>
       </c>
       <c r="G5" s="34" t="n">
-        <v>0.175709848593004</v>
+        <v>0.1328328680919563</v>
       </c>
       <c r="H5" s="34" t="n">
-        <v>0.1972859188549878</v>
+        <v>0.2837968813519844</v>
       </c>
       <c r="I5" s="34" t="n">
-        <v>0.2999510802629277</v>
+        <v>0.1580332970168495</v>
       </c>
       <c r="J5" s="34" t="n">
-        <v>0.2880015981233218</v>
+        <v>0.4971111254708712</v>
       </c>
       <c r="M5">
         <f>+M4+1</f>
         <v/>
       </c>
       <c r="N5" s="22" t="n">
-        <v>1.182187849884554</v>
+        <v>1.202155357991051</v>
       </c>
       <c r="O5" s="22" t="n">
-        <v>1.2005817208177</v>
+        <v>1.189770004791567</v>
       </c>
       <c r="P5" s="22" t="n">
-        <v>1.316891557620592</v>
+        <v>1.214220787362086</v>
       </c>
       <c r="Q5" s="22" t="n">
-        <v>1.54426378798051</v>
+        <v>1.21061645422023</v>
       </c>
       <c r="R5" s="22" t="n">
-        <v>1.323051015934824</v>
+        <v>2.160309115633768</v>
       </c>
       <c r="S5" s="22" t="n">
-        <v>1.296561407326938</v>
+        <v>2.683247648051342</v>
       </c>
       <c r="T5" s="22" t="n">
-        <v>1.451786170902328</v>
+        <v>1.324894418213867</v>
       </c>
       <c r="U5" s="22" t="n">
-        <v>1.6197803551815</v>
+        <v>1.451534449329769</v>
       </c>
       <c r="V5" s="22" t="n">
-        <v>1.2005817208177</v>
+        <v>1.189770004791567</v>
       </c>
     </row>
     <row r="6">
@@ -6959,62 +6959,62 @@
         <v/>
       </c>
       <c r="B6" s="34" t="n">
-        <v>0.3995328334707502</v>
+        <v>0.3896097120795369</v>
       </c>
       <c r="C6" s="34" t="n">
-        <v>0.3457694542731453</v>
+        <v>0.5914479061334196</v>
       </c>
       <c r="D6" s="34" t="n">
-        <v>0.3295659800771599</v>
+        <v>0.6179990546674735</v>
       </c>
       <c r="E6" s="34" t="n">
-        <v>0.670132317777829</v>
+        <v>0.3251643935170956</v>
       </c>
       <c r="F6" s="34" t="n">
-        <v>0.3051674425509175</v>
+        <v>0.3193043128723232</v>
       </c>
       <c r="G6" s="34" t="n">
-        <v>0.2278186085729486</v>
+        <v>0.3564234808916558</v>
       </c>
       <c r="H6" s="34" t="n">
-        <v>0.2864169687074302</v>
+        <v>0.3760009040097471</v>
       </c>
       <c r="I6" s="34" t="n">
-        <v>0.4858548673253595</v>
+        <v>0.2293907747611205</v>
       </c>
       <c r="J6" s="34" t="n">
-        <v>0.3457694542731453</v>
+        <v>0.5914479061334196</v>
       </c>
       <c r="M6">
         <f>+M5+1</f>
         <v/>
       </c>
       <c r="N6" s="22" t="n">
-        <v>1.250181021257434</v>
+        <v>1.224577846427152</v>
       </c>
       <c r="O6" s="22" t="n">
-        <v>1.291294541734265</v>
+        <v>1.070196474337358</v>
       </c>
       <c r="P6" s="22" t="n">
-        <v>1.156616768706722</v>
+        <v>1.044537563726796</v>
       </c>
       <c r="Q6" s="22" t="n">
-        <v>1.407270497822714</v>
+        <v>1.030394469590248</v>
       </c>
       <c r="R6" s="22" t="n">
-        <v>1.234055788100135</v>
+        <v>1.241276715140083</v>
       </c>
       <c r="S6" s="22" t="n">
-        <v>1.288205647597881</v>
+        <v>1.207888065784924</v>
       </c>
       <c r="T6" s="22" t="n">
-        <v>1.325637422611315</v>
+        <v>1.035284926639638</v>
       </c>
       <c r="U6" s="22" t="n">
-        <v>1.560513031835699</v>
+        <v>1.014109449810137</v>
       </c>
       <c r="V6" s="22" t="n">
-        <v>1.291294541734265</v>
+        <v>1.070196474337358</v>
       </c>
     </row>
     <row r="7">
@@ -7023,62 +7023,62 @@
         <v/>
       </c>
       <c r="B7" s="34" t="n">
-        <v>0.4994883657743391</v>
+        <v>0.4771074221654621</v>
       </c>
       <c r="C7" s="34" t="n">
-        <v>0.4464902090013482</v>
+        <v>0.6329654638981981</v>
       </c>
       <c r="D7" s="34" t="n">
-        <v>0.3811815389525087</v>
+        <v>0.6455232269478255</v>
       </c>
       <c r="E7" s="34" t="n">
-        <v>0.9430574404462944</v>
+        <v>0.3350475927876825</v>
       </c>
       <c r="F7" s="34" t="n">
-        <v>0.3765936488196751</v>
+        <v>0.3963450086122186</v>
       </c>
       <c r="G7" s="34" t="n">
-        <v>0.2934772181915633</v>
+        <v>0.4305196689345518</v>
       </c>
       <c r="H7" s="34" t="n">
-        <v>0.3796850521894635</v>
+        <v>0.3892680683241688</v>
       </c>
       <c r="I7" s="34" t="n">
-        <v>0.758182852042028</v>
+        <v>0.232627352384521</v>
       </c>
       <c r="J7" s="34" t="n">
-        <v>0.4464902090013482</v>
+        <v>0.6329654638981981</v>
       </c>
       <c r="M7">
         <f>+M6+1</f>
         <v/>
       </c>
       <c r="N7" s="22" t="n">
-        <v>1.58508458895838</v>
+        <v>1.464031000544681</v>
       </c>
       <c r="O7" s="22" t="n">
-        <v>1.753805187580701</v>
+        <v>1.069173215249791</v>
       </c>
       <c r="P7" s="22" t="n">
-        <v>2.453866990496412</v>
+        <v>1.406564526805173</v>
       </c>
       <c r="Q7" s="22" t="n">
-        <v>1</v>
+        <v>2.24951815366368</v>
       </c>
       <c r="R7" s="22" t="n">
-        <v>1.610762027012356</v>
+        <v>1.830161468791116</v>
       </c>
       <c r="S7" s="22" t="n">
-        <v>1.913362119239223</v>
+        <v>1.639679963106959</v>
       </c>
       <c r="T7" s="22" t="n">
-        <v>2.210965843118898</v>
+        <v>2.278204974508915</v>
       </c>
       <c r="U7" s="22" t="n">
-        <v>1</v>
+        <v>3.536093418259023</v>
       </c>
       <c r="V7" s="22" t="n">
-        <v>1.753805187580701</v>
+        <v>1.069173215249791</v>
       </c>
     </row>
     <row r="8">
@@ -7087,62 +7087,62 @@
         <v/>
       </c>
       <c r="B8" s="34" t="n">
-        <v>0.7917313109529113</v>
+        <v>0.698500056640195</v>
       </c>
       <c r="C8" s="34" t="n">
-        <v>0.7830568447505559</v>
+        <v>0.6767497201781122</v>
       </c>
       <c r="D8" s="34" t="n">
-        <v>0.9353687958221834</v>
+        <v>0.9079700722536166</v>
       </c>
       <c r="E8" s="34" t="n">
-        <v>0.9430574404462944</v>
+        <v>0.753695642317208</v>
       </c>
       <c r="F8" s="34" t="n">
-        <v>0.6066027491327594</v>
+        <v>0.7253753631097656</v>
       </c>
       <c r="G8" s="34" t="n">
-        <v>0.5615281921474415</v>
+        <v>0.705914474875426</v>
       </c>
       <c r="H8" s="34" t="n">
-        <v>0.83947068153372</v>
+        <v>0.8868324496735974</v>
       </c>
       <c r="I8" s="34" t="n">
-        <v>0.758182852042028</v>
+        <v>0.8225920496739271</v>
       </c>
       <c r="J8" s="34" t="n">
-        <v>0.7830568447505559</v>
+        <v>0.6767497201781122</v>
       </c>
       <c r="M8">
         <f>+M7+1</f>
         <v/>
       </c>
       <c r="N8" s="22" t="n">
-        <v>1.031850142015811</v>
+        <v>1.025148006708819</v>
       </c>
       <c r="O8" s="22" t="n">
-        <v>1.027195015344534</v>
+        <v>1.033793942306717</v>
       </c>
       <c r="P8" s="22" t="n">
-        <v>1.036004935846251</v>
+        <v>1.002258310591134</v>
       </c>
       <c r="Q8" s="22" t="n">
-        <v>1.031236113980794</v>
+        <v>1.011465884054559</v>
       </c>
       <c r="R8" s="22" t="n">
-        <v>1.093078148433442</v>
+        <v>1.060641151482858</v>
       </c>
       <c r="S8" s="22" t="n">
-        <v>1.10178898710826</v>
+        <v>1.077236683102747</v>
       </c>
       <c r="T8" s="22" t="n">
-        <v>1.160157954929172</v>
+        <v>1.009376098881894</v>
       </c>
       <c r="U8" s="22" t="n">
-        <v>1.285629450533136</v>
+        <v>1.012894501751088</v>
       </c>
       <c r="V8" s="22" t="n">
-        <v>1.027195015344534</v>
+        <v>1.033793942306717</v>
       </c>
     </row>
     <row r="9">
@@ -7151,62 +7151,62 @@
         <v/>
       </c>
       <c r="B9" s="34" t="n">
-        <v>0.8169480656451256</v>
+        <v>0.716065940750693</v>
       </c>
       <c r="C9" s="34" t="n">
-        <v>0.8043520876591893</v>
+        <v>0.6996197611778983</v>
       </c>
       <c r="D9" s="34" t="n">
-        <v>0.9690466893083457</v>
+        <v>0.9100205506842198</v>
       </c>
       <c r="E9" s="34" t="n">
-        <v>0.9725148901465109</v>
+        <v>0.7623374291644431</v>
       </c>
       <c r="F9" s="34" t="n">
-        <v>0.6630642098566721</v>
+        <v>0.7693629603860382</v>
       </c>
       <c r="G9" s="34" t="n">
-        <v>0.6186855780588619</v>
+        <v>0.7604369674690213</v>
       </c>
       <c r="H9" s="34" t="n">
-        <v>0.9739185891111588</v>
+        <v>0.8951474784134094</v>
       </c>
       <c r="I9" s="34" t="n">
-        <v>0.9747422034744384</v>
+        <v>0.8331989642988787</v>
       </c>
       <c r="J9" s="34" t="n">
-        <v>0.8043520876591893</v>
+        <v>0.6996197611778983</v>
       </c>
       <c r="M9">
         <f>+M8+1</f>
         <v/>
       </c>
       <c r="N9" s="22" t="n">
-        <v>1.004395960943765</v>
+        <v>1.011521215675787</v>
       </c>
       <c r="O9" s="22" t="n">
-        <v>1.004771938917542</v>
+        <v>1.029820496907917</v>
       </c>
       <c r="P9" s="22" t="n">
-        <v>1.006998022448774</v>
+        <v>1.039271910485124</v>
       </c>
       <c r="Q9" s="22" t="n">
-        <v>1.000673568581178</v>
+        <v>1</v>
       </c>
       <c r="R9" s="22" t="n">
-        <v>1.005695257854822</v>
+        <v>1.009023683859638</v>
       </c>
       <c r="S9" s="22" t="n">
-        <v>1.006673699055302</v>
+        <v>1.01199287753648</v>
       </c>
       <c r="T9" s="22" t="n">
-        <v>1.011761945733692</v>
+        <v>1.011298338690959</v>
       </c>
       <c r="U9" s="22" t="n">
-        <v>1.001421159715151</v>
+        <v>1</v>
       </c>
       <c r="V9" s="22" t="n">
-        <v>1.004771938917542</v>
+        <v>1.029820496907917</v>
       </c>
     </row>
     <row r="10">
@@ -7215,62 +7215,62 @@
         <v/>
       </c>
       <c r="B10" s="34" t="n">
-        <v>0.8205393374347858</v>
+        <v>0.7243158908921669</v>
       </c>
       <c r="C10" s="34" t="n">
-        <v>0.808190406689696</v>
+        <v>0.720482770102821</v>
       </c>
       <c r="D10" s="34" t="n">
-        <v>0.9758280997940356</v>
+        <v>0.9457587962903141</v>
       </c>
       <c r="E10" s="34" t="n">
-        <v>0.9731699456212414</v>
+        <v>0.7623374291644431</v>
       </c>
       <c r="F10" s="34" t="n">
-        <v>0.6668405315061097</v>
+        <v>0.7763054485138768</v>
       </c>
       <c r="G10" s="34" t="n">
-        <v>0.6228144994166821</v>
+        <v>0.7695567948940898</v>
       </c>
       <c r="H10" s="34" t="n">
-        <v>0.9853737667053178</v>
+        <v>0.9052611578028815</v>
       </c>
       <c r="I10" s="34" t="n">
-        <v>0.9761274678266743</v>
+        <v>0.8331989642988787</v>
       </c>
       <c r="J10" s="34" t="n">
-        <v>0.808190406689696</v>
+        <v>0.720482770102821</v>
       </c>
       <c r="M10">
         <f>+M9+1</f>
         <v/>
       </c>
       <c r="N10" s="22" t="n">
-        <v>1.166904766378235</v>
+        <v>1.009883349996266</v>
       </c>
       <c r="O10" s="22" t="n">
-        <v>1.184821547824403</v>
+        <v>1.015183692216935</v>
       </c>
       <c r="P10" s="22" t="n">
-        <v>1.000038462855075</v>
+        <v>1.037434482119415</v>
       </c>
       <c r="Q10" s="22" t="n">
-        <v>1</v>
+        <v>1.281136619220212</v>
       </c>
       <c r="R10" s="22" t="n">
-        <v>1.397966603527756</v>
+        <v>1.035531450526162</v>
       </c>
       <c r="S10" s="22" t="n">
-        <v>1.497458254409695</v>
+        <v>1.044414313157703</v>
       </c>
       <c r="T10" s="22" t="n">
-        <v>1.000068185122061</v>
+        <v>1.087204355371373</v>
       </c>
       <c r="U10" s="22" t="n">
-        <v>1</v>
+        <v>1.174408710742746</v>
       </c>
       <c r="V10" s="22" t="n">
-        <v>1.184821547824403</v>
+        <v>1.015183692216935</v>
       </c>
     </row>
     <row r="11">
@@ -7279,62 +7279,62 @@
         <v/>
       </c>
       <c r="B11" s="34" t="n">
-        <v>0.9574912638534908</v>
+        <v>0.7314745583497114</v>
       </c>
       <c r="C11" s="34" t="n">
-        <v>0.9575614085909195</v>
+        <v>0.7314223587316669</v>
       </c>
       <c r="D11" s="34" t="n">
-        <v>0.9758656329288157</v>
+        <v>0.981162787039323</v>
       </c>
       <c r="E11" s="34" t="n">
-        <v>0.9731699456212414</v>
+        <v>0.9766583967047622</v>
       </c>
       <c r="F11" s="34" t="n">
-        <v>0.9322207929242399</v>
+        <v>0.8038887071509379</v>
       </c>
       <c r="G11" s="34" t="n">
-        <v>0.9326387131175529</v>
+        <v>0.8037361313751539</v>
       </c>
       <c r="H11" s="34" t="n">
-        <v>0.9854409545358761</v>
+        <v>0.9842038735118249</v>
       </c>
       <c r="I11" s="34" t="n">
-        <v>0.9761274678266743</v>
+        <v>0.9785161214544377</v>
       </c>
       <c r="J11" s="34" t="n">
-        <v>0.9575614085909195</v>
+        <v>0.7314223587316669</v>
       </c>
       <c r="M11">
         <f>+M10+1</f>
         <v/>
       </c>
       <c r="N11" s="22" t="n">
-        <v>1.001053710238806</v>
+        <v>1.000256997338076</v>
       </c>
       <c r="O11" s="22" t="n">
-        <v>1.000889062695369</v>
+        <v>1.000328382950758</v>
       </c>
       <c r="P11" s="22" t="n">
-        <v>1.001085953097143</v>
+        <v>1.00028738633377</v>
       </c>
       <c r="Q11" s="22" t="n">
-        <v>1</v>
+        <v>1.00035747528795</v>
       </c>
       <c r="R11" s="22" t="n">
-        <v>1.001773127024162</v>
+        <v>1.001140297804042</v>
       </c>
       <c r="S11" s="22" t="n">
-        <v>1.001141959834856</v>
+        <v>1.001330347438049</v>
       </c>
       <c r="T11" s="22" t="n">
-        <v>1.000948605502481</v>
+        <v>1.000477059242223</v>
       </c>
       <c r="U11" s="22" t="n">
-        <v>1</v>
+        <v>1.000954118484445</v>
       </c>
       <c r="V11" s="22" t="n">
-        <v>1.000889062695369</v>
+        <v>1.000328382950758</v>
       </c>
     </row>
     <row r="12">
@@ -7343,62 +7343,62 @@
         <v/>
       </c>
       <c r="B12" s="34" t="n">
-        <v>0.9585001822017802</v>
+        <v>0.7316625453640778</v>
       </c>
       <c r="C12" s="34" t="n">
-        <v>0.958412740717823</v>
+        <v>0.7316625453640778</v>
       </c>
       <c r="D12" s="34" t="n">
-        <v>0.9769253772352898</v>
+        <v>0.9814447598155218</v>
       </c>
       <c r="E12" s="34" t="n">
-        <v>0.9731699456212414</v>
+        <v>0.9770075279463533</v>
       </c>
       <c r="F12" s="34" t="n">
-        <v>0.9338737388046595</v>
+        <v>0.8048053796783963</v>
       </c>
       <c r="G12" s="34" t="n">
-        <v>0.9337037490683646</v>
+        <v>0.8048053796783963</v>
       </c>
       <c r="H12" s="34" t="n">
-        <v>0.9863757492477189</v>
+        <v>0.9846733970659151</v>
       </c>
       <c r="I12" s="34" t="n">
-        <v>0.9761274678266743</v>
+        <v>0.9794497417732451</v>
       </c>
       <c r="J12" s="34" t="n">
-        <v>0.958412740717823</v>
+        <v>0.7316625453640778</v>
       </c>
       <c r="M12">
         <f>+M11+1</f>
         <v/>
       </c>
       <c r="N12" s="22" t="n">
-        <v>1.001558329186888</v>
+        <v>1</v>
       </c>
       <c r="O12" s="22" t="n">
-        <v>1.001649707090011</v>
+        <v>1</v>
       </c>
       <c r="P12" s="22" t="n">
-        <v>1.00188921082345</v>
+        <v>1</v>
       </c>
       <c r="Q12" s="22" t="n">
         <v>1</v>
       </c>
       <c r="R12" s="22" t="n">
-        <v>1.002189498698337</v>
+        <v>1</v>
       </c>
       <c r="S12" s="22" t="n">
-        <v>1.002371956923198</v>
+        <v>1</v>
       </c>
       <c r="T12" s="22" t="n">
-        <v>1.001383426025765</v>
+        <v>1</v>
       </c>
       <c r="U12" s="22" t="n">
         <v>1</v>
       </c>
       <c r="V12" s="22" t="n">
-        <v>1.001649707090011</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -7407,62 +7407,62 @@
         <v/>
       </c>
       <c r="B13" s="34" t="n">
-        <v>0.9599938410113424</v>
+        <v>0.7316625453640778</v>
       </c>
       <c r="C13" s="34" t="n">
-        <v>0.9599938410113424</v>
+        <v>0.7316625453640778</v>
       </c>
       <c r="D13" s="34" t="n">
-        <v>0.9787709952316654</v>
+        <v>0.9814447598155218</v>
       </c>
       <c r="E13" s="34" t="n">
-        <v>0.9731699456212414</v>
+        <v>0.9770075279463533</v>
       </c>
       <c r="F13" s="34" t="n">
-        <v>0.9359184541401836</v>
+        <v>0.8048053796783963</v>
       </c>
       <c r="G13" s="34" t="n">
-        <v>0.9359184541401836</v>
+        <v>0.8048053796783963</v>
       </c>
       <c r="H13" s="34" t="n">
-        <v>0.9877403271304117</v>
+        <v>0.9846733970659151</v>
       </c>
       <c r="I13" s="34" t="n">
-        <v>0.9761274678266743</v>
+        <v>0.9794497417732451</v>
       </c>
       <c r="J13" s="34" t="n">
-        <v>0.9599938410113424</v>
+        <v>0.7316625453640778</v>
       </c>
       <c r="M13">
         <f>+M12+1</f>
         <v/>
       </c>
       <c r="N13" s="22" t="n">
-        <v>1.000664469405034</v>
+        <v>1.371281209188306</v>
       </c>
       <c r="O13" s="22" t="n">
-        <v>1.000664469405034</v>
+        <v>1.371281209188306</v>
       </c>
       <c r="P13" s="22" t="n">
-        <v>1</v>
+        <v>1.001376348952715</v>
       </c>
       <c r="Q13" s="22" t="n">
-        <v>1</v>
+        <v>1.001664189065674</v>
       </c>
       <c r="R13" s="22" t="n">
-        <v>1.001342846674302</v>
+        <v>1.228452799507283</v>
       </c>
       <c r="S13" s="22" t="n">
-        <v>1.001342846674302</v>
+        <v>1.228452799507283</v>
       </c>
       <c r="T13" s="22" t="n">
-        <v>1</v>
+        <v>1.000331717029218</v>
       </c>
       <c r="U13" s="22" t="n">
-        <v>1</v>
+        <v>1.000663434058436</v>
       </c>
       <c r="V13" s="22" t="n">
-        <v>1.000664469405034</v>
+        <v>1.371281209188306</v>
       </c>
     </row>
     <row r="14">
@@ -7471,62 +7471,62 @@
         <v/>
       </c>
       <c r="B14" s="34" t="n">
-        <v>0.9606317275477158</v>
+        <v>1.003315099924647</v>
       </c>
       <c r="C14" s="34" t="n">
-        <v>0.9606317275477158</v>
+        <v>1.003315099924647</v>
       </c>
       <c r="D14" s="34" t="n">
-        <v>0.9787709952316654</v>
+        <v>0.9827955702828415</v>
       </c>
       <c r="E14" s="34" t="n">
-        <v>0.9731699456212414</v>
+        <v>0.9786334531914429</v>
       </c>
       <c r="F14" s="34" t="n">
-        <v>0.9371752491237437</v>
+        <v>0.9886654217244475</v>
       </c>
       <c r="G14" s="34" t="n">
-        <v>0.9371752491237437</v>
+        <v>0.9886654217244475</v>
       </c>
       <c r="H14" s="34" t="n">
-        <v>0.9877403271304117</v>
+        <v>0.98500002999994</v>
       </c>
       <c r="I14" s="34" t="n">
-        <v>0.9761274678266743</v>
+        <v>0.9800995420904633</v>
       </c>
       <c r="J14" s="34" t="n">
-        <v>0.9606317275477158</v>
+        <v>1.003315099924647</v>
       </c>
       <c r="M14">
         <f>+M13+1</f>
         <v/>
       </c>
       <c r="N14" s="22" t="n">
-        <v>1.011874137060609</v>
+        <v>0.9776017688135169</v>
       </c>
       <c r="O14" s="22" t="n">
-        <v>1.011874137060609</v>
+        <v>0.9776017688135169</v>
       </c>
       <c r="P14" s="22" t="n">
-        <v>1.021638176898152</v>
+        <v>1</v>
       </c>
       <c r="Q14" s="22" t="n">
-        <v>1.027569752333064</v>
+        <v>1</v>
       </c>
       <c r="R14" s="22" t="n">
-        <v>1.006669918435162</v>
+        <v>0.9954854559873794</v>
       </c>
       <c r="S14" s="22" t="n">
-        <v>1.006669918435162</v>
+        <v>0.9954854559873794</v>
       </c>
       <c r="T14" s="22" t="n">
-        <v>1.012228183797797</v>
+        <v>1</v>
       </c>
       <c r="U14" s="22" t="n">
-        <v>1.024456367595594</v>
+        <v>1</v>
       </c>
       <c r="V14" s="22" t="n">
-        <v>1.011874137060609</v>
+        <v>0.9776017688135169</v>
       </c>
     </row>
     <row r="15">
@@ -7535,62 +7535,62 @@
         <v/>
       </c>
       <c r="B15" s="34" t="n">
-        <v>0.9720384003453874</v>
+        <v>0.9808426163636448</v>
       </c>
       <c r="C15" s="34" t="n">
-        <v>0.9720384003453874</v>
+        <v>0.9808426163636448</v>
       </c>
       <c r="D15" s="34" t="n">
-        <v>0.9999498151692684</v>
+        <v>0.9827955702828415</v>
       </c>
       <c r="E15" s="34" t="n">
-        <v>1</v>
+        <v>0.9786334531914429</v>
       </c>
       <c r="F15" s="34" t="n">
-        <v>0.9434261315948519</v>
+        <v>0.9842020481643162</v>
       </c>
       <c r="G15" s="34" t="n">
-        <v>0.9434261315948519</v>
+        <v>0.9842020481643162</v>
       </c>
       <c r="H15" s="34" t="n">
-        <v>0.9998185973950586</v>
+        <v>0.98500002999994</v>
       </c>
       <c r="I15" s="34" t="n">
-        <v>1</v>
+        <v>0.9800995420904633</v>
       </c>
       <c r="J15" s="34" t="n">
-        <v>0.9720384003453874</v>
+        <v>0.9808426163636448</v>
       </c>
       <c r="M15">
         <f>+M14+1</f>
         <v/>
       </c>
       <c r="N15" s="22" t="n">
-        <v>1.000041274275568</v>
+        <v>1.001888518349692</v>
       </c>
       <c r="O15" s="22" t="n">
-        <v>1.000041274275568</v>
+        <v>1.001888518349692</v>
       </c>
       <c r="P15" s="22" t="n">
-        <v>1.000050187349375</v>
+        <v>1</v>
       </c>
       <c r="Q15" s="22" t="n">
         <v>1</v>
       </c>
       <c r="R15" s="22" t="n">
-        <v>1.00010886131069</v>
+        <v>1.000448207776279</v>
       </c>
       <c r="S15" s="22" t="n">
-        <v>1.00010886131069</v>
+        <v>1.000448207776279</v>
       </c>
       <c r="T15" s="22" t="n">
-        <v>1.000181435517817</v>
+        <v>1</v>
       </c>
       <c r="U15" s="22" t="n">
         <v>1</v>
       </c>
       <c r="V15" s="22" t="n">
-        <v>1.000041274275568</v>
+        <v>1.001888518349692</v>
       </c>
     </row>
     <row r="16">
@@ -7599,41 +7599,41 @@
         <v/>
       </c>
       <c r="B16" s="34" t="n">
-        <v>0.9720785205261864</v>
+        <v>0.9826949556428071</v>
       </c>
       <c r="C16" s="34" t="n">
-        <v>0.9720785205261864</v>
+        <v>0.9826949556428071</v>
       </c>
       <c r="D16" s="34" t="n">
-        <v>1</v>
+        <v>0.9827955702828415</v>
       </c>
       <c r="E16" s="34" t="n">
-        <v>1</v>
+        <v>0.9786334531914429</v>
       </c>
       <c r="F16" s="34" t="n">
-        <v>0.9435288342000766</v>
+        <v>0.9846431751757334</v>
       </c>
       <c r="G16" s="34" t="n">
-        <v>0.9435288342000766</v>
+        <v>0.9846431751757334</v>
       </c>
       <c r="H16" s="34" t="n">
-        <v>1</v>
+        <v>0.98500002999994</v>
       </c>
       <c r="I16" s="34" t="n">
-        <v>1</v>
+        <v>0.9800995420904633</v>
       </c>
       <c r="J16" s="34" t="n">
-        <v>0.9720785205261864</v>
+        <v>0.9826949556428071</v>
       </c>
       <c r="M16">
         <f>+M15+1</f>
         <v/>
       </c>
       <c r="N16" s="22" t="n">
-        <v>1.004580164792294</v>
+        <v>1.000084060829779</v>
       </c>
       <c r="O16" s="22" t="n">
-        <v>1.004580164792294</v>
+        <v>1.000084060829779</v>
       </c>
       <c r="P16" s="22" t="n">
         <v>1</v>
@@ -7642,10 +7642,10 @@
         <v>1</v>
       </c>
       <c r="R16" s="22" t="n">
-        <v>1.008323594727502</v>
+        <v>1.000349676199839</v>
       </c>
       <c r="S16" s="22" t="n">
-        <v>1.008323594727502</v>
+        <v>1.000349676199839</v>
       </c>
       <c r="T16" s="22" t="n">
         <v>1</v>
@@ -7654,7 +7654,7 @@
         <v>1</v>
       </c>
       <c r="V16" s="22" t="n">
-        <v>1.004580164792294</v>
+        <v>1.000084060829779</v>
       </c>
     </row>
     <row r="17">
@@ -7663,41 +7663,41 @@
         <v/>
       </c>
       <c r="B17" s="34" t="n">
-        <v>0.9765308003412452</v>
+        <v>0.982777561796198</v>
       </c>
       <c r="C17" s="34" t="n">
-        <v>0.9765308003412452</v>
+        <v>0.982777561796198</v>
       </c>
       <c r="D17" s="34" t="n">
-        <v>1</v>
+        <v>0.9827955702828415</v>
       </c>
       <c r="E17" s="34" t="n">
-        <v>1</v>
+        <v>0.9786334531914429</v>
       </c>
       <c r="F17" s="34" t="n">
-        <v>0.9513823858296706</v>
+        <v>0.9849874814594263</v>
       </c>
       <c r="G17" s="34" t="n">
-        <v>0.9513823858296706</v>
+        <v>0.9849874814594263</v>
       </c>
       <c r="H17" s="34" t="n">
-        <v>1</v>
+        <v>0.98500002999994</v>
       </c>
       <c r="I17" s="34" t="n">
-        <v>1</v>
+        <v>0.9800995420904633</v>
       </c>
       <c r="J17" s="34" t="n">
-        <v>0.9765308003412452</v>
+        <v>0.982777561796198</v>
       </c>
       <c r="M17">
         <f>+M16+1</f>
         <v/>
       </c>
       <c r="N17" s="22" t="n">
-        <v>1.024033240580383</v>
+        <v>1.000018324071838</v>
       </c>
       <c r="O17" s="22" t="n">
-        <v>1.024033240580383</v>
+        <v>1.000018324071838</v>
       </c>
       <c r="P17" s="22" t="n">
         <v>1</v>
@@ -7706,10 +7706,10 @@
         <v>1</v>
       </c>
       <c r="R17" s="22" t="n">
-        <v>1.051102075142932</v>
+        <v>1.000012739796952</v>
       </c>
       <c r="S17" s="22" t="n">
-        <v>1.051102075142932</v>
+        <v>1.000012739796952</v>
       </c>
       <c r="T17" s="22" t="n">
         <v>1</v>
@@ -7718,7 +7718,7 @@
         <v>1</v>
       </c>
       <c r="V17" s="22" t="n">
-        <v>1.024033240580383</v>
+        <v>1.000018324071838</v>
       </c>
     </row>
     <row r="18">
@@ -7727,31 +7727,31 @@
         <v/>
       </c>
       <c r="B18" s="34" t="n">
-        <v>1</v>
+        <v>0.9827955702828415</v>
       </c>
       <c r="C18" s="34" t="n">
-        <v>1</v>
+        <v>0.9827955702828415</v>
       </c>
       <c r="D18" s="34" t="n">
-        <v>1</v>
+        <v>0.9827955702828415</v>
       </c>
       <c r="E18" s="34" t="n">
-        <v>1</v>
+        <v>0.9786334531914429</v>
       </c>
       <c r="F18" s="34" t="n">
-        <v>1</v>
+        <v>0.98500002999994</v>
       </c>
       <c r="G18" s="34" t="n">
-        <v>1</v>
+        <v>0.98500002999994</v>
       </c>
       <c r="H18" s="34" t="n">
-        <v>1</v>
+        <v>0.98500002999994</v>
       </c>
       <c r="I18" s="34" t="n">
-        <v>1</v>
+        <v>0.9800995420904633</v>
       </c>
       <c r="J18" s="34" t="n">
-        <v>1</v>
+        <v>0.9827955702828415</v>
       </c>
       <c r="M18">
         <f>+M17+1</f>
@@ -7791,31 +7791,31 @@
         <v/>
       </c>
       <c r="B19" s="34" t="n">
-        <v>1</v>
+        <v>0.9827955702828415</v>
       </c>
       <c r="C19" s="34" t="n">
-        <v>1</v>
+        <v>0.9827955702828415</v>
       </c>
       <c r="D19" s="34" t="n">
-        <v>1</v>
+        <v>0.9827955702828415</v>
       </c>
       <c r="E19" s="34" t="n">
-        <v>1</v>
+        <v>0.9786334531914429</v>
       </c>
       <c r="F19" s="34" t="n">
-        <v>1</v>
+        <v>0.98500002999994</v>
       </c>
       <c r="G19" s="34" t="n">
-        <v>1</v>
+        <v>0.98500002999994</v>
       </c>
       <c r="H19" s="34" t="n">
-        <v>1</v>
+        <v>0.98500002999994</v>
       </c>
       <c r="I19" s="34" t="n">
-        <v>1</v>
+        <v>0.9800995420904633</v>
       </c>
       <c r="J19" s="34" t="n">
-        <v>1</v>
+        <v>0.9827955702828415</v>
       </c>
       <c r="M19">
         <f>+M18+1</f>
@@ -7855,31 +7855,31 @@
         <v/>
       </c>
       <c r="B20" s="34" t="n">
-        <v>1</v>
+        <v>0.9827955702828415</v>
       </c>
       <c r="C20" s="34" t="n">
-        <v>1</v>
+        <v>0.9827955702828415</v>
       </c>
       <c r="D20" s="34" t="n">
-        <v>1</v>
+        <v>0.9827955702828415</v>
       </c>
       <c r="E20" s="34" t="n">
-        <v>1</v>
+        <v>0.9786334531914429</v>
       </c>
       <c r="F20" s="34" t="n">
-        <v>1</v>
+        <v>0.98500002999994</v>
       </c>
       <c r="G20" s="34" t="n">
-        <v>1</v>
+        <v>0.98500002999994</v>
       </c>
       <c r="H20" s="34" t="n">
-        <v>1</v>
+        <v>0.98500002999994</v>
       </c>
       <c r="I20" s="34" t="n">
-        <v>1</v>
+        <v>0.9800995420904633</v>
       </c>
       <c r="J20" s="34" t="n">
-        <v>1</v>
+        <v>0.9827955702828415</v>
       </c>
       <c r="M20">
         <f>+M19+1</f>
@@ -7919,62 +7919,62 @@
         <v/>
       </c>
       <c r="B21" s="34" t="n">
-        <v>1</v>
+        <v>0.9827955702828415</v>
       </c>
       <c r="C21" s="34" t="n">
-        <v>1</v>
+        <v>0.9827955702828415</v>
       </c>
       <c r="D21" s="34" t="n">
-        <v>1</v>
+        <v>0.9827955702828415</v>
       </c>
       <c r="E21" s="34" t="n">
-        <v>1</v>
+        <v>0.9786334531914429</v>
       </c>
       <c r="F21" s="34" t="n">
-        <v>1</v>
+        <v>0.98500002999994</v>
       </c>
       <c r="G21" s="34" t="n">
-        <v>1</v>
+        <v>0.98500002999994</v>
       </c>
       <c r="H21" s="34" t="n">
-        <v>1</v>
+        <v>0.98500002999994</v>
       </c>
       <c r="I21" s="34" t="n">
-        <v>1</v>
+        <v>0.9800995420904633</v>
       </c>
       <c r="J21" s="34" t="n">
-        <v>1</v>
+        <v>0.9827955702828415</v>
       </c>
       <c r="M21">
         <f>+M20+1</f>
         <v/>
       </c>
       <c r="N21" s="22" t="n">
-        <v>1</v>
+        <v>1.017505603644721</v>
       </c>
       <c r="O21" s="22" t="n">
-        <v>1</v>
+        <v>1.017505603644721</v>
       </c>
       <c r="P21" s="22" t="n">
-        <v>1</v>
+        <v>1.017505603644721</v>
       </c>
       <c r="Q21" s="22" t="n">
-        <v>1</v>
+        <v>1.021833043555662</v>
       </c>
       <c r="R21" s="22" t="n">
-        <v>1</v>
+        <v>1.015228395475339</v>
       </c>
       <c r="S21" s="22" t="n">
-        <v>1</v>
+        <v>1.015228395475339</v>
       </c>
       <c r="T21" s="22" t="n">
-        <v>1</v>
+        <v>1.015228395475339</v>
       </c>
       <c r="U21" s="22" t="n">
-        <v>1</v>
+        <v>1.020304527300452</v>
       </c>
       <c r="V21" s="22" t="n">
-        <v>1</v>
+        <v>1.017505603644721</v>
       </c>
     </row>
     <row r="22">
@@ -8234,7 +8234,7 @@
         </is>
       </c>
       <c r="H4" s="8" t="n">
-        <v>45322</v>
+        <v>45657</v>
       </c>
       <c r="J4" s="40" t="inlineStr">
         <is>
@@ -8558,7 +8558,7 @@
         <v/>
       </c>
       <c r="B8" s="14" t="n">
-        <v>9592.99</v>
+        <v>29438.32</v>
       </c>
       <c r="C8" s="14">
         <f>+'Completion Factors'!J30</f>
@@ -8582,7 +8582,7 @@
         <v/>
       </c>
       <c r="I8" s="14" t="n">
-        <v>32329.92083333333</v>
+        <v>27160.43333333333</v>
       </c>
       <c r="J8" s="14">
         <f>100*$G8/$I8</f>
@@ -8605,76 +8605,76 @@
         <v/>
       </c>
       <c r="S8" s="22" t="n">
-        <v>78.95</v>
+        <v>156.05</v>
       </c>
       <c r="T8" s="22" t="n">
-        <v>3462.63</v>
+        <v>2436.23</v>
       </c>
       <c r="U8" s="22" t="n">
-        <v>4953.709999999999</v>
+        <v>3897.5</v>
       </c>
       <c r="V8" s="22" t="n">
-        <v>6585.699999999999</v>
+        <v>11492.14</v>
       </c>
       <c r="W8" s="22" t="n">
-        <v>6785.699999999999</v>
+        <v>14923.59</v>
       </c>
       <c r="X8" s="22" t="n">
-        <v>9089.699999999999</v>
+        <v>28807.9</v>
       </c>
       <c r="Y8" s="22" t="n">
-        <v>9116.24</v>
+        <v>28835.32</v>
       </c>
       <c r="Z8" s="22" t="n">
-        <v>9151.699999999999</v>
+        <v>29335.32</v>
       </c>
       <c r="AA8" s="22" t="n">
-        <v>9151.699999999999</v>
+        <v>29335.32</v>
       </c>
       <c r="AB8" s="22" t="n">
-        <v>9151.699999999999</v>
+        <v>29335.32</v>
       </c>
       <c r="AC8" s="22" t="n">
-        <v>9151.699999999999</v>
+        <v>29335.32</v>
       </c>
       <c r="AD8" s="22" t="n">
-        <v>9151.699999999999</v>
+        <v>29335.32</v>
       </c>
       <c r="AE8" s="22" t="n">
-        <v>9228.699999999999</v>
+        <v>29335.32</v>
       </c>
       <c r="AF8" s="22" t="n">
-        <v>9228.699999999999</v>
+        <v>29435.32</v>
       </c>
       <c r="AG8" s="22" t="n">
-        <v>9228.699999999999</v>
+        <v>29435.32</v>
       </c>
       <c r="AH8" s="22" t="n">
-        <v>9228.699999999999</v>
+        <v>29435.32</v>
       </c>
       <c r="AI8" s="22" t="n">
-        <v>9592.99</v>
+        <v>29438.32</v>
       </c>
       <c r="AJ8" s="22" t="n">
-        <v>9592.99</v>
+        <v>29438.32</v>
       </c>
       <c r="AK8" s="22" t="n">
-        <v>9592.99</v>
+        <v>29438.32</v>
       </c>
       <c r="AL8" s="22" t="n">
-        <v>9592.99</v>
+        <v>29438.32</v>
       </c>
       <c r="AM8" s="22" t="n">
-        <v>9592.99</v>
+        <v>29438.32</v>
       </c>
       <c r="AN8" s="22" t="n">
-        <v>9592.99</v>
+        <v>29438.32</v>
       </c>
       <c r="AO8" s="22" t="n">
-        <v>9592.99</v>
+        <v>29438.32</v>
       </c>
       <c r="AP8" s="22" t="n">
-        <v>9592.99</v>
+        <v>29438.32</v>
       </c>
       <c r="AQ8" s="14" t="n"/>
       <c r="AR8" s="14" t="n"/>
@@ -8685,7 +8685,7 @@
         <v/>
       </c>
       <c r="B9" s="14" t="n">
-        <v>5375.889999999999</v>
+        <v>4462.559999999999</v>
       </c>
       <c r="C9" s="14">
         <f>+'Completion Factors'!J29</f>
@@ -8709,7 +8709,7 @@
         <v/>
       </c>
       <c r="I9" s="14" t="n">
-        <v>31034.5525</v>
+        <v>26614.09</v>
       </c>
       <c r="J9" s="14">
         <f>100*$G9/$I9</f>
@@ -8732,73 +8732,73 @@
         <v/>
       </c>
       <c r="S9" s="22" t="n">
-        <v>165.87</v>
+        <v>157.49</v>
       </c>
       <c r="T9" s="22" t="n">
-        <v>983.09</v>
+        <v>2655.45</v>
       </c>
       <c r="U9" s="22" t="n">
-        <v>1068.57</v>
+        <v>3104.98</v>
       </c>
       <c r="V9" s="22" t="n">
-        <v>1103.89</v>
+        <v>3493.62</v>
       </c>
       <c r="W9" s="22" t="n">
-        <v>2655.89</v>
+        <v>3510.76</v>
       </c>
       <c r="X9" s="22" t="n">
-        <v>3760.89</v>
+        <v>3520.76</v>
       </c>
       <c r="Y9" s="22" t="n">
-        <v>3776.89</v>
+        <v>4448.559999999999</v>
       </c>
       <c r="Z9" s="22" t="n">
-        <v>3776.89</v>
+        <v>4448.559999999999</v>
       </c>
       <c r="AA9" s="22" t="n">
-        <v>3776.89</v>
+        <v>4448.559999999999</v>
       </c>
       <c r="AB9" s="22" t="n">
-        <v>3776.89</v>
+        <v>4448.559999999999</v>
       </c>
       <c r="AC9" s="22" t="n">
-        <v>3818.89</v>
+        <v>4448.559999999999</v>
       </c>
       <c r="AD9" s="22" t="n">
-        <v>3895.89</v>
+        <v>4448.559999999999</v>
       </c>
       <c r="AE9" s="22" t="n">
-        <v>3925.89</v>
+        <v>4448.559999999999</v>
       </c>
       <c r="AF9" s="22" t="n">
-        <v>3925.89</v>
+        <v>4448.559999999999</v>
       </c>
       <c r="AG9" s="22" t="n">
-        <v>3925.89</v>
+        <v>4448.559999999999</v>
       </c>
       <c r="AH9" s="22" t="n">
-        <v>3925.89</v>
+        <v>4462.559999999999</v>
       </c>
       <c r="AI9" s="22" t="n">
-        <v>5375.889999999999</v>
+        <v>4462.559999999999</v>
       </c>
       <c r="AJ9" s="22" t="n">
-        <v>5375.889999999999</v>
+        <v>4462.559999999999</v>
       </c>
       <c r="AK9" s="22" t="n">
-        <v>5375.889999999999</v>
+        <v>4462.559999999999</v>
       </c>
       <c r="AL9" s="22" t="n">
-        <v>5375.889999999999</v>
+        <v>4462.559999999999</v>
       </c>
       <c r="AM9" s="22" t="n">
-        <v>5375.889999999999</v>
+        <v>4462.559999999999</v>
       </c>
       <c r="AN9" s="22" t="n">
-        <v>5375.889999999999</v>
+        <v>4462.559999999999</v>
       </c>
       <c r="AO9" s="22" t="n">
-        <v>5375.889999999999</v>
+        <v>4462.559999999999</v>
       </c>
       <c r="AP9" s="22" t="n">
         <v/>
@@ -8812,7 +8812,7 @@
         <v/>
       </c>
       <c r="B10" s="14" t="n">
-        <v>6457.02</v>
+        <v>71939.56999999999</v>
       </c>
       <c r="C10" s="14">
         <f>+'Completion Factors'!J28</f>
@@ -8836,7 +8836,7 @@
         <v/>
       </c>
       <c r="I10" s="14" t="n">
-        <v>30824.57333333333</v>
+        <v>25974.00583333333</v>
       </c>
       <c r="J10" s="14">
         <f>100*$G10/$I10</f>
@@ -8859,70 +8859,70 @@
         <v/>
       </c>
       <c r="S10" s="22" t="n">
-        <v>65.72</v>
+        <v>259.31</v>
       </c>
       <c r="T10" s="22" t="n">
-        <v>1959.33</v>
+        <v>3528.58</v>
       </c>
       <c r="U10" s="22" t="n">
-        <v>2286.24</v>
+        <v>5504.98</v>
       </c>
       <c r="V10" s="22" t="n">
-        <v>2311.36</v>
+        <v>8851.4</v>
       </c>
       <c r="W10" s="22" t="n">
-        <v>3647.36</v>
+        <v>8921.539999999999</v>
       </c>
       <c r="X10" s="22" t="n">
-        <v>4368.61</v>
+        <v>10630.94</v>
       </c>
       <c r="Y10" s="22" t="n">
-        <v>4451.02</v>
+        <v>18635.94</v>
       </c>
       <c r="Z10" s="22" t="n">
-        <v>6007.02</v>
+        <v>20252.04</v>
       </c>
       <c r="AA10" s="22" t="n">
-        <v>6007.02</v>
+        <v>20252.04</v>
       </c>
       <c r="AB10" s="22" t="n">
-        <v>6007.02</v>
+        <v>20252.04</v>
       </c>
       <c r="AC10" s="22" t="n">
-        <v>6007.02</v>
+        <v>20252.04</v>
       </c>
       <c r="AD10" s="22" t="n">
-        <v>6007.02</v>
+        <v>20252.04</v>
       </c>
       <c r="AE10" s="22" t="n">
-        <v>6007.02</v>
+        <v>75686.62999999999</v>
       </c>
       <c r="AF10" s="22" t="n">
-        <v>6007.02</v>
+        <v>71618.56999999999</v>
       </c>
       <c r="AG10" s="22" t="n">
-        <v>6007.02</v>
+        <v>71939.56999999999</v>
       </c>
       <c r="AH10" s="22" t="n">
-        <v>6457.02</v>
+        <v>71939.56999999999</v>
       </c>
       <c r="AI10" s="22" t="n">
-        <v>6457.02</v>
+        <v>71939.56999999999</v>
       </c>
       <c r="AJ10" s="22" t="n">
-        <v>6457.02</v>
+        <v>71939.56999999999</v>
       </c>
       <c r="AK10" s="22" t="n">
-        <v>6457.02</v>
+        <v>71939.56999999999</v>
       </c>
       <c r="AL10" s="22" t="n">
-        <v>6457.02</v>
+        <v>71939.56999999999</v>
       </c>
       <c r="AM10" s="22" t="n">
-        <v>6457.02</v>
+        <v>71939.56999999999</v>
       </c>
       <c r="AN10" s="22" t="n">
-        <v>6457.02</v>
+        <v>71939.56999999999</v>
       </c>
       <c r="AO10" s="22" t="n">
         <v/>
@@ -8939,7 +8939,7 @@
         <v/>
       </c>
       <c r="B11" s="14" t="n">
-        <v>2352.52</v>
+        <v>45283.42000000001</v>
       </c>
       <c r="C11" s="14">
         <f>+'Completion Factors'!J27</f>
@@ -8963,7 +8963,7 @@
         <v/>
       </c>
       <c r="I11" s="14" t="n">
-        <v>29878.27166666667</v>
+        <v>25374.62833333333</v>
       </c>
       <c r="J11" s="14">
         <f>100*$G11/$I11</f>
@@ -8986,67 +8986,67 @@
         <v/>
       </c>
       <c r="S11" s="22" t="n">
-        <v>86.03</v>
+        <v>93.94</v>
       </c>
       <c r="T11" s="22" t="n">
-        <v>819.4</v>
+        <v>2185.95</v>
       </c>
       <c r="U11" s="22" t="n">
-        <v>1029.7</v>
+        <v>3170.46</v>
       </c>
       <c r="V11" s="22" t="n">
-        <v>1245.99</v>
+        <v>3190.46</v>
       </c>
       <c r="W11" s="22" t="n">
-        <v>2300.99</v>
+        <v>5881.220000000001</v>
       </c>
       <c r="X11" s="22" t="n">
-        <v>2300.99</v>
+        <v>5881.220000000001</v>
       </c>
       <c r="Y11" s="22" t="n">
-        <v>2300.99</v>
+        <v>42634.62</v>
       </c>
       <c r="Z11" s="22" t="n">
-        <v>2317.99</v>
+        <v>42634.62</v>
       </c>
       <c r="AA11" s="22" t="n">
-        <v>2343.58</v>
+        <v>42654.42000000001</v>
       </c>
       <c r="AB11" s="22" t="n">
-        <v>2343.58</v>
+        <v>42654.42000000001</v>
       </c>
       <c r="AC11" s="22" t="n">
-        <v>2352.52</v>
+        <v>42654.42000000001</v>
       </c>
       <c r="AD11" s="22" t="n">
-        <v>2352.52</v>
+        <v>42654.42000000001</v>
       </c>
       <c r="AE11" s="22" t="n">
-        <v>2352.52</v>
+        <v>42654.42000000001</v>
       </c>
       <c r="AF11" s="22" t="n">
-        <v>2352.52</v>
+        <v>42683.42000000001</v>
       </c>
       <c r="AG11" s="22" t="n">
-        <v>2352.52</v>
+        <v>42683.42000000001</v>
       </c>
       <c r="AH11" s="22" t="n">
-        <v>2352.52</v>
+        <v>42683.42000000001</v>
       </c>
       <c r="AI11" s="22" t="n">
-        <v>2352.52</v>
+        <v>42683.42000000001</v>
       </c>
       <c r="AJ11" s="22" t="n">
-        <v>2352.52</v>
+        <v>42683.42000000001</v>
       </c>
       <c r="AK11" s="22" t="n">
-        <v>2352.52</v>
+        <v>42683.42000000001</v>
       </c>
       <c r="AL11" s="22" t="n">
-        <v>2352.52</v>
+        <v>42683.42000000001</v>
       </c>
       <c r="AM11" s="22" t="n">
-        <v>2352.52</v>
+        <v>45283.42000000001</v>
       </c>
       <c r="AN11" s="22" t="n">
         <v/>
@@ -9066,7 +9066,7 @@
         <v/>
       </c>
       <c r="B12" s="14" t="n">
-        <v>37960.57</v>
+        <v>7260.98</v>
       </c>
       <c r="C12" s="14">
         <f>++'Completion Factors'!J26</f>
@@ -9090,7 +9090,7 @@
         <v/>
       </c>
       <c r="I12" s="14" t="n">
-        <v>29592.0675</v>
+        <v>24674.52916666666</v>
       </c>
       <c r="J12" s="14">
         <f>100*$G12/$I12</f>
@@ -9113,64 +9113,64 @@
         <v/>
       </c>
       <c r="S12" s="22" t="n">
-        <v>277.36</v>
+        <v>662.64</v>
       </c>
       <c r="T12" s="22" t="n">
-        <v>3010.85</v>
+        <v>2862.86</v>
       </c>
       <c r="U12" s="22" t="n">
-        <v>3862.820000000001</v>
+        <v>3570.92</v>
       </c>
       <c r="V12" s="22" t="n">
-        <v>5435.570000000001</v>
+        <v>6625.709999999999</v>
       </c>
       <c r="W12" s="22" t="n">
-        <v>5435.570000000001</v>
+        <v>6678.709999999999</v>
       </c>
       <c r="X12" s="22" t="n">
-        <v>5460.570000000001</v>
+        <v>7217.559999999999</v>
       </c>
       <c r="Y12" s="22" t="n">
-        <v>5460.570000000001</v>
+        <v>7217.559999999999</v>
       </c>
       <c r="Z12" s="22" t="n">
-        <v>5460.570000000001</v>
+        <v>7217.559999999999</v>
       </c>
       <c r="AA12" s="22" t="n">
-        <v>5460.570000000001</v>
+        <v>7244.98</v>
       </c>
       <c r="AB12" s="22" t="n">
-        <v>37960.57</v>
+        <v>7244.98</v>
       </c>
       <c r="AC12" s="22" t="n">
-        <v>37960.57</v>
+        <v>7244.98</v>
       </c>
       <c r="AD12" s="22" t="n">
-        <v>37960.57</v>
+        <v>7244.98</v>
       </c>
       <c r="AE12" s="22" t="n">
-        <v>37960.57</v>
+        <v>7260.98</v>
       </c>
       <c r="AF12" s="22" t="n">
-        <v>37960.57</v>
+        <v>7260.98</v>
       </c>
       <c r="AG12" s="22" t="n">
-        <v>37960.57</v>
+        <v>7260.98</v>
       </c>
       <c r="AH12" s="22" t="n">
-        <v>37960.57</v>
+        <v>7260.98</v>
       </c>
       <c r="AI12" s="22" t="n">
-        <v>37960.57</v>
+        <v>7260.98</v>
       </c>
       <c r="AJ12" s="22" t="n">
-        <v>37960.57</v>
+        <v>7260.98</v>
       </c>
       <c r="AK12" s="22" t="n">
-        <v>37960.57</v>
+        <v>7260.98</v>
       </c>
       <c r="AL12" s="22" t="n">
-        <v>37960.57</v>
+        <v>7260.98</v>
       </c>
       <c r="AM12" s="22" t="n">
         <v/>
@@ -9193,7 +9193,7 @@
         <v/>
       </c>
       <c r="B13" s="14" t="n">
-        <v>4598</v>
+        <v>3502.11</v>
       </c>
       <c r="C13" s="14">
         <f>++'Completion Factors'!J25</f>
@@ -9217,7 +9217,7 @@
         <v/>
       </c>
       <c r="I13" s="14" t="n">
-        <v>29363.4575</v>
+        <v>24313.24166666667</v>
       </c>
       <c r="J13" s="14">
         <f>100*$G13/$I13</f>
@@ -9240,61 +9240,61 @@
         <v/>
       </c>
       <c r="S13" s="22" t="n">
-        <v>232.69</v>
+        <v>71.86</v>
       </c>
       <c r="T13" s="22" t="n">
-        <v>3379.04</v>
+        <v>901.87</v>
       </c>
       <c r="U13" s="22" t="n">
-        <v>3507.06</v>
+        <v>991.01</v>
       </c>
       <c r="V13" s="22" t="n">
-        <v>3614.48</v>
+        <v>1001.01</v>
       </c>
       <c r="W13" s="22" t="n">
-        <v>3623.43</v>
+        <v>1001.01</v>
       </c>
       <c r="X13" s="22" t="n">
-        <v>3623.43</v>
+        <v>1886.01</v>
       </c>
       <c r="Y13" s="22" t="n">
-        <v>3650</v>
+        <v>1886.01</v>
       </c>
       <c r="Z13" s="22" t="n">
-        <v>4593</v>
+        <v>3502.11</v>
       </c>
       <c r="AA13" s="22" t="n">
-        <v>4593</v>
+        <v>3502.11</v>
       </c>
       <c r="AB13" s="22" t="n">
-        <v>4593</v>
+        <v>3502.11</v>
       </c>
       <c r="AC13" s="22" t="n">
-        <v>4593</v>
+        <v>3502.11</v>
       </c>
       <c r="AD13" s="22" t="n">
-        <v>4593</v>
+        <v>3502.11</v>
       </c>
       <c r="AE13" s="22" t="n">
-        <v>4593</v>
+        <v>3502.11</v>
       </c>
       <c r="AF13" s="22" t="n">
-        <v>4593</v>
+        <v>3502.11</v>
       </c>
       <c r="AG13" s="22" t="n">
-        <v>4598</v>
+        <v>3502.11</v>
       </c>
       <c r="AH13" s="22" t="n">
-        <v>4598</v>
+        <v>3502.11</v>
       </c>
       <c r="AI13" s="22" t="n">
-        <v>4598</v>
+        <v>3502.11</v>
       </c>
       <c r="AJ13" s="22" t="n">
-        <v>4598</v>
+        <v>3502.11</v>
       </c>
       <c r="AK13" s="22" t="n">
-        <v>4598</v>
+        <v>3502.11</v>
       </c>
       <c r="AL13" s="22" t="n">
         <v/>
@@ -9320,7 +9320,7 @@
         <v/>
       </c>
       <c r="B14" s="14" t="n">
-        <v>5811.47</v>
+        <v>2314.85</v>
       </c>
       <c r="C14" s="14">
         <f>++'Completion Factors'!J24</f>
@@ -9344,7 +9344,7 @@
         <v/>
       </c>
       <c r="I14" s="14" t="n">
-        <v>29103.355</v>
+        <v>24142.31666666667</v>
       </c>
       <c r="J14" s="14">
         <f>100*$G14/$I14</f>
@@ -9367,58 +9367,58 @@
         <v/>
       </c>
       <c r="S14" s="22" t="n">
-        <v>900.98</v>
+        <v>41.02</v>
       </c>
       <c r="T14" s="22" t="n">
-        <v>3123.62</v>
+        <v>565.0799999999999</v>
       </c>
       <c r="U14" s="22" t="n">
-        <v>4826.889999999999</v>
+        <v>847.5699999999999</v>
       </c>
       <c r="V14" s="22" t="n">
-        <v>4829.11</v>
+        <v>867.4299999999999</v>
       </c>
       <c r="W14" s="22" t="n">
-        <v>4893.46</v>
+        <v>2287.43</v>
       </c>
       <c r="X14" s="22" t="n">
-        <v>5043.46</v>
+        <v>2287.43</v>
       </c>
       <c r="Y14" s="22" t="n">
-        <v>5656.64</v>
+        <v>2287.43</v>
       </c>
       <c r="Z14" s="22" t="n">
-        <v>5656.64</v>
+        <v>2314.85</v>
       </c>
       <c r="AA14" s="22" t="n">
-        <v>5710.450000000001</v>
+        <v>2314.85</v>
       </c>
       <c r="AB14" s="22" t="n">
-        <v>5787.18</v>
+        <v>2314.85</v>
       </c>
       <c r="AC14" s="22" t="n">
-        <v>5811.47</v>
+        <v>2314.85</v>
       </c>
       <c r="AD14" s="22" t="n">
-        <v>5811.47</v>
+        <v>2314.85</v>
       </c>
       <c r="AE14" s="22" t="n">
-        <v>5811.47</v>
+        <v>2314.85</v>
       </c>
       <c r="AF14" s="22" t="n">
-        <v>5811.47</v>
+        <v>2314.85</v>
       </c>
       <c r="AG14" s="22" t="n">
-        <v>5811.47</v>
+        <v>2314.85</v>
       </c>
       <c r="AH14" s="22" t="n">
-        <v>5811.47</v>
+        <v>2314.85</v>
       </c>
       <c r="AI14" s="22" t="n">
-        <v>5811.47</v>
+        <v>2314.85</v>
       </c>
       <c r="AJ14" s="22" t="n">
-        <v>5811.47</v>
+        <v>2314.85</v>
       </c>
       <c r="AK14" s="22" t="n">
         <v/>
@@ -9447,7 +9447,7 @@
         <v/>
       </c>
       <c r="B15" s="14" t="n">
-        <v>5156.690000000001</v>
+        <v>2120.26</v>
       </c>
       <c r="C15" s="14">
         <f>++'Completion Factors'!J23</f>
@@ -9471,7 +9471,7 @@
         <v/>
       </c>
       <c r="I15" s="14" t="n">
-        <v>28675.235</v>
+        <v>23964.32166666667</v>
       </c>
       <c r="J15" s="14">
         <f>100*$G15/$I15</f>
@@ -9494,55 +9494,55 @@
         <v/>
       </c>
       <c r="S15" s="22" t="n">
-        <v>69.34</v>
+        <v>224.75</v>
       </c>
       <c r="T15" s="22" t="n">
-        <v>2739.1</v>
+        <v>838.9400000000001</v>
       </c>
       <c r="U15" s="22" t="n">
-        <v>2793.49</v>
+        <v>884.35</v>
       </c>
       <c r="V15" s="22" t="n">
-        <v>4570.27</v>
+        <v>964.35</v>
       </c>
       <c r="W15" s="22" t="n">
-        <v>4686.56</v>
+        <v>1164.35</v>
       </c>
       <c r="X15" s="22" t="n">
-        <v>5059.56</v>
+        <v>2092.84</v>
       </c>
       <c r="Y15" s="22" t="n">
-        <v>5136.690000000001</v>
+        <v>2092.84</v>
       </c>
       <c r="Z15" s="22" t="n">
-        <v>5136.690000000001</v>
+        <v>2092.84</v>
       </c>
       <c r="AA15" s="22" t="n">
-        <v>5136.690000000001</v>
+        <v>2092.84</v>
       </c>
       <c r="AB15" s="22" t="n">
-        <v>5156.690000000001</v>
+        <v>2092.84</v>
       </c>
       <c r="AC15" s="22" t="n">
-        <v>5156.690000000001</v>
+        <v>2120.26</v>
       </c>
       <c r="AD15" s="22" t="n">
-        <v>5156.690000000001</v>
+        <v>2120.26</v>
       </c>
       <c r="AE15" s="22" t="n">
-        <v>5156.690000000001</v>
+        <v>2120.26</v>
       </c>
       <c r="AF15" s="22" t="n">
-        <v>5156.690000000001</v>
+        <v>2120.26</v>
       </c>
       <c r="AG15" s="22" t="n">
-        <v>5156.690000000001</v>
+        <v>2120.26</v>
       </c>
       <c r="AH15" s="22" t="n">
-        <v>5156.690000000001</v>
+        <v>2120.26</v>
       </c>
       <c r="AI15" s="22" t="n">
-        <v>5156.690000000001</v>
+        <v>2120.26</v>
       </c>
       <c r="AJ15" s="22" t="n">
         <v/>
@@ -9574,7 +9574,7 @@
         <v/>
       </c>
       <c r="B16" s="14" t="n">
-        <v>23208.88</v>
+        <v>2840.99</v>
       </c>
       <c r="C16" s="14">
         <f>++'Completion Factors'!J22</f>
@@ -9598,7 +9598,7 @@
         <v/>
       </c>
       <c r="I16" s="14" t="n">
-        <v>28527.5225</v>
+        <v>23798.84</v>
       </c>
       <c r="J16" s="14">
         <f>100*$G16/$I16</f>
@@ -9621,52 +9621,52 @@
         <v/>
       </c>
       <c r="S16" s="22" t="n">
-        <v>727.55</v>
+        <v>78.02000000000001</v>
       </c>
       <c r="T16" s="22" t="n">
-        <v>4834</v>
+        <v>1138.38</v>
       </c>
       <c r="U16" s="22" t="n">
-        <v>5359.26</v>
+        <v>1138.38</v>
       </c>
       <c r="V16" s="22" t="n">
-        <v>5428.08</v>
+        <v>1177</v>
       </c>
       <c r="W16" s="22" t="n">
-        <v>6855.88</v>
+        <v>1194.57</v>
       </c>
       <c r="X16" s="22" t="n">
-        <v>6855.88</v>
+        <v>2794.57</v>
       </c>
       <c r="Y16" s="22" t="n">
-        <v>23105.88</v>
+        <v>2794.57</v>
       </c>
       <c r="Z16" s="22" t="n">
-        <v>23155.88</v>
+        <v>2794.57</v>
       </c>
       <c r="AA16" s="22" t="n">
-        <v>23155.88</v>
+        <v>2813.57</v>
       </c>
       <c r="AB16" s="22" t="n">
-        <v>23155.88</v>
+        <v>2840.99</v>
       </c>
       <c r="AC16" s="22" t="n">
-        <v>23155.88</v>
+        <v>2840.99</v>
       </c>
       <c r="AD16" s="22" t="n">
-        <v>23208.88</v>
+        <v>2840.99</v>
       </c>
       <c r="AE16" s="22" t="n">
-        <v>23208.88</v>
+        <v>2840.99</v>
       </c>
       <c r="AF16" s="22" t="n">
-        <v>23208.88</v>
+        <v>2840.99</v>
       </c>
       <c r="AG16" s="22" t="n">
-        <v>23208.88</v>
+        <v>2840.99</v>
       </c>
       <c r="AH16" s="22" t="n">
-        <v>23208.88</v>
+        <v>2840.99</v>
       </c>
       <c r="AI16" s="22" t="n">
         <v/>
@@ -9701,7 +9701,7 @@
         <v/>
       </c>
       <c r="B17" s="14" t="n">
-        <v>22896.09</v>
+        <v>3749.46</v>
       </c>
       <c r="C17" s="14">
         <f>++'Completion Factors'!J21</f>
@@ -9725,7 +9725,7 @@
         <v/>
       </c>
       <c r="I17" s="14" t="n">
-        <v>27969.94583333333</v>
+        <v>23172.67083333333</v>
       </c>
       <c r="J17" s="14">
         <f>100*$G17/$I17</f>
@@ -9748,49 +9748,49 @@
         <v/>
       </c>
       <c r="S17" s="22" t="n">
-        <v>236.51</v>
+        <v>78.11</v>
       </c>
       <c r="T17" s="22" t="n">
-        <v>4127.79</v>
+        <v>303.38</v>
       </c>
       <c r="U17" s="22" t="n">
-        <v>6147.73</v>
+        <v>422.01</v>
       </c>
       <c r="V17" s="22" t="n">
-        <v>6238.049999999999</v>
+        <v>512.88</v>
       </c>
       <c r="W17" s="22" t="n">
-        <v>6463.409999999999</v>
+        <v>3512.88</v>
       </c>
       <c r="X17" s="22" t="n">
-        <v>9642.41</v>
+        <v>3512.88</v>
       </c>
       <c r="Y17" s="22" t="n">
-        <v>21083.58</v>
+        <v>3512.88</v>
       </c>
       <c r="Z17" s="22" t="n">
-        <v>21083.58</v>
+        <v>3518.88</v>
       </c>
       <c r="AA17" s="22" t="n">
-        <v>21083.58</v>
+        <v>3749.46</v>
       </c>
       <c r="AB17" s="22" t="n">
-        <v>21083.58</v>
+        <v>3749.46</v>
       </c>
       <c r="AC17" s="22" t="n">
-        <v>21203.58</v>
+        <v>3749.46</v>
       </c>
       <c r="AD17" s="22" t="n">
-        <v>21331.05</v>
+        <v>3749.46</v>
       </c>
       <c r="AE17" s="22" t="n">
-        <v>21331.05</v>
+        <v>3749.46</v>
       </c>
       <c r="AF17" s="22" t="n">
-        <v>22896.09</v>
+        <v>3749.46</v>
       </c>
       <c r="AG17" s="22" t="n">
-        <v>22896.09</v>
+        <v>3749.46</v>
       </c>
       <c r="AH17" s="22" t="n">
         <v/>
@@ -9828,7 +9828,7 @@
         <v/>
       </c>
       <c r="B18" s="14" t="n">
-        <v>12226.63</v>
+        <v>1951.2</v>
       </c>
       <c r="C18" s="14">
         <f>++'Completion Factors'!J20</f>
@@ -9852,7 +9852,7 @@
         <v/>
       </c>
       <c r="I18" s="14" t="n">
-        <v>27441.04</v>
+        <v>22582.26416666666</v>
       </c>
       <c r="J18" s="14">
         <f>100*$G18/$I18</f>
@@ -9875,46 +9875,46 @@
         <v/>
       </c>
       <c r="S18" s="22" t="n">
-        <v>23.18</v>
+        <v/>
       </c>
       <c r="T18" s="22" t="n">
-        <v>1875.83</v>
+        <v>74.48</v>
       </c>
       <c r="U18" s="22" t="n">
-        <v>2465.64</v>
+        <v>1923.78</v>
       </c>
       <c r="V18" s="22" t="n">
-        <v>9262.43</v>
+        <v>1923.78</v>
       </c>
       <c r="W18" s="22" t="n">
-        <v>11461.63</v>
+        <v>1923.78</v>
       </c>
       <c r="X18" s="22" t="n">
-        <v>11461.63</v>
+        <v>1923.78</v>
       </c>
       <c r="Y18" s="22" t="n">
-        <v>11461.63</v>
+        <v>1923.78</v>
       </c>
       <c r="Z18" s="22" t="n">
-        <v>11461.63</v>
+        <v>1923.78</v>
       </c>
       <c r="AA18" s="22" t="n">
-        <v>12221.63</v>
+        <v>1951.2</v>
       </c>
       <c r="AB18" s="22" t="n">
-        <v>12226.63</v>
+        <v>1951.2</v>
       </c>
       <c r="AC18" s="22" t="n">
-        <v>12226.63</v>
+        <v>1951.2</v>
       </c>
       <c r="AD18" s="22" t="n">
-        <v>12226.63</v>
+        <v>1951.2</v>
       </c>
       <c r="AE18" s="22" t="n">
-        <v>12226.63</v>
+        <v>1951.2</v>
       </c>
       <c r="AF18" s="22" t="n">
-        <v>12226.63</v>
+        <v>1951.2</v>
       </c>
       <c r="AG18" s="22" t="n">
         <v/>
@@ -9955,7 +9955,7 @@
         <v/>
       </c>
       <c r="B19" s="14" t="n">
-        <v>29335.32</v>
+        <v>29148.96</v>
       </c>
       <c r="C19" s="14">
         <f>++'Completion Factors'!J19</f>
@@ -9979,7 +9979,7 @@
         <v/>
       </c>
       <c r="I19" s="14" t="n">
-        <v>27160.43333333333</v>
+        <v>22313.55583333333</v>
       </c>
       <c r="J19" s="14">
         <f>100*$G19/$I19</f>
@@ -10005,43 +10005,43 @@
         <v/>
       </c>
       <c r="S19" s="22" t="n">
-        <v>156.05</v>
+        <v/>
       </c>
       <c r="T19" s="22" t="n">
-        <v>2436.23</v>
+        <v>399.96</v>
       </c>
       <c r="U19" s="22" t="n">
-        <v>3897.5</v>
+        <v>27418.06</v>
       </c>
       <c r="V19" s="22" t="n">
-        <v>11492.14</v>
+        <v>27418.06</v>
       </c>
       <c r="W19" s="22" t="n">
-        <v>14923.59</v>
+        <v>27418.06</v>
       </c>
       <c r="X19" s="22" t="n">
-        <v>28807.9</v>
+        <v>27421.06</v>
       </c>
       <c r="Y19" s="22" t="n">
-        <v>28835.32</v>
+        <v>27611.08</v>
       </c>
       <c r="Z19" s="22" t="n">
-        <v>29335.32</v>
+        <v>27612.76</v>
       </c>
       <c r="AA19" s="22" t="n">
-        <v>29335.32</v>
+        <v>29091.06</v>
       </c>
       <c r="AB19" s="22" t="n">
-        <v>29335.32</v>
+        <v>29091.06</v>
       </c>
       <c r="AC19" s="22" t="n">
-        <v>29335.32</v>
+        <v>29091.06</v>
       </c>
       <c r="AD19" s="22" t="n">
-        <v>29335.32</v>
+        <v>29091.06</v>
       </c>
       <c r="AE19" s="22" t="n">
-        <v>29335.32</v>
+        <v>29148.96</v>
       </c>
       <c r="AF19" s="22" t="n">
         <v/>
@@ -10085,7 +10085,7 @@
         <v/>
       </c>
       <c r="B20" s="14" t="n">
-        <v>4448.559999999999</v>
+        <v>4386.540000000001</v>
       </c>
       <c r="C20" s="14">
         <f>++'Completion Factors'!J18</f>
@@ -10109,7 +10109,7 @@
         <v/>
       </c>
       <c r="I20" s="14" t="n">
-        <v>26614.09</v>
+        <v>21819.67916666666</v>
       </c>
       <c r="J20" s="14">
         <f>100*$G20/$I20</f>
@@ -10141,40 +10141,40 @@
         <v/>
       </c>
       <c r="S20" s="22" t="n">
-        <v>157.49</v>
+        <v>100.33</v>
       </c>
       <c r="T20" s="22" t="n">
-        <v>2655.45</v>
+        <v>622.88</v>
       </c>
       <c r="U20" s="22" t="n">
-        <v>3104.98</v>
+        <v>822.88</v>
       </c>
       <c r="V20" s="22" t="n">
-        <v>3493.619999999999</v>
+        <v>828.9399999999999</v>
       </c>
       <c r="W20" s="22" t="n">
-        <v>3510.759999999999</v>
+        <v>2505.69</v>
       </c>
       <c r="X20" s="22" t="n">
-        <v>3520.759999999999</v>
+        <v>2871.55</v>
       </c>
       <c r="Y20" s="22" t="n">
-        <v>4448.559999999999</v>
+        <v>2871.55</v>
       </c>
       <c r="Z20" s="22" t="n">
-        <v>4448.559999999999</v>
+        <v>2871.55</v>
       </c>
       <c r="AA20" s="22" t="n">
-        <v>4448.559999999999</v>
+        <v>2871.55</v>
       </c>
       <c r="AB20" s="22" t="n">
-        <v>4448.559999999999</v>
+        <v>4374.02</v>
       </c>
       <c r="AC20" s="22" t="n">
-        <v>4448.559999999999</v>
+        <v>4386.540000000001</v>
       </c>
       <c r="AD20" s="22" t="n">
-        <v>4448.559999999999</v>
+        <v>4386.540000000001</v>
       </c>
       <c r="AE20" s="22" t="n">
         <v/>
@@ -10221,7 +10221,7 @@
         <v/>
       </c>
       <c r="B21" s="14" t="n">
-        <v>20252.04</v>
+        <v>1558.32</v>
       </c>
       <c r="C21" s="14">
         <f>++'Completion Factors'!J17</f>
@@ -10245,7 +10245,7 @@
         <v/>
       </c>
       <c r="I21" s="14" t="n">
-        <v>25974.00583333333</v>
+        <v>21537.36666666666</v>
       </c>
       <c r="J21" s="14">
         <f>100*$G21/$I21</f>
@@ -10277,37 +10277,37 @@
         <v/>
       </c>
       <c r="S21" s="22" t="n">
-        <v>259.31</v>
+        <v>105.41</v>
       </c>
       <c r="T21" s="22" t="n">
-        <v>3528.58</v>
+        <v>105.41</v>
       </c>
       <c r="U21" s="22" t="n">
-        <v>5504.98</v>
+        <v>111.42</v>
       </c>
       <c r="V21" s="22" t="n">
-        <v>8851.4</v>
+        <v>111.42</v>
       </c>
       <c r="W21" s="22" t="n">
-        <v>8921.539999999999</v>
+        <v>1266.02</v>
       </c>
       <c r="X21" s="22" t="n">
-        <v>10630.94</v>
+        <v>1480.46</v>
       </c>
       <c r="Y21" s="22" t="n">
-        <v>18635.94</v>
+        <v>1531.5</v>
       </c>
       <c r="Z21" s="22" t="n">
-        <v>20252.04</v>
+        <v>1558.32</v>
       </c>
       <c r="AA21" s="22" t="n">
-        <v>20252.04</v>
+        <v>1558.32</v>
       </c>
       <c r="AB21" s="22" t="n">
-        <v>20252.04</v>
+        <v>1558.32</v>
       </c>
       <c r="AC21" s="22" t="n">
-        <v>20252.04</v>
+        <v>1558.32</v>
       </c>
       <c r="AD21" s="22" t="n">
         <v/>
@@ -10357,7 +10357,7 @@
         <v/>
       </c>
       <c r="B22" s="14" t="n">
-        <v>42654.42000000001</v>
+        <v>914.4</v>
       </c>
       <c r="C22" s="14">
         <f>++'Completion Factors'!J16</f>
@@ -10381,7 +10381,7 @@
         <v/>
       </c>
       <c r="I22" s="14" t="n">
-        <v>25374.62833333334</v>
+        <v>21386.11833333334</v>
       </c>
       <c r="J22" s="14">
         <f>100*$G22/$I22</f>
@@ -10413,34 +10413,34 @@
         <v/>
       </c>
       <c r="S22" s="22" t="n">
-        <v>93.94</v>
+        <v/>
       </c>
       <c r="T22" s="22" t="n">
-        <v>2185.95</v>
+        <v/>
       </c>
       <c r="U22" s="22" t="n">
-        <v>3170.46</v>
+        <v/>
       </c>
       <c r="V22" s="22" t="n">
-        <v>3190.46</v>
+        <v>541.9299999999999</v>
       </c>
       <c r="W22" s="22" t="n">
-        <v>5881.219999999999</v>
+        <v>864.25</v>
       </c>
       <c r="X22" s="22" t="n">
-        <v>5881.219999999999</v>
+        <v>864.25</v>
       </c>
       <c r="Y22" s="22" t="n">
-        <v>42634.62</v>
+        <v>887.13</v>
       </c>
       <c r="Z22" s="22" t="n">
-        <v>42634.62</v>
+        <v>914.4</v>
       </c>
       <c r="AA22" s="22" t="n">
-        <v>42654.42000000001</v>
+        <v>914.4</v>
       </c>
       <c r="AB22" s="22" t="n">
-        <v>42654.42000000001</v>
+        <v>914.4</v>
       </c>
       <c r="AC22" s="22" t="n">
         <v/>
@@ -10493,7 +10493,7 @@
         <v/>
       </c>
       <c r="B23" s="14" t="n">
-        <v>7244.98</v>
+        <v>3460.08</v>
       </c>
       <c r="C23" s="14">
         <f>++'Completion Factors'!J15</f>
@@ -10517,7 +10517,7 @@
         <v/>
       </c>
       <c r="I23" s="14" t="n">
-        <v>24674.52916666666</v>
+        <v>21237.95833333333</v>
       </c>
       <c r="J23" s="14">
         <f>100*$G23/$I23</f>
@@ -10549,31 +10549,31 @@
         <v/>
       </c>
       <c r="S23" s="22" t="n">
-        <v>662.64</v>
+        <v/>
       </c>
       <c r="T23" s="22" t="n">
-        <v>2862.86</v>
+        <v/>
       </c>
       <c r="U23" s="22" t="n">
-        <v>3570.92</v>
+        <v>361.23</v>
       </c>
       <c r="V23" s="22" t="n">
-        <v>6625.709999999999</v>
+        <v>398.78</v>
       </c>
       <c r="W23" s="22" t="n">
-        <v>6678.709999999999</v>
+        <v>398.78</v>
       </c>
       <c r="X23" s="22" t="n">
-        <v>7217.559999999999</v>
+        <v>398.78</v>
       </c>
       <c r="Y23" s="22" t="n">
-        <v>7217.559999999999</v>
+        <v>3432.81</v>
       </c>
       <c r="Z23" s="22" t="n">
-        <v>7217.559999999999</v>
+        <v>3460.08</v>
       </c>
       <c r="AA23" s="22" t="n">
-        <v>7244.98</v>
+        <v>3460.08</v>
       </c>
       <c r="AB23" s="22" t="n">
         <v/>
@@ -10629,7 +10629,7 @@
         <v/>
       </c>
       <c r="B24" s="14" t="n">
-        <v>3502.11</v>
+        <v>436.78</v>
       </c>
       <c r="C24" s="14">
         <f>++'Completion Factors'!J14</f>
@@ -10655,7 +10655,7 @@
         <v/>
       </c>
       <c r="I24" s="14" t="n">
-        <v>24313.24166666667</v>
+        <v>21061.72166666667</v>
       </c>
       <c r="J24" s="14">
         <f>100*$G24/$I24</f>
@@ -10687,28 +10687,28 @@
         <v/>
       </c>
       <c r="S24" s="22" t="n">
-        <v>71.86</v>
+        <v/>
       </c>
       <c r="T24" s="22" t="n">
-        <v>901.87</v>
+        <v>258.18</v>
       </c>
       <c r="U24" s="22" t="n">
-        <v>991.01</v>
+        <v>261.19</v>
       </c>
       <c r="V24" s="22" t="n">
-        <v>1001.01</v>
+        <v>436.78</v>
       </c>
       <c r="W24" s="22" t="n">
-        <v>1001.01</v>
+        <v>436.78</v>
       </c>
       <c r="X24" s="22" t="n">
-        <v>1886.01</v>
+        <v>436.78</v>
       </c>
       <c r="Y24" s="22" t="n">
-        <v>1886.01</v>
+        <v>436.78</v>
       </c>
       <c r="Z24" s="22" t="n">
-        <v>3502.11</v>
+        <v>436.78</v>
       </c>
       <c r="AA24" s="22" t="n">
         <v/>
@@ -10767,7 +10767,7 @@
         <v/>
       </c>
       <c r="B25" s="14" t="n">
-        <v>2287.43</v>
+        <v>1592.6</v>
       </c>
       <c r="C25" s="14">
         <f>++'Completion Factors'!J13</f>
@@ -10793,7 +10793,7 @@
         <v/>
       </c>
       <c r="I25" s="14" t="n">
-        <v>24142.31666666667</v>
+        <v>20916.385</v>
       </c>
       <c r="J25" s="14">
         <f>100*$G25/$I25</f>
@@ -10825,25 +10825,25 @@
         <v/>
       </c>
       <c r="S25" s="22" t="n">
-        <v>41.02</v>
+        <v>284.31</v>
       </c>
       <c r="T25" s="22" t="n">
-        <v>565.0799999999999</v>
+        <v>722.4200000000001</v>
       </c>
       <c r="U25" s="22" t="n">
-        <v>847.5699999999999</v>
+        <v>1503.3</v>
       </c>
       <c r="V25" s="22" t="n">
-        <v>867.4299999999999</v>
+        <v>1592.6</v>
       </c>
       <c r="W25" s="22" t="n">
-        <v>2287.43</v>
+        <v>1592.6</v>
       </c>
       <c r="X25" s="22" t="n">
-        <v>2287.43</v>
+        <v>1592.6</v>
       </c>
       <c r="Y25" s="22" t="n">
-        <v>2287.43</v>
+        <v>1592.6</v>
       </c>
       <c r="Z25" s="22" t="n">
         <v/>
@@ -10905,7 +10905,7 @@
         <v/>
       </c>
       <c r="B26" s="14" t="n">
-        <v>2092.84</v>
+        <v>5387.42</v>
       </c>
       <c r="C26" s="14">
         <f>++'Completion Factors'!J12</f>
@@ -10931,7 +10931,7 @@
         <v/>
       </c>
       <c r="I26" s="14" t="n">
-        <v>23964.32166666667</v>
+        <v>20785.00416666667</v>
       </c>
       <c r="J26" s="14">
         <f>100*$G26/$I26</f>
@@ -10963,22 +10963,22 @@
         <v/>
       </c>
       <c r="S26" s="22" t="n">
-        <v>224.75</v>
+        <v>205.83</v>
       </c>
       <c r="T26" s="22" t="n">
-        <v>838.9400000000001</v>
+        <v>2677.97</v>
       </c>
       <c r="U26" s="22" t="n">
-        <v>884.35</v>
+        <v>2801.39</v>
       </c>
       <c r="V26" s="22" t="n">
-        <v>964.35</v>
+        <v>4928.39</v>
       </c>
       <c r="W26" s="22" t="n">
-        <v>1164.35</v>
+        <v>5168.64</v>
       </c>
       <c r="X26" s="22" t="n">
-        <v>2092.84</v>
+        <v>5387.42</v>
       </c>
       <c r="Y26" s="22" t="n">
         <v/>
@@ -11043,7 +11043,7 @@
         <v/>
       </c>
       <c r="B27" s="14" t="n">
-        <v>1194.57</v>
+        <v>2385.73</v>
       </c>
       <c r="C27" s="14">
         <f>++'Completion Factors'!J11</f>
@@ -11069,7 +11069,7 @@
         <v/>
       </c>
       <c r="I27" s="14" t="n">
-        <v>23798.84</v>
+        <v>20653.01</v>
       </c>
       <c r="J27" s="14">
         <f>100*$G27/$I27</f>
@@ -11101,19 +11101,19 @@
         <v/>
       </c>
       <c r="S27" s="22" t="n">
-        <v>78.02000000000001</v>
+        <v>30.61</v>
       </c>
       <c r="T27" s="22" t="n">
-        <v>1138.38</v>
+        <v>956.4300000000001</v>
       </c>
       <c r="U27" s="22" t="n">
-        <v>1138.38</v>
+        <v>1034.64</v>
       </c>
       <c r="V27" s="22" t="n">
-        <v>1177</v>
+        <v>1034.64</v>
       </c>
       <c r="W27" s="22" t="n">
-        <v>1194.57</v>
+        <v>2385.73</v>
       </c>
       <c r="X27" s="22" t="n">
         <v/>
@@ -11181,7 +11181,7 @@
         <v/>
       </c>
       <c r="B28" s="14" t="n">
-        <v>512.88</v>
+        <v>783.0500000000001</v>
       </c>
       <c r="C28" s="14">
         <f>++'Completion Factors'!J10</f>
@@ -11207,7 +11207,7 @@
         <v/>
       </c>
       <c r="I28" s="14" t="n">
-        <v>23172.67083333333</v>
+        <v>20523.28416666667</v>
       </c>
       <c r="J28" s="14">
         <f>100*$G28/$I28</f>
@@ -11239,16 +11239,16 @@
         <v/>
       </c>
       <c r="S28" s="22" t="n">
-        <v>78.11</v>
+        <v>27.45</v>
       </c>
       <c r="T28" s="22" t="n">
-        <v>303.38</v>
+        <v>737.0200000000001</v>
       </c>
       <c r="U28" s="22" t="n">
-        <v>422.01</v>
+        <v>737.0200000000001</v>
       </c>
       <c r="V28" s="22" t="n">
-        <v>512.88</v>
+        <v>783.0500000000001</v>
       </c>
       <c r="W28" s="22" t="n">
         <v/>
@@ -11319,7 +11319,7 @@
         <v/>
       </c>
       <c r="B29" s="14" t="n">
-        <v>1923.78</v>
+        <v>285.46</v>
       </c>
       <c r="C29" s="14">
         <f>++'Completion Factors'!J9</f>
@@ -11346,7 +11346,7 @@
         <v/>
       </c>
       <c r="I29" s="14" t="n">
-        <v>22582.26416666666</v>
+        <v>20272.995</v>
       </c>
       <c r="J29" s="20" t="n">
         <v>80</v>
@@ -11377,13 +11377,13 @@
         <v/>
       </c>
       <c r="S29" s="22" t="n">
-        <v/>
+        <v>79.56999999999999</v>
       </c>
       <c r="T29" s="22" t="n">
-        <v>74.48</v>
+        <v>261.65</v>
       </c>
       <c r="U29" s="22" t="n">
-        <v>1923.78</v>
+        <v>285.46</v>
       </c>
       <c r="V29" s="22" t="n">
         <v/>
@@ -11457,7 +11457,7 @@
         <v/>
       </c>
       <c r="B30" s="14" t="n">
-        <v>399.96</v>
+        <v>75.84</v>
       </c>
       <c r="C30" s="14">
         <f>++'Completion Factors'!J8</f>
@@ -11484,7 +11484,7 @@
         <v/>
       </c>
       <c r="I30" s="14" t="n">
-        <v>22313.55583333333</v>
+        <v>20221.4275</v>
       </c>
       <c r="J30" s="20" t="n">
         <v>60</v>
@@ -11518,7 +11518,7 @@
         <v/>
       </c>
       <c r="T30" s="22" t="n">
-        <v>399.96</v>
+        <v>75.84</v>
       </c>
       <c r="U30" s="22" t="n">
         <v/>
@@ -11595,7 +11595,7 @@
         <v/>
       </c>
       <c r="B31" s="14" t="n">
-        <v>100.33</v>
+        <v/>
       </c>
       <c r="C31" s="14">
         <f>+'Completion Factors'!J7</f>
@@ -11622,7 +11622,7 @@
         <v/>
       </c>
       <c r="I31" s="14" t="n">
-        <v>21819.67916666666</v>
+        <v>20164</v>
       </c>
       <c r="J31" s="20" t="n">
         <v>60</v>
@@ -11653,7 +11653,7 @@
         <v/>
       </c>
       <c r="S31" s="22" t="n">
-        <v>100.33</v>
+        <v/>
       </c>
       <c r="T31" s="22" t="n">
         <v/>

--- a/Process Results/Unified_IBNP_USH.xlsx
+++ b/Process Results/Unified_IBNP_USH.xlsx
@@ -3727,20 +3727,20 @@
         <v/>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.01854398918134242</v>
+        <v>0.009731236613320055</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.03692398667380116</v>
+        <v>0.001490508197456753</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>0.01177168672325772</v>
+        <v>0.00631632221891599</v>
       </c>
       <c r="H7" s="4">
         <f>+I7/I8</f>
         <v/>
       </c>
       <c r="I7" s="5" t="n">
-        <v>0.01177168672325772</v>
+        <v>0.00631632221891599</v>
       </c>
       <c r="J7" s="5">
         <f>I7</f>
@@ -3765,20 +3765,20 @@
         <v/>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.173045465106814</v>
+        <v>0.3003159596455484</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.3149975968773203</v>
+        <v>0.02584704342258103</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.08592140736550352</v>
+        <v>0.07238564098085325</v>
       </c>
       <c r="H8" s="4">
         <f>+I8/I9</f>
         <v/>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.08592140736550352</v>
+        <v>0.07238564098085325</v>
       </c>
       <c r="J8" s="5">
         <f>I8</f>
@@ -3803,20 +3803,20 @@
         <v/>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1820752325612651</v>
+        <v>0.6265800615691376</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.3716337234141823</v>
+        <v>0.05087946421313315</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.4651173697812254</v>
+        <v>0.112541702393383</v>
       </c>
       <c r="H9" s="4">
         <f>+I9/I10</f>
         <v/>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.4651173697812254</v>
+        <v>0.112541702393383</v>
       </c>
       <c r="J9" s="5">
         <f>I9</f>
@@ -3841,20 +3841,20 @@
         <v/>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.2685940641097077</v>
+        <v>0.6883729197313032</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.5089676120683836</v>
+        <v>0.07090856337574124</v>
       </c>
       <c r="G10" s="5" t="n">
-        <v>0.4971111254708712</v>
+        <v>0.1576593472654159</v>
       </c>
       <c r="H10" s="4">
         <f>+I10/I11</f>
         <v/>
       </c>
       <c r="I10" s="5" t="n">
-        <v>0.4971111254708712</v>
+        <v>0.1576593472654159</v>
       </c>
       <c r="J10" s="5">
         <f>I10</f>
@@ -3879,20 +3879,20 @@
         <v/>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.3251643935170956</v>
+        <v>0.7098741222252529</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.6179990546674735</v>
+        <v>0.1574834890470723</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.5914479061334196</v>
+        <v>0.2701559733351965</v>
       </c>
       <c r="H11" s="4">
         <f>+I11/I12</f>
         <v/>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.5914479061334196</v>
+        <v>0.2701559733351965</v>
       </c>
       <c r="J11" s="5">
         <f>I11</f>
@@ -3917,20 +3917,20 @@
         <v/>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.3350475927876825</v>
+        <v>0.872386492514251</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.6455232269478255</v>
+        <v>0.2308108361308132</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.6329654638981981</v>
+        <v>0.3684134043676821</v>
       </c>
       <c r="H12" s="4">
         <f>+I12/I13</f>
         <v/>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.6329654638981981</v>
+        <v>0.3684134043676821</v>
       </c>
       <c r="J12" s="5">
         <f>I12</f>
@@ -3955,20 +3955,20 @@
         <v/>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.753695642317208</v>
+        <v>0.9116355921056233</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.9079700722536166</v>
+        <v>0.2379144081810812</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>0.6767497201781122</v>
+        <v>0.3930432733628765</v>
       </c>
       <c r="H13" s="4">
         <f>+I13/I14</f>
         <v/>
       </c>
       <c r="I13" s="5" t="n">
-        <v>0.6767497201781122</v>
+        <v>0.3930432733628765</v>
       </c>
       <c r="J13" s="5">
         <f>I13</f>
@@ -3993,20 +3993,20 @@
         <v/>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.7623374291644431</v>
+        <v>0.9198234345825331</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.9100205506842198</v>
+        <v>0.2709523613679058</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.6996197611778983</v>
+        <v>0.417463240121651</v>
       </c>
       <c r="H14" s="4">
         <f>+I14/I15</f>
         <v/>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.6996197611778983</v>
+        <v>0.417463240121651</v>
       </c>
       <c r="J14" s="5">
         <f>I14</f>
@@ -4031,20 +4031,20 @@
         <v/>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.7623374291644431</v>
+        <v>0.9198234345825331</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.9457587962903141</v>
+        <v>0.3477502739146799</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.720482770102821</v>
+        <v>0.4840239242644199</v>
       </c>
       <c r="H15" s="4">
         <f>+I15/I16</f>
         <v/>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.720482770102821</v>
+        <v>0.4840239242644199</v>
       </c>
       <c r="J15" s="5">
         <f>I15</f>
@@ -4069,20 +4069,20 @@
         <v/>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.9766583967047622</v>
+        <v>0.9210908285654575</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.981162787039323</v>
+        <v>0.3993045974673696</v>
       </c>
       <c r="G16" s="5" t="n">
-        <v>0.7314223587316669</v>
+        <v>0.5268432690070034</v>
       </c>
       <c r="H16" s="4">
         <f>+I16/I17</f>
         <v/>
       </c>
       <c r="I16" s="5" t="n">
-        <v>0.7314223587316669</v>
+        <v>0.5268432690070034</v>
       </c>
       <c r="J16" s="5">
         <f>I16</f>
@@ -4107,20 +4107,20 @@
         <v/>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.9770075279463533</v>
+        <v>0.9385314909296101</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.9814447598155218</v>
+        <v>0.4991154650135629</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.7316625453640778</v>
+        <v>0.5832795032459778</v>
       </c>
       <c r="H17" s="4">
         <f>+I17/I18</f>
         <v/>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.7316625453640778</v>
+        <v>0.5832795032459778</v>
       </c>
       <c r="J17" s="5">
         <f>I17</f>
@@ -4145,20 +4145,20 @@
         <v/>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.9770075279463533</v>
+        <v>0.9410947009448031</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.9814447598155218</v>
+        <v>0.5978980621293175</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.7316625453640778</v>
+        <v>0.6394886410053415</v>
       </c>
       <c r="H18" s="4">
         <f>+I18/I19</f>
         <v/>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.7316625453640778</v>
+        <v>0.6394886410053415</v>
       </c>
       <c r="J18" s="5">
         <f>I18</f>
@@ -4183,20 +4183,20 @@
         <v/>
       </c>
       <c r="E19" s="5" t="n">
-        <v>0.9786334531914429</v>
+        <v>0.9435785681159442</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>0.9827955702828415</v>
+        <v>0.7001413972252291</v>
       </c>
       <c r="G19" s="5" t="n">
-        <v>1.003315099924647</v>
+        <v>0.7283295791286287</v>
       </c>
       <c r="H19" s="4">
         <f>+I19/I20</f>
         <v/>
       </c>
       <c r="I19" s="5" t="n">
-        <v>1.003315099924647</v>
+        <v>0.7283295791286287</v>
       </c>
       <c r="J19" s="5">
         <f>I19</f>
@@ -4221,20 +4221,20 @@
         <v/>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.9786334531914429</v>
+        <v>0.996222325932448</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.9827955702828415</v>
+        <v>0.7873821494873033</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.9808426163636448</v>
+        <v>0.8042990817647501</v>
       </c>
       <c r="H20" s="4">
         <f>+I20/I21</f>
         <v/>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.9808426163636448</v>
+        <v>0.8042990817647501</v>
       </c>
       <c r="J20" s="5">
         <f>I20</f>
@@ -4259,20 +4259,20 @@
         <v/>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.9786334531914429</v>
+        <v>1</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.9827955702828415</v>
+        <v>0.8290718801924764</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.9826949556428071</v>
+        <v>0.8417593795230742</v>
       </c>
       <c r="H21" s="4">
         <f>+I21/I22</f>
         <v/>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.9826949556428071</v>
+        <v>0.8417593795230742</v>
       </c>
       <c r="J21" s="5">
         <f>I21</f>
@@ -4297,20 +4297,20 @@
         <v/>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.9786334531914429</v>
+        <v>1</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.9827955702828415</v>
+        <v>0.9368743490691854</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.982777561796198</v>
+        <v>0.9409848522332095</v>
       </c>
       <c r="H22" s="4">
         <f>+I22/I23</f>
         <v/>
       </c>
       <c r="I22" s="5" t="n">
-        <v>0.982777561796198</v>
+        <v>0.9409848522332095</v>
       </c>
       <c r="J22" s="5">
         <f>I22</f>
@@ -4335,20 +4335,20 @@
         <v/>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.9786334531914429</v>
+        <v>1</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.9827955702828415</v>
+        <v>1</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.9827955702828415</v>
+        <v>1</v>
       </c>
       <c r="H23" s="4">
         <f>+I23/I24</f>
         <v/>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.9827955702828415</v>
+        <v>1</v>
       </c>
       <c r="J23" s="5">
         <f>I23</f>
@@ -4373,20 +4373,20 @@
         <v/>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.9786334531914429</v>
+        <v>1</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.9827955702828415</v>
+        <v>1</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.9827955702828415</v>
+        <v>1</v>
       </c>
       <c r="H24" s="4">
         <f>+I24/I25</f>
         <v/>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.9827955702828415</v>
+        <v>1</v>
       </c>
       <c r="J24" s="5">
         <f>I24</f>
@@ -4411,20 +4411,20 @@
         <v/>
       </c>
       <c r="E25" s="5" t="n">
-        <v>0.9786334531914429</v>
+        <v>1</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>0.9827955702828415</v>
+        <v>1</v>
       </c>
       <c r="G25" s="5" t="n">
-        <v>0.9827955702828415</v>
+        <v>1</v>
       </c>
       <c r="H25" s="4">
         <f>+I25/I26</f>
         <v/>
       </c>
       <c r="I25" s="5" t="n">
-        <v>0.9827955702828415</v>
+        <v>1</v>
       </c>
       <c r="J25" s="5">
         <f>I25</f>
@@ -4449,20 +4449,20 @@
         <v/>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.9786334531914429</v>
+        <v>1</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.9827955702828415</v>
+        <v>1</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.9827955702828415</v>
+        <v>1</v>
       </c>
       <c r="H26" s="4">
         <f>+I26/I27</f>
         <v/>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.9827955702828415</v>
+        <v>1</v>
       </c>
       <c r="J26" s="5">
         <f>I26</f>
@@ -4833,43 +4833,43 @@
         <v>0</v>
       </c>
       <c r="B38" s="4" t="n">
-        <v>15.61185517462352</v>
+        <v>12.55037573058726</v>
       </c>
       <c r="C38" s="4" t="n">
-        <v>1.599807899910928</v>
+        <v>1.098839078802932</v>
       </c>
       <c r="D38" s="4" t="n">
-        <v>2.94859268762027</v>
+        <v>1.010090715532638</v>
       </c>
       <c r="E38" s="4" t="n">
-        <v>1.298591037004422</v>
+        <v>1</v>
       </c>
       <c r="F38" s="4" t="n">
-        <v>1.930359920099654</v>
+        <v>1.884107051877604</v>
       </c>
       <c r="G38" s="4" t="n">
-        <v>1.000951822243204</v>
+        <v>1</v>
       </c>
       <c r="H38" s="4" t="n">
-        <v>1.017339845716989</v>
+        <v>1.856888351599408</v>
       </c>
       <c r="I38" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="J38" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="K38" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="L38" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="M38" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="N38" s="4" t="n">
-        <v>1.003408860036297</v>
+        <v>1</v>
       </c>
       <c r="O38" s="4" t="n">
         <v>1</v>
@@ -4878,7 +4878,7 @@
         <v>1</v>
       </c>
       <c r="Q38" s="4" t="n">
-        <v>1.000101918375611</v>
+        <v>1</v>
       </c>
       <c r="R38" s="4" t="n">
         <v>1</v>
@@ -4908,25 +4908,25 @@
         <v/>
       </c>
       <c r="B39" s="4" t="n">
-        <v>16.86107054416153</v>
+        <v>13.77571916138469</v>
       </c>
       <c r="C39" s="4" t="n">
-        <v>1.169285808431716</v>
+        <v>1.499911516953352</v>
       </c>
       <c r="D39" s="4" t="n">
-        <v>1.125166667740211</v>
+        <v>1.023431692957514</v>
       </c>
       <c r="E39" s="4" t="n">
-        <v>1.004906085950962</v>
+        <v>2.637019701877962</v>
       </c>
       <c r="F39" s="4" t="n">
-        <v>1.002848386104433</v>
+        <v>1</v>
       </c>
       <c r="G39" s="4" t="n">
-        <v>1.26352264851907</v>
+        <v>1</v>
       </c>
       <c r="H39" s="4" t="n">
-        <v>1</v>
+        <v>1.011987252068916</v>
       </c>
       <c r="I39" s="4" t="n">
         <v>1</v>
@@ -4950,7 +4950,7 @@
         <v>1</v>
       </c>
       <c r="P39" s="4" t="n">
-        <v>1.00314708579855</v>
+        <v>1</v>
       </c>
       <c r="Q39" s="4" t="n">
         <v>1</v>
@@ -4983,25 +4983,25 @@
         <v/>
       </c>
       <c r="B40" s="4" t="n">
-        <v>13.60757394624195</v>
+        <v>3.732769744160178</v>
       </c>
       <c r="C40" s="4" t="n">
-        <v>1.560111999727936</v>
+        <v>1.054127827973395</v>
       </c>
       <c r="D40" s="4" t="n">
-        <v>1.607889583613383</v>
+        <v>1.090461921185051</v>
       </c>
       <c r="E40" s="4" t="n">
-        <v>1.007924170187767</v>
+        <v>1.207393581168663</v>
       </c>
       <c r="F40" s="4" t="n">
-        <v>1.191603691739318</v>
+        <v>1.797432043629493</v>
       </c>
       <c r="G40" s="4" t="n">
-        <v>1.752990798555913</v>
+        <v>1</v>
       </c>
       <c r="H40" s="4" t="n">
-        <v>1.086719532258636</v>
+        <v>1</v>
       </c>
       <c r="I40" s="4" t="n">
         <v>1</v>
@@ -5010,19 +5010,19 @@
         <v>1</v>
       </c>
       <c r="K40" s="4" t="n">
-        <v>1</v>
+        <v>1.013101813803253</v>
       </c>
       <c r="L40" s="4" t="n">
         <v>1</v>
       </c>
       <c r="M40" s="4" t="n">
-        <v>3.737234866215947</v>
+        <v>1</v>
       </c>
       <c r="N40" s="4" t="n">
-        <v>0.9462512731773102</v>
+        <v>1</v>
       </c>
       <c r="O40" s="4" t="n">
-        <v>1.004482077762793</v>
+        <v>1</v>
       </c>
       <c r="P40" s="4" t="n">
         <v>1</v>
@@ -5058,31 +5058,31 @@
         <v/>
       </c>
       <c r="B41" s="4" t="n">
-        <v>23.26964019586971</v>
+        <v>14.59087413483722</v>
       </c>
       <c r="C41" s="4" t="n">
-        <v>1.450380841281823</v>
+        <v>1</v>
       </c>
       <c r="D41" s="4" t="n">
-        <v>1.006308232874725</v>
+        <v>1.033925402765333</v>
       </c>
       <c r="E41" s="4" t="n">
-        <v>1.843376817136087</v>
+        <v>1.014927782497876</v>
       </c>
       <c r="F41" s="4" t="n">
-        <v>1</v>
+        <v>2.339394091597814</v>
       </c>
       <c r="G41" s="4" t="n">
-        <v>7.2492816116384</v>
+        <v>1</v>
       </c>
       <c r="H41" s="4" t="n">
         <v>1</v>
       </c>
       <c r="I41" s="4" t="n">
-        <v>1.000464411316437</v>
+        <v>1.006798899293988</v>
       </c>
       <c r="J41" s="4" t="n">
-        <v>1</v>
+        <v>1.009745625664192</v>
       </c>
       <c r="K41" s="4" t="n">
         <v>1</v>
@@ -5094,28 +5094,28 @@
         <v>1</v>
       </c>
       <c r="N41" s="4" t="n">
-        <v>1.000679882647566</v>
+        <v>1</v>
       </c>
       <c r="O41" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="P41" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="Q41" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>2.855670030517531</v>
       </c>
       <c r="R41" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="S41" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="T41" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="U41" s="4" t="n">
-        <v>1.060913581901356</v>
+        <v>1</v>
       </c>
       <c r="V41" s="4" t="n">
         <v/>
@@ -5133,40 +5133,40 @@
         <v/>
       </c>
       <c r="B42" s="4" t="n">
-        <v>4.320385126162018</v>
+        <v>3.884009729868135</v>
       </c>
       <c r="C42" s="4" t="n">
-        <v>1.247326100472954</v>
+        <v>1.391027753971916</v>
       </c>
       <c r="D42" s="4" t="n">
-        <v>1.855463017933754</v>
+        <v>1.215326651027227</v>
       </c>
       <c r="E42" s="4" t="n">
-        <v>1.007999142733383</v>
+        <v>6.84932147870847</v>
       </c>
       <c r="F42" s="4" t="n">
-        <v>1.080681748421477</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="G42" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="H42" s="4" t="n">
-        <v>1</v>
+        <v>1.00170800027328</v>
       </c>
       <c r="I42" s="4" t="n">
-        <v>1.003799067829017</v>
+        <v>1.065526531169008</v>
       </c>
       <c r="J42" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="K42" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="L42" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="M42" s="4" t="n">
-        <v>1.002208425696137</v>
+        <v>1</v>
       </c>
       <c r="N42" s="4" t="n">
         <v>1</v>
@@ -5175,7 +5175,7 @@
         <v>1</v>
       </c>
       <c r="P42" s="4" t="n">
-        <v>1</v>
+        <v>3.670685912104676</v>
       </c>
       <c r="Q42" s="4" t="n">
         <v>1</v>
@@ -5208,28 +5208,28 @@
         <v/>
       </c>
       <c r="B43" s="4" t="n">
-        <v>12.55037573058725</v>
+        <v/>
       </c>
       <c r="C43" s="4" t="n">
-        <v>1.098839078802932</v>
+        <v>25.82948442534909</v>
       </c>
       <c r="D43" s="4" t="n">
-        <v>1.010090715532638</v>
+        <v>1</v>
       </c>
       <c r="E43" s="4" t="n">
         <v>1</v>
       </c>
       <c r="F43" s="4" t="n">
-        <v>1.884107051877604</v>
+        <v>1</v>
       </c>
       <c r="G43" s="4" t="n">
         <v>1</v>
       </c>
       <c r="H43" s="4" t="n">
-        <v>1.856888351599408</v>
+        <v>1</v>
       </c>
       <c r="I43" s="4" t="n">
-        <v>1</v>
+        <v>1.014253189034089</v>
       </c>
       <c r="J43" s="4" t="n">
         <v>1</v>
@@ -5247,7 +5247,7 @@
         <v>1</v>
       </c>
       <c r="O43" s="4" t="n">
-        <v>1</v>
+        <v>3.05930196801968</v>
       </c>
       <c r="P43" s="4" t="n">
         <v>1</v>
@@ -5283,28 +5283,28 @@
         <v/>
       </c>
       <c r="B44" s="4" t="n">
-        <v>13.77571916138469</v>
+        <v/>
       </c>
       <c r="C44" s="4" t="n">
-        <v>1.499911516953352</v>
+        <v>68.55200520052004</v>
       </c>
       <c r="D44" s="4" t="n">
-        <v>1.023431692957514</v>
+        <v>1</v>
       </c>
       <c r="E44" s="4" t="n">
-        <v>2.637019701877962</v>
+        <v>1</v>
       </c>
       <c r="F44" s="4" t="n">
-        <v>1</v>
+        <v>1.000109416931759</v>
       </c>
       <c r="G44" s="4" t="n">
-        <v>1</v>
+        <v>1.00692971023002</v>
       </c>
       <c r="H44" s="4" t="n">
-        <v>1.011987252068916</v>
+        <v>1.000060845138981</v>
       </c>
       <c r="I44" s="4" t="n">
-        <v>1</v>
+        <v>1.053536843111663</v>
       </c>
       <c r="J44" s="4" t="n">
         <v>1</v>
@@ -5316,22 +5316,22 @@
         <v>1</v>
       </c>
       <c r="M44" s="4" t="n">
-        <v>1</v>
+        <v>1.001990302175308</v>
       </c>
       <c r="N44" s="4" t="n">
-        <v>1</v>
+        <v>1.267263737711397</v>
       </c>
       <c r="O44" s="4" t="n">
-        <v>1</v>
+        <v>1.000433141614026</v>
       </c>
       <c r="P44" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="Q44" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="R44" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="S44" t="n">
         <v/>
@@ -5358,19 +5358,19 @@
         <v/>
       </c>
       <c r="B45" s="4" t="n">
-        <v>3.732769744160178</v>
+        <v>6.208312568523872</v>
       </c>
       <c r="C45" s="4" t="n">
-        <v>1.054127827973395</v>
+        <v>1.321089134343694</v>
       </c>
       <c r="D45" s="4" t="n">
-        <v>1.090461921185051</v>
+        <v>1.007364378767256</v>
       </c>
       <c r="E45" s="4" t="n">
-        <v>1.207393581168663</v>
+        <v>3.022764011870582</v>
       </c>
       <c r="F45" s="4" t="n">
-        <v>1.797432043629493</v>
+        <v>1.146011677422187</v>
       </c>
       <c r="G45" s="4" t="n">
         <v>1</v>
@@ -5382,22 +5382,22 @@
         <v>1</v>
       </c>
       <c r="J45" s="4" t="n">
-        <v>1</v>
+        <v>1.523226132228239</v>
       </c>
       <c r="K45" s="4" t="n">
-        <v>1.013101813803253</v>
+        <v>1.002862355453336</v>
       </c>
       <c r="L45" s="4" t="n">
         <v>1</v>
       </c>
       <c r="M45" s="4" t="n">
-        <v>1</v>
+        <v>3.751697237458224</v>
       </c>
       <c r="N45" s="4" t="n">
         <v>1</v>
       </c>
       <c r="O45" s="4" t="n">
-        <v>1</v>
+        <v>1.008327170797541</v>
       </c>
       <c r="P45" s="4" t="n">
         <v>1</v>
@@ -5433,43 +5433,43 @@
         <v/>
       </c>
       <c r="B46" s="4" t="n">
-        <v>14.59087413483722</v>
+        <v>1</v>
       </c>
       <c r="C46" s="4" t="n">
-        <v>1</v>
+        <v>1.057015463428517</v>
       </c>
       <c r="D46" s="4" t="n">
-        <v>1.033925402765333</v>
+        <v>1</v>
       </c>
       <c r="E46" s="4" t="n">
-        <v>1.014927782497876</v>
+        <v>11.36259199425597</v>
       </c>
       <c r="F46" s="4" t="n">
-        <v>2.339394091597814</v>
+        <v>1.169381210407419</v>
       </c>
       <c r="G46" s="4" t="n">
-        <v>1</v>
+        <v>1.034475771044135</v>
       </c>
       <c r="H46" s="4" t="n">
-        <v>1</v>
+        <v>1.017512242899118</v>
       </c>
       <c r="I46" s="4" t="n">
-        <v>1.006798899293988</v>
+        <v>1</v>
       </c>
       <c r="J46" s="4" t="n">
-        <v>1.009745625664192</v>
+        <v>1</v>
       </c>
       <c r="K46" s="4" t="n">
         <v>1</v>
       </c>
       <c r="L46" s="4" t="n">
-        <v>1</v>
+        <v>6.025989527183121</v>
       </c>
       <c r="M46" s="4" t="n">
         <v>1</v>
       </c>
       <c r="N46" s="4" t="n">
-        <v>1</v>
+        <v>1.160992799044132</v>
       </c>
       <c r="O46" s="4" t="n">
         <v>1</v>
@@ -5508,40 +5508,40 @@
         <v/>
       </c>
       <c r="B47" s="4" t="n">
-        <v>3.884009729868135</v>
+        <v/>
       </c>
       <c r="C47" s="4" t="n">
-        <v>1.391027753971916</v>
+        <v/>
       </c>
       <c r="D47" s="4" t="n">
-        <v>1.215326651027227</v>
+        <v/>
       </c>
       <c r="E47" s="4" t="n">
-        <v>6.84932147870847</v>
+        <v>1.594763161293894</v>
       </c>
       <c r="F47" s="4" t="n">
         <v>0.9999999999999999</v>
       </c>
       <c r="G47" s="4" t="n">
+        <v>1.026473821232282</v>
+      </c>
+      <c r="H47" s="4" t="n">
+        <v>1.030739575935883</v>
+      </c>
+      <c r="I47" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J47" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K47" s="4" t="n">
+        <v>9.519750656167981</v>
+      </c>
+      <c r="L47" s="4" t="n">
         <v>0.9999999999999999</v>
       </c>
-      <c r="H47" s="4" t="n">
-        <v>1.00170800027328</v>
-      </c>
-      <c r="I47" s="4" t="n">
-        <v>1.065526531169008</v>
-      </c>
-      <c r="J47" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="K47" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="L47" s="4" t="n">
-        <v>1</v>
-      </c>
       <c r="M47" s="4" t="n">
-        <v>1</v>
+        <v>1.008640001102832</v>
       </c>
       <c r="N47" s="4" t="n">
         <v>1</v>
@@ -5586,10 +5586,10 @@
         <v/>
       </c>
       <c r="C48" s="4" t="n">
-        <v>25.82948442534909</v>
+        <v/>
       </c>
       <c r="D48" s="4" t="n">
-        <v>1</v>
+        <v>1.103950391717188</v>
       </c>
       <c r="E48" s="4" t="n">
         <v>1</v>
@@ -5598,22 +5598,22 @@
         <v>1</v>
       </c>
       <c r="G48" s="4" t="n">
-        <v>1</v>
+        <v>8.608280254777071</v>
       </c>
       <c r="H48" s="4" t="n">
-        <v>1</v>
+        <v>1.007943929317382</v>
       </c>
       <c r="I48" s="4" t="n">
-        <v>1.014253189034089</v>
+        <v>1</v>
       </c>
       <c r="J48" s="4" t="n">
-        <v>1</v>
+        <v>2.559935030403921</v>
       </c>
       <c r="K48" s="4" t="n">
         <v>1</v>
       </c>
       <c r="L48" s="4" t="n">
-        <v>1</v>
+        <v>1.007792196062582</v>
       </c>
       <c r="M48" s="4" t="n">
         <v>1</v>
@@ -5661,37 +5661,37 @@
         <v/>
       </c>
       <c r="C49" s="4" t="n">
-        <v>68.55200520052004</v>
+        <v>1.011658532806569</v>
       </c>
       <c r="D49" s="4" t="n">
-        <v>1</v>
+        <v>1.672269229296681</v>
       </c>
       <c r="E49" s="4" t="n">
         <v>1</v>
       </c>
       <c r="F49" s="4" t="n">
-        <v>1.000109416931759</v>
+        <v>1</v>
       </c>
       <c r="G49" s="4" t="n">
-        <v>1.00692971023002</v>
+        <v>1</v>
       </c>
       <c r="H49" s="4" t="n">
-        <v>1.000060845138981</v>
+        <v>1</v>
       </c>
       <c r="I49" s="4" t="n">
-        <v>1.053536843111663</v>
+        <v>23.95471404368332</v>
       </c>
       <c r="J49" s="4" t="n">
         <v>1</v>
       </c>
       <c r="K49" s="4" t="n">
-        <v>1</v>
+        <v>1.038362066493739</v>
       </c>
       <c r="L49" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="M49" s="4" t="n">
-        <v>1.001990302175308</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="N49" t="n">
         <v/>
@@ -5733,34 +5733,34 @@
         <v/>
       </c>
       <c r="B50" s="4" t="n">
-        <v>6.208312568523872</v>
+        <v>2.540958812563751</v>
       </c>
       <c r="C50" s="4" t="n">
-        <v>1.321089134343694</v>
+        <v>2.080922455081531</v>
       </c>
       <c r="D50" s="4" t="n">
-        <v>1.007364378767256</v>
+        <v>1.059402647508814</v>
       </c>
       <c r="E50" s="4" t="n">
-        <v>3.022764011870582</v>
+        <v>1</v>
       </c>
       <c r="F50" s="4" t="n">
-        <v>1.146011677422187</v>
+        <v>1</v>
       </c>
       <c r="G50" s="4" t="n">
         <v>1</v>
       </c>
       <c r="H50" s="4" t="n">
-        <v>1</v>
+        <v>3.462953660680649</v>
       </c>
       <c r="I50" s="4" t="n">
         <v>1</v>
       </c>
       <c r="J50" s="4" t="n">
-        <v>1.523226132228239</v>
+        <v>1.005439611249116</v>
       </c>
       <c r="K50" s="4" t="n">
-        <v>1.002862355453336</v>
+        <v>1.000901696993742</v>
       </c>
       <c r="L50" s="4" t="n">
         <v>1</v>
@@ -5808,25 +5808,25 @@
         <v/>
       </c>
       <c r="B51" s="4" t="n">
-        <v>1</v>
+        <v>13.01059126463587</v>
       </c>
       <c r="C51" s="4" t="n">
-        <v>1.057015463428517</v>
+        <v>1.046087148100987</v>
       </c>
       <c r="D51" s="4" t="n">
-        <v>1</v>
+        <v>1.759265935838994</v>
       </c>
       <c r="E51" s="4" t="n">
-        <v>11.36259199425597</v>
+        <v>1.048748171309495</v>
       </c>
       <c r="F51" s="4" t="n">
-        <v>1.169381210407419</v>
+        <v>1.042328349430411</v>
       </c>
       <c r="G51" s="4" t="n">
-        <v>1.034475771044135</v>
+        <v>1.007304052774798</v>
       </c>
       <c r="H51" s="4" t="n">
-        <v>1.017512242899118</v>
+        <v>1.005025088588608</v>
       </c>
       <c r="I51" s="4" t="n">
         <v>1</v>
@@ -5883,25 +5883,25 @@
         <v/>
       </c>
       <c r="B52" s="4" t="n">
-        <v/>
+        <v>31.24567134923228</v>
       </c>
       <c r="C52" s="4" t="n">
-        <v/>
+        <v>1.08177284275901</v>
       </c>
       <c r="D52" s="4" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="E52" s="4" t="n">
-        <v>1.594763161293894</v>
+        <v>2.305855176679811</v>
       </c>
       <c r="F52" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>4.327371496355413</v>
       </c>
       <c r="G52" s="4" t="n">
-        <v>1.026473821232282</v>
+        <v>1.031138305724365</v>
       </c>
       <c r="H52" s="4" t="n">
-        <v>1.030739575935883</v>
+        <v>1.014864622405337</v>
       </c>
       <c r="I52" s="4" t="n">
         <v>1</v>
@@ -5958,25 +5958,25 @@
         <v/>
       </c>
       <c r="B53" s="4" t="n">
-        <v/>
+        <v>26.8495446265938</v>
       </c>
       <c r="C53" s="4" t="n">
-        <v/>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D53" s="4" t="n">
-        <v>1.103950391717188</v>
+        <v>1.062454207484193</v>
       </c>
       <c r="E53" s="4" t="n">
-        <v>1</v>
+        <v>11.37710235617138</v>
       </c>
       <c r="F53" s="4" t="n">
-        <v>1</v>
+        <v>1.025955118735997</v>
       </c>
       <c r="G53" s="4" t="n">
-        <v>8.608280254777071</v>
+        <v>1.058699769257785</v>
       </c>
       <c r="H53" s="4" t="n">
-        <v>1.007943929317382</v>
+        <v>1.002818141514728</v>
       </c>
       <c r="I53" s="4" t="n">
         <v>1</v>
@@ -6033,25 +6033,25 @@
         <v/>
       </c>
       <c r="B54" s="4" t="n">
-        <v/>
+        <v>3.288299610405932</v>
       </c>
       <c r="C54" s="4" t="n">
-        <v>1.011658532806569</v>
+        <v>1.090999426715078</v>
       </c>
       <c r="D54" s="4" t="n">
-        <v>1.672269229296681</v>
+        <v>5.085370980172354</v>
       </c>
       <c r="E54" s="4" t="n">
         <v>1</v>
       </c>
       <c r="F54" s="4" t="n">
-        <v>1</v>
+        <v>1.453023069981469</v>
       </c>
       <c r="G54" s="4" t="n">
-        <v>1</v>
+        <v>1.003351806989015</v>
       </c>
       <c r="H54" s="4" t="n">
-        <v>1</v>
+        <v>1.007569529101579</v>
       </c>
       <c r="I54" t="n">
         <v/>
@@ -6108,22 +6108,22 @@
         <v/>
       </c>
       <c r="B55" s="4" t="n">
-        <v>2.540958812563751</v>
+        <v/>
       </c>
       <c r="C55" s="4" t="n">
-        <v>2.080922455081531</v>
+        <v>3.164161392405063</v>
       </c>
       <c r="D55" s="4" t="n">
-        <v>1.059402647508814</v>
+        <v>3.157227986831688</v>
       </c>
       <c r="E55" s="4" t="n">
-        <v>1</v>
+        <v>1.044876194498706</v>
       </c>
       <c r="F55" s="4" t="n">
-        <v>1</v>
+        <v>1.052182810368349</v>
       </c>
       <c r="G55" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="H55" t="n">
         <v/>
@@ -6183,19 +6183,19 @@
         <v/>
       </c>
       <c r="B56" s="4" t="n">
-        <v>13.01059126463587</v>
+        <v/>
       </c>
       <c r="C56" s="4" t="n">
-        <v>1.046087148100987</v>
+        <v>1.133725944360939</v>
       </c>
       <c r="D56" s="4" t="n">
-        <v>1.759265935838994</v>
+        <v>1.738274288198218</v>
       </c>
       <c r="E56" s="4" t="n">
-        <v>1.048748171309495</v>
+        <v>1.012515941884018</v>
       </c>
       <c r="F56" s="4" t="n">
-        <v>1.042328349430411</v>
+        <v>1</v>
       </c>
       <c r="G56" t="n">
         <v/>
@@ -6258,16 +6258,16 @@
         <v/>
       </c>
       <c r="B57" s="4" t="n">
-        <v>31.24567134923228</v>
+        <v>4.448797250859106</v>
       </c>
       <c r="C57" s="4" t="n">
-        <v>1.08177284275901</v>
+        <v>4.186200019662093</v>
       </c>
       <c r="D57" s="4" t="n">
-        <v>1</v>
+        <v>1.024303016070051</v>
       </c>
       <c r="E57" s="4" t="n">
-        <v>2.305855176679811</v>
+        <v>1.032753165593455</v>
       </c>
       <c r="F57" t="n">
         <v/>
@@ -6333,13 +6333,13 @@
         <v/>
       </c>
       <c r="B58" s="4" t="n">
-        <v>26.84954462659381</v>
+        <v>13.31097079715864</v>
       </c>
       <c r="C58" s="4" t="n">
-        <v>1</v>
+        <v>2.188259709457456</v>
       </c>
       <c r="D58" s="4" t="n">
-        <v>1.062454207484193</v>
+        <v>1</v>
       </c>
       <c r="E58" t="n">
         <v/>
@@ -6408,10 +6408,10 @@
         <v/>
       </c>
       <c r="B59" s="4" t="n">
-        <v>3.288299610405932</v>
+        <v>140.3263207106124</v>
       </c>
       <c r="C59" s="4" t="n">
-        <v>1.090999426715078</v>
+        <v>1.576846194337649</v>
       </c>
       <c r="D59" t="n">
         <v/>
@@ -6483,7 +6483,7 @@
         <v/>
       </c>
       <c r="B60" s="4" t="n">
-        <v/>
+        <v>12.94862593257154</v>
       </c>
       <c r="C60" t="n">
         <v/>
@@ -6704,61 +6704,61 @@
         <v>1</v>
       </c>
       <c r="B2" s="34" t="n">
-        <v>0.01145103847713288</v>
+        <v>0.006887135561139205</v>
       </c>
       <c r="C2" s="34" t="n">
-        <v>0.01177168672325772</v>
+        <v>0.00631632221891599</v>
       </c>
       <c r="D2" s="34" t="n">
-        <v>0.03692398667380116</v>
+        <v>0.001490508197456753</v>
       </c>
       <c r="E2" s="34" t="n">
-        <v>0.01854398918134242</v>
+        <v>0.009731236613320055</v>
       </c>
       <c r="F2" s="34" t="n">
-        <v>0.001625408364734627</v>
+        <v>6.193302915676014e-05</v>
       </c>
       <c r="G2" s="34" t="n">
-        <v>0.0009068374937652933</v>
+        <v>7.082069980582081e-05</v>
       </c>
       <c r="H2" s="34" t="n">
-        <v>0.01185972947552686</v>
+        <v>6.35165186382335e-06</v>
       </c>
       <c r="I2" s="34" t="n">
-        <v>0.007784148983793504</v>
+        <v>0.004056061903586173</v>
       </c>
       <c r="J2" s="34" t="n">
-        <v>0.01177168672325772</v>
+        <v>0.00631632221891599</v>
       </c>
       <c r="M2" s="33" t="n">
         <v>1</v>
       </c>
       <c r="N2" s="22" t="n">
-        <v>8.845748484962549</v>
+        <v>9.30123663060844</v>
       </c>
       <c r="O2" s="22" t="n">
-        <v>7.298988614413745</v>
+        <v>11.46009314788822</v>
       </c>
       <c r="P2" s="22" t="n">
-        <v>8.53097472004078</v>
+        <v>17.34109444462213</v>
       </c>
       <c r="Q2" s="22" t="n">
-        <v>9.331620257895722</v>
+        <v>30.86102738828463</v>
       </c>
       <c r="R2" s="22" t="n">
-        <v>12.13809715999128</v>
+        <v>18.98199008899967</v>
       </c>
       <c r="S2" s="22" t="n">
-        <v>12.02048260456507</v>
+        <v>27.55219781718148</v>
       </c>
       <c r="T2" s="22" t="n">
-        <v>15.38701313268633</v>
+        <v>42.75867867280043</v>
       </c>
       <c r="U2" s="22" t="n">
-        <v>15.06892211849987</v>
+        <v>55.52863914678087</v>
       </c>
       <c r="V2" s="22" t="n">
-        <v>7.298988614413745</v>
+        <v>11.46009314788822</v>
       </c>
     </row>
     <row r="3">
@@ -6767,62 +6767,62 @@
         <v/>
       </c>
       <c r="B3" s="34" t="n">
-        <v>0.101293006260346</v>
+        <v>0.06405887756123399</v>
       </c>
       <c r="C3" s="34" t="n">
-        <v>0.08592140736550352</v>
+        <v>0.07238564098085325</v>
       </c>
       <c r="D3" s="34" t="n">
-        <v>0.3149975968773203</v>
+        <v>0.02584704342258103</v>
       </c>
       <c r="E3" s="34" t="n">
-        <v>0.173045465106814</v>
+        <v>0.3003159596455484</v>
       </c>
       <c r="F3" s="34" t="n">
-        <v>0.01972936465581145</v>
+        <v>0.001175612145635349</v>
       </c>
       <c r="G3" s="34" t="n">
-        <v>0.0109006243189731</v>
+        <v>0.001951265930601201</v>
       </c>
       <c r="H3" s="34" t="n">
-        <v>0.1824858131900389</v>
+        <v>0.0002715882410867166</v>
       </c>
       <c r="I3" s="34" t="n">
-        <v>0.1172987347955842</v>
+        <v>0.2252275978012417</v>
       </c>
       <c r="J3" s="34" t="n">
-        <v>0.08592140736550352</v>
+        <v>0.07238564098085325</v>
       </c>
       <c r="M3">
         <f>+M2+1</f>
         <v/>
       </c>
       <c r="N3" s="22" t="n">
-        <v>2.493748225568972</v>
+        <v>3.334145435107039</v>
       </c>
       <c r="O3" s="22" t="n">
-        <v>5.413288539404963</v>
+        <v>1.55475175557472</v>
       </c>
       <c r="P3" s="22" t="n">
-        <v>1.179798598777627</v>
+        <v>1.968482947209458</v>
       </c>
       <c r="Q3" s="22" t="n">
-        <v>1.052181474093397</v>
+        <v>2.086402808257898</v>
       </c>
       <c r="R3" s="22" t="n">
-        <v>5.857092672831572</v>
+        <v>6.118206703351464</v>
       </c>
       <c r="S3" s="22" t="n">
-        <v>10.40710346291045</v>
+        <v>1.778239424153307</v>
       </c>
       <c r="T3" s="22" t="n">
-        <v>1.218573400910529</v>
+        <v>2.223365447823047</v>
       </c>
       <c r="U3" s="22" t="n">
-        <v>1.057590756491362</v>
+        <v>2.650435307819067</v>
       </c>
       <c r="V3" s="22" t="n">
-        <v>5.413288539404963</v>
+        <v>1.55475175557472</v>
       </c>
     </row>
     <row r="4">
@@ -6831,62 +6831,62 @@
         <v/>
       </c>
       <c r="B4" s="34" t="n">
-        <v>0.2525992546242846</v>
+        <v>0.2135816141988691</v>
       </c>
       <c r="C4" s="34" t="n">
-        <v>0.4651173697812254</v>
+        <v>0.112541702393383</v>
       </c>
       <c r="D4" s="34" t="n">
-        <v>0.3716337234141823</v>
+        <v>0.05087946421313315</v>
       </c>
       <c r="E4" s="34" t="n">
-        <v>0.1820752325612651</v>
+        <v>0.6265800615691376</v>
       </c>
       <c r="F4" s="34" t="n">
-        <v>0.1155567171651754</v>
+        <v>0.007192638109967587</v>
       </c>
       <c r="G4" s="34" t="n">
-        <v>0.1134439250978708</v>
+        <v>0.003469818004802247</v>
       </c>
       <c r="H4" s="34" t="n">
-        <v>0.2223723579969092</v>
+        <v>0.0006038399112672411</v>
       </c>
       <c r="I4" s="34" t="n">
-        <v>0.1240540576679416</v>
+        <v>0.5969511775076829</v>
       </c>
       <c r="J4" s="34" t="n">
-        <v>0.4651173697812254</v>
+        <v>0.112541702393383</v>
       </c>
       <c r="M4">
         <f>+M3+1</f>
         <v/>
       </c>
       <c r="N4" s="22" t="n">
-        <v>1.283030892092445</v>
+        <v>1.104800080761385</v>
       </c>
       <c r="O4" s="22" t="n">
-        <v>1.06878641342656</v>
+        <v>1.400897124466154</v>
       </c>
       <c r="P4" s="22" t="n">
-        <v>1.369540975432803</v>
+        <v>1.393657823885616</v>
       </c>
       <c r="Q4" s="22" t="n">
-        <v>1.475181771465433</v>
+        <v>1.098619253870636</v>
       </c>
       <c r="R4" s="22" t="n">
-        <v>1.279068168193162</v>
+        <v>1.45215597226766</v>
       </c>
       <c r="S4" s="22" t="n">
-        <v>1.170912131058214</v>
+        <v>1.787501698465289</v>
       </c>
       <c r="T4" s="22" t="n">
-        <v>1.276223735307645</v>
+        <v>2.177938413126084</v>
       </c>
       <c r="U4" s="22" t="n">
-        <v>1.273906714441062</v>
+        <v>1.25419243475609</v>
       </c>
       <c r="V4" s="22" t="n">
-        <v>1.06878641342656</v>
+        <v>1.400897124466154</v>
       </c>
     </row>
     <row r="5">
@@ -6895,62 +6895,62 @@
         <v/>
       </c>
       <c r="B5" s="34" t="n">
-        <v>0.3240926470024826</v>
+        <v>0.2359649846160575</v>
       </c>
       <c r="C5" s="34" t="n">
-        <v>0.4971111254708712</v>
+        <v>0.1576593472654159</v>
       </c>
       <c r="D5" s="34" t="n">
-        <v>0.5089676120683836</v>
+        <v>0.07090856337574124</v>
       </c>
       <c r="E5" s="34" t="n">
-        <v>0.2685940641097077</v>
+        <v>0.6883729197313032</v>
       </c>
       <c r="F5" s="34" t="n">
-        <v>0.1478049185468762</v>
+        <v>0.01044483238774941</v>
       </c>
       <c r="G5" s="34" t="n">
-        <v>0.1328328680919563</v>
+        <v>0.006202305576949456</v>
       </c>
       <c r="H5" s="34" t="n">
-        <v>0.2837968813519844</v>
+        <v>0.001315126138127571</v>
       </c>
       <c r="I5" s="34" t="n">
-        <v>0.1580332970168495</v>
+        <v>0.7486916507488754</v>
       </c>
       <c r="J5" s="34" t="n">
-        <v>0.4971111254708712</v>
+        <v>0.1576593472654159</v>
       </c>
       <c r="M5">
         <f>+M4+1</f>
         <v/>
       </c>
       <c r="N5" s="22" t="n">
-        <v>1.202155357991051</v>
+        <v>1.348976647812607</v>
       </c>
       <c r="O5" s="22" t="n">
-        <v>1.189770004791567</v>
+        <v>1.713542381222695</v>
       </c>
       <c r="P5" s="22" t="n">
-        <v>1.214220787362086</v>
+        <v>2.220937522208347</v>
       </c>
       <c r="Q5" s="22" t="n">
-        <v>1.21061645422023</v>
+        <v>1.031234817462521</v>
       </c>
       <c r="R5" s="22" t="n">
-        <v>2.160309115633768</v>
+        <v>2.625531635890515</v>
       </c>
       <c r="S5" s="22" t="n">
-        <v>2.683247648051342</v>
+        <v>2.898267180140561</v>
       </c>
       <c r="T5" s="22" t="n">
-        <v>1.324894418213867</v>
+        <v>2.962183805804562</v>
       </c>
       <c r="U5" s="22" t="n">
-        <v>1.451534449329769</v>
+        <v>1.03004843399206</v>
       </c>
       <c r="V5" s="22" t="n">
-        <v>1.189770004791567</v>
+        <v>1.713542381222695</v>
       </c>
     </row>
     <row r="6">
@@ -6959,62 +6959,62 @@
         <v/>
       </c>
       <c r="B6" s="34" t="n">
-        <v>0.3896097120795369</v>
+        <v>0.3183112539485227</v>
       </c>
       <c r="C6" s="34" t="n">
-        <v>0.5914479061334196</v>
+        <v>0.2701559733351965</v>
       </c>
       <c r="D6" s="34" t="n">
-        <v>0.6179990546674735</v>
+        <v>0.1574834890470723</v>
       </c>
       <c r="E6" s="34" t="n">
-        <v>0.3251643935170956</v>
+        <v>0.7098741222252529</v>
       </c>
       <c r="F6" s="34" t="n">
-        <v>0.3193043128723232</v>
+        <v>0.02742323786560993</v>
       </c>
       <c r="G6" s="34" t="n">
-        <v>0.3564234808916558</v>
+        <v>0.01797593869487538</v>
       </c>
       <c r="H6" s="34" t="n">
-        <v>0.3760009040097471</v>
+        <v>0.003895645348951783</v>
       </c>
       <c r="I6" s="34" t="n">
-        <v>0.2293907747611205</v>
+        <v>0.7711886623968093</v>
       </c>
       <c r="J6" s="34" t="n">
-        <v>0.5914479061334196</v>
+        <v>0.2701559733351965</v>
       </c>
       <c r="M6">
         <f>+M5+1</f>
         <v/>
       </c>
       <c r="N6" s="22" t="n">
-        <v>1.224577846427152</v>
+        <v>1.201036499667883</v>
       </c>
       <c r="O6" s="22" t="n">
-        <v>1.070196474337358</v>
+        <v>1.363706305729441</v>
       </c>
       <c r="P6" s="22" t="n">
-        <v>1.044537563726796</v>
+        <v>1.465619269216363</v>
       </c>
       <c r="Q6" s="22" t="n">
-        <v>1.030394469590248</v>
+        <v>1.22893125020471</v>
       </c>
       <c r="R6" s="22" t="n">
-        <v>1.241276715140083</v>
+        <v>1.380910333512522</v>
       </c>
       <c r="S6" s="22" t="n">
-        <v>1.207888065784924</v>
+        <v>1.351354477725104</v>
       </c>
       <c r="T6" s="22" t="n">
-        <v>1.035284926639638</v>
+        <v>1.650143474145273</v>
       </c>
       <c r="U6" s="22" t="n">
-        <v>1.014109449810137</v>
+        <v>1.168401960116606</v>
       </c>
       <c r="V6" s="22" t="n">
-        <v>1.070196474337358</v>
+        <v>1.363706305729441</v>
       </c>
     </row>
     <row r="7">
@@ -7023,62 +7023,62 @@
         <v/>
       </c>
       <c r="B7" s="34" t="n">
-        <v>0.4771074221654621</v>
+        <v>0.3823034342472282</v>
       </c>
       <c r="C7" s="34" t="n">
-        <v>0.6329654638981981</v>
+        <v>0.3684134043676821</v>
       </c>
       <c r="D7" s="34" t="n">
-        <v>0.6455232269478255</v>
+        <v>0.2308108361308132</v>
       </c>
       <c r="E7" s="34" t="n">
-        <v>0.3350475927876825</v>
+        <v>0.872386492514251</v>
       </c>
       <c r="F7" s="34" t="n">
-        <v>0.3963450086122186</v>
+        <v>0.03786903254699262</v>
       </c>
       <c r="G7" s="34" t="n">
-        <v>0.4305196689345518</v>
+        <v>0.0242918652466318</v>
       </c>
       <c r="H7" s="34" t="n">
-        <v>0.3892680683241688</v>
+        <v>0.006428373750157171</v>
       </c>
       <c r="I7" s="34" t="n">
-        <v>0.232627352384521</v>
+        <v>0.9010583447641356</v>
       </c>
       <c r="J7" s="34" t="n">
-        <v>0.6329654638981981</v>
+        <v>0.3684134043676821</v>
       </c>
       <c r="M7">
         <f>+M6+1</f>
         <v/>
       </c>
       <c r="N7" s="22" t="n">
-        <v>1.464031000544681</v>
+        <v>1.05432472024394</v>
       </c>
       <c r="O7" s="22" t="n">
-        <v>1.069173215249791</v>
+        <v>1.066853889416612</v>
       </c>
       <c r="P7" s="22" t="n">
-        <v>1.406564526805173</v>
+        <v>1.030776596841588</v>
       </c>
       <c r="Q7" s="22" t="n">
-        <v>2.24951815366368</v>
+        <v>1.04499049438312</v>
       </c>
       <c r="R7" s="22" t="n">
-        <v>1.830161468791116</v>
+        <v>1.432036305112748</v>
       </c>
       <c r="S7" s="22" t="n">
-        <v>1.639679963106959</v>
+        <v>1.648054457669123</v>
       </c>
       <c r="T7" s="22" t="n">
-        <v>2.278204974508915</v>
+        <v>1.016748989124327</v>
       </c>
       <c r="U7" s="22" t="n">
-        <v>3.536093418259023</v>
+        <v>1.020683858748934</v>
       </c>
       <c r="V7" s="22" t="n">
-        <v>1.069173215249791</v>
+        <v>1.066853889416612</v>
       </c>
     </row>
     <row r="8">
@@ -7087,62 +7087,62 @@
         <v/>
       </c>
       <c r="B8" s="34" t="n">
-        <v>0.698500056640195</v>
+        <v>0.4030719613610065</v>
       </c>
       <c r="C8" s="34" t="n">
-        <v>0.6767497201781122</v>
+        <v>0.3930432733628765</v>
       </c>
       <c r="D8" s="34" t="n">
-        <v>0.9079700722536166</v>
+        <v>0.2379144081810812</v>
       </c>
       <c r="E8" s="34" t="n">
-        <v>0.753695642317208</v>
+        <v>0.9116355921056233</v>
       </c>
       <c r="F8" s="34" t="n">
-        <v>0.7253753631097656</v>
+        <v>0.05422982944678972</v>
       </c>
       <c r="G8" s="34" t="n">
-        <v>0.705914474875426</v>
+        <v>0.04003431680480918</v>
       </c>
       <c r="H8" s="34" t="n">
-        <v>0.8868324496735974</v>
+        <v>0.006536042512185663</v>
       </c>
       <c r="I8" s="34" t="n">
-        <v>0.8225920496739271</v>
+        <v>0.9196957082917848</v>
       </c>
       <c r="J8" s="34" t="n">
-        <v>0.6767497201781122</v>
+        <v>0.3930432733628765</v>
       </c>
       <c r="M8">
         <f>+M7+1</f>
         <v/>
       </c>
       <c r="N8" s="22" t="n">
-        <v>1.025148006708819</v>
+        <v>1.072886702951498</v>
       </c>
       <c r="O8" s="22" t="n">
-        <v>1.033793942306717</v>
+        <v>1.062130478788855</v>
       </c>
       <c r="P8" s="22" t="n">
-        <v>1.002258310591134</v>
+        <v>1.138864869258691</v>
       </c>
       <c r="Q8" s="22" t="n">
-        <v>1.011465884054559</v>
+        <v>1.008981486185723</v>
       </c>
       <c r="R8" s="22" t="n">
-        <v>1.060641151482858</v>
+        <v>1.201180661148463</v>
       </c>
       <c r="S8" s="22" t="n">
-        <v>1.077236683102747</v>
+        <v>1.212457302965189</v>
       </c>
       <c r="T8" s="22" t="n">
-        <v>1.009376098881894</v>
+        <v>1.415538507048484</v>
       </c>
       <c r="U8" s="22" t="n">
-        <v>1.012894501751088</v>
+        <v>1.008417431007215</v>
       </c>
       <c r="V8" s="22" t="n">
-        <v>1.033793942306717</v>
+        <v>1.062130478788855</v>
       </c>
     </row>
     <row r="9">
@@ -7151,62 +7151,62 @@
         <v/>
       </c>
       <c r="B9" s="34" t="n">
-        <v>0.716065940750693</v>
+        <v>0.432450547676804</v>
       </c>
       <c r="C9" s="34" t="n">
-        <v>0.6996197611778983</v>
+        <v>0.417463240121651</v>
       </c>
       <c r="D9" s="34" t="n">
-        <v>0.9100205506842198</v>
+        <v>0.2709523613679058</v>
       </c>
       <c r="E9" s="34" t="n">
-        <v>0.7623374291644431</v>
+        <v>0.9198234345825331</v>
       </c>
       <c r="F9" s="34" t="n">
-        <v>0.7693629603860382</v>
+        <v>0.06513982238886325</v>
       </c>
       <c r="G9" s="34" t="n">
-        <v>0.7604369674690213</v>
+        <v>0.04853989977921287</v>
       </c>
       <c r="H9" s="34" t="n">
-        <v>0.8951474784134094</v>
+        <v>0.009252019859704714</v>
       </c>
       <c r="I9" s="34" t="n">
-        <v>0.8331989642988787</v>
+        <v>0.9274371834639624</v>
       </c>
       <c r="J9" s="34" t="n">
-        <v>0.6996197611778983</v>
+        <v>0.417463240121651</v>
       </c>
       <c r="M9">
         <f>+M8+1</f>
         <v/>
       </c>
       <c r="N9" s="22" t="n">
-        <v>1.011521215675787</v>
+        <v>1.139462581605981</v>
       </c>
       <c r="O9" s="22" t="n">
-        <v>1.029820496907917</v>
+        <v>1.159440826750094</v>
       </c>
       <c r="P9" s="22" t="n">
-        <v>1.039271910485124</v>
+        <v>1.283436956072496</v>
       </c>
       <c r="Q9" s="22" t="n">
         <v>1</v>
       </c>
       <c r="R9" s="22" t="n">
-        <v>1.009023683859638</v>
+        <v>2.443426844143255</v>
       </c>
       <c r="S9" s="22" t="n">
-        <v>1.01199287753648</v>
+        <v>2.924002550583173</v>
       </c>
       <c r="T9" s="22" t="n">
-        <v>1.011298338690959</v>
+        <v>4.82578567394722</v>
       </c>
       <c r="U9" s="22" t="n">
         <v>1</v>
       </c>
       <c r="V9" s="22" t="n">
-        <v>1.029820496907917</v>
+        <v>1.159440826750094</v>
       </c>
     </row>
     <row r="10">
@@ -7215,62 +7215,62 @@
         <v/>
       </c>
       <c r="B10" s="34" t="n">
-        <v>0.7243158908921669</v>
+        <v>0.4927612174727315</v>
       </c>
       <c r="C10" s="34" t="n">
-        <v>0.720482770102821</v>
+        <v>0.4840239242644199</v>
       </c>
       <c r="D10" s="34" t="n">
-        <v>0.9457587962903141</v>
+        <v>0.3477502739146799</v>
       </c>
       <c r="E10" s="34" t="n">
-        <v>0.7623374291644431</v>
+        <v>0.9198234345825331</v>
       </c>
       <c r="F10" s="34" t="n">
-        <v>0.7763054485138768</v>
+        <v>0.1591643906476722</v>
       </c>
       <c r="G10" s="34" t="n">
-        <v>0.7695567948940898</v>
+        <v>0.14193079075947</v>
       </c>
       <c r="H10" s="34" t="n">
-        <v>0.9052611578028815</v>
+        <v>0.04464826489403818</v>
       </c>
       <c r="I10" s="34" t="n">
-        <v>0.8331989642988787</v>
+        <v>0.9274371834639624</v>
       </c>
       <c r="J10" s="34" t="n">
-        <v>0.720482770102821</v>
+        <v>0.4840239242644199</v>
       </c>
       <c r="M10">
         <f>+M9+1</f>
         <v/>
       </c>
       <c r="N10" s="22" t="n">
-        <v>1.009883349996266</v>
+        <v>1.080380987062933</v>
       </c>
       <c r="O10" s="22" t="n">
-        <v>1.015183692216935</v>
+        <v>1.088465347673995</v>
       </c>
       <c r="P10" s="22" t="n">
-        <v>1.037434482119415</v>
+        <v>1.148250993370428</v>
       </c>
       <c r="Q10" s="22" t="n">
-        <v>1.281136619220212</v>
+        <v>1.001377866594038</v>
       </c>
       <c r="R10" s="22" t="n">
-        <v>1.035531450526162</v>
+        <v>1.139889759969698</v>
       </c>
       <c r="S10" s="22" t="n">
-        <v>1.044414313157703</v>
+        <v>1.174862199962122</v>
       </c>
       <c r="T10" s="22" t="n">
-        <v>1.087204355371373</v>
+        <v>1.26089577360884</v>
       </c>
       <c r="U10" s="22" t="n">
-        <v>1.174408710742746</v>
+        <v>1.001813203749705</v>
       </c>
       <c r="V10" s="22" t="n">
-        <v>1.015183692216935</v>
+        <v>1.088465347673995</v>
       </c>
     </row>
     <row r="11">
@@ -7279,62 +7279,62 @@
         <v/>
       </c>
       <c r="B11" s="34" t="n">
-        <v>0.7314745583497114</v>
+        <v>0.5323698505195225</v>
       </c>
       <c r="C11" s="34" t="n">
-        <v>0.7314223587316669</v>
+        <v>0.5268432690070034</v>
       </c>
       <c r="D11" s="34" t="n">
-        <v>0.981162787039323</v>
+        <v>0.3993045974673696</v>
       </c>
       <c r="E11" s="34" t="n">
-        <v>0.9766583967047622</v>
+        <v>0.9210908285654575</v>
       </c>
       <c r="F11" s="34" t="n">
-        <v>0.8038887071509379</v>
+        <v>0.1814298590510983</v>
       </c>
       <c r="G11" s="34" t="n">
-        <v>0.8037361313751539</v>
+        <v>0.1667491210740346</v>
       </c>
       <c r="H11" s="34" t="n">
-        <v>0.9842038735118249</v>
+        <v>0.05629680850386067</v>
       </c>
       <c r="I11" s="34" t="n">
-        <v>0.9785161214544377</v>
+        <v>0.9291188160426356</v>
       </c>
       <c r="J11" s="34" t="n">
-        <v>0.7314223587316669</v>
+        <v>0.5268432690070034</v>
       </c>
       <c r="M11">
         <f>+M10+1</f>
         <v/>
       </c>
       <c r="N11" s="22" t="n">
-        <v>1.000256997338076</v>
+        <v>1.099587577686612</v>
       </c>
       <c r="O11" s="22" t="n">
-        <v>1.000328382950758</v>
+        <v>1.107121486709597</v>
       </c>
       <c r="P11" s="22" t="n">
-        <v>1.00028738633377</v>
+        <v>1.249961728913851</v>
       </c>
       <c r="Q11" s="22" t="n">
-        <v>1.00035747528795</v>
+        <v>1.018934791036097</v>
       </c>
       <c r="R11" s="22" t="n">
-        <v>1.001140297804042</v>
+        <v>1.612498470636575</v>
       </c>
       <c r="S11" s="22" t="n">
-        <v>1.001330347438049</v>
+        <v>1.714581549076004</v>
       </c>
       <c r="T11" s="22" t="n">
-        <v>1.000477059242223</v>
+        <v>2.42650240327591</v>
       </c>
       <c r="U11" s="22" t="n">
-        <v>1.000954118484445</v>
+        <v>1.013087921162494</v>
       </c>
       <c r="V11" s="22" t="n">
-        <v>1.000328382950758</v>
+        <v>1.107121486709597</v>
       </c>
     </row>
     <row r="12">
@@ -7343,62 +7343,62 @@
         <v/>
       </c>
       <c r="B12" s="34" t="n">
-        <v>0.7316625453640778</v>
+        <v>0.5853872743661453</v>
       </c>
       <c r="C12" s="34" t="n">
-        <v>0.7316625453640778</v>
+        <v>0.5832795032459778</v>
       </c>
       <c r="D12" s="34" t="n">
-        <v>0.9814447598155218</v>
+        <v>0.4991154650135629</v>
       </c>
       <c r="E12" s="34" t="n">
-        <v>0.9770075279463533</v>
+        <v>0.9385314909296101</v>
       </c>
       <c r="F12" s="34" t="n">
-        <v>0.8048053796783963</v>
+        <v>0.2925553702477055</v>
       </c>
       <c r="G12" s="34" t="n">
-        <v>0.8048053796783963</v>
+        <v>0.2859049663181805</v>
       </c>
       <c r="H12" s="34" t="n">
-        <v>0.9846733970659151</v>
+        <v>0.1366043411313816</v>
       </c>
       <c r="I12" s="34" t="n">
-        <v>0.9794497417732451</v>
+        <v>0.941279049857591</v>
       </c>
       <c r="J12" s="34" t="n">
-        <v>0.7316625453640778</v>
+        <v>0.5832795032459778</v>
       </c>
       <c r="M12">
         <f>+M11+1</f>
         <v/>
       </c>
       <c r="N12" s="22" t="n">
-        <v>1</v>
+        <v>1.092419786025887</v>
       </c>
       <c r="O12" s="22" t="n">
-        <v>1</v>
+        <v>1.096367414672652</v>
       </c>
       <c r="P12" s="22" t="n">
-        <v>1</v>
+        <v>1.197915320281792</v>
       </c>
       <c r="Q12" s="22" t="n">
-        <v>1</v>
+        <v>1.002731085786641</v>
       </c>
       <c r="R12" s="22" t="n">
-        <v>1</v>
+        <v>1.387213978711208</v>
       </c>
       <c r="S12" s="22" t="n">
-        <v>1</v>
+        <v>1.419481810270475</v>
       </c>
       <c r="T12" s="22" t="n">
-        <v>1</v>
+        <v>1.838963620540951</v>
       </c>
       <c r="U12" s="22" t="n">
-        <v>1</v>
+        <v>1.002597398687527</v>
       </c>
       <c r="V12" s="22" t="n">
-        <v>1</v>
+        <v>1.096367414672652</v>
       </c>
     </row>
     <row r="13">
@@ -7407,62 +7407,62 @@
         <v/>
       </c>
       <c r="B13" s="34" t="n">
-        <v>0.7316625453640778</v>
+        <v>0.6394886410053415</v>
       </c>
       <c r="C13" s="34" t="n">
-        <v>0.7316625453640778</v>
+        <v>0.6394886410053415</v>
       </c>
       <c r="D13" s="34" t="n">
-        <v>0.9814447598155218</v>
+        <v>0.5978980621293175</v>
       </c>
       <c r="E13" s="34" t="n">
-        <v>0.9770075279463533</v>
+        <v>0.9410947009448031</v>
       </c>
       <c r="F13" s="34" t="n">
-        <v>0.8048053796783963</v>
+        <v>0.4058368991546501</v>
       </c>
       <c r="G13" s="34" t="n">
-        <v>0.8048053796783963</v>
+        <v>0.4058368991546501</v>
       </c>
       <c r="H13" s="34" t="n">
-        <v>0.9846733970659151</v>
+        <v>0.2512104137485766</v>
       </c>
       <c r="I13" s="34" t="n">
-        <v>0.9794497417732451</v>
+        <v>0.943723926826288</v>
       </c>
       <c r="J13" s="34" t="n">
-        <v>0.7316625453640778</v>
+        <v>0.6394886410053415</v>
       </c>
       <c r="M13">
         <f>+M12+1</f>
         <v/>
       </c>
       <c r="N13" s="22" t="n">
-        <v>1.371281209188306</v>
+        <v>1.138924966647758</v>
       </c>
       <c r="O13" s="22" t="n">
-        <v>1.371281209188306</v>
+        <v>1.138924966647758</v>
       </c>
       <c r="P13" s="22" t="n">
-        <v>1.001376348952715</v>
+        <v>1.17100462699576</v>
       </c>
       <c r="Q13" s="22" t="n">
-        <v>1.001664189065674</v>
+        <v>1.002639338175688</v>
       </c>
       <c r="R13" s="22" t="n">
-        <v>1.228452799507283</v>
+        <v>1.23019396172803</v>
       </c>
       <c r="S13" s="22" t="n">
-        <v>1.228452799507283</v>
+        <v>1.23019396172803</v>
       </c>
       <c r="T13" s="22" t="n">
-        <v>1.000331717029218</v>
+        <v>1.460387923456061</v>
       </c>
       <c r="U13" s="22" t="n">
-        <v>1.000663434058436</v>
+        <v>1.002880000367611</v>
       </c>
       <c r="V13" s="22" t="n">
-        <v>1.371281209188306</v>
+        <v>1.138924966647758</v>
       </c>
     </row>
     <row r="14">
@@ -7471,62 +7471,62 @@
         <v/>
       </c>
       <c r="B14" s="34" t="n">
-        <v>1.003315099924647</v>
+        <v>0.7283295791286287</v>
       </c>
       <c r="C14" s="34" t="n">
-        <v>1.003315099924647</v>
+        <v>0.7283295791286287</v>
       </c>
       <c r="D14" s="34" t="n">
-        <v>0.9827955702828415</v>
+        <v>0.7001413972252291</v>
       </c>
       <c r="E14" s="34" t="n">
-        <v>0.9786334531914429</v>
+        <v>0.9435785681159442</v>
       </c>
       <c r="F14" s="34" t="n">
-        <v>0.9886654217244475</v>
+        <v>0.4992581027864781</v>
       </c>
       <c r="G14" s="34" t="n">
-        <v>0.9886654217244475</v>
+        <v>0.4992581027864781</v>
       </c>
       <c r="H14" s="34" t="n">
-        <v>0.98500002999994</v>
+        <v>0.3668646544848216</v>
       </c>
       <c r="I14" s="34" t="n">
-        <v>0.9800995420904633</v>
+        <v>0.9464418520824708</v>
       </c>
       <c r="J14" s="34" t="n">
-        <v>1.003315099924647</v>
+        <v>0.7283295791286287</v>
       </c>
       <c r="M14">
         <f>+M13+1</f>
         <v/>
       </c>
       <c r="N14" s="22" t="n">
-        <v>0.9776017688135169</v>
+        <v>1.104306490925456</v>
       </c>
       <c r="O14" s="22" t="n">
-        <v>0.9776017688135169</v>
+        <v>1.104306490925456</v>
       </c>
       <c r="P14" s="22" t="n">
-        <v>1</v>
+        <v>1.124604476478356</v>
       </c>
       <c r="Q14" s="22" t="n">
-        <v>1</v>
+        <v>1.055791599762189</v>
       </c>
       <c r="R14" s="22" t="n">
-        <v>0.9954854559873794</v>
+        <v>1.038932412432321</v>
       </c>
       <c r="S14" s="22" t="n">
-        <v>0.9954854559873794</v>
+        <v>1.038932412432321</v>
       </c>
       <c r="T14" s="22" t="n">
-        <v>1</v>
+        <v>1.071376089459255</v>
       </c>
       <c r="U14" s="22" t="n">
-        <v>1</v>
+        <v>1.053664266348044</v>
       </c>
       <c r="V14" s="22" t="n">
-        <v>0.9776017688135169</v>
+        <v>1.104306490925456</v>
       </c>
     </row>
     <row r="15">
@@ -7535,62 +7535,62 @@
         <v/>
       </c>
       <c r="B15" s="34" t="n">
-        <v>0.9808426163636448</v>
+        <v>0.8042990817647501</v>
       </c>
       <c r="C15" s="34" t="n">
-        <v>0.9808426163636448</v>
+        <v>0.8042990817647501</v>
       </c>
       <c r="D15" s="34" t="n">
-        <v>0.9827955702828415</v>
+        <v>0.7873821494873033</v>
       </c>
       <c r="E15" s="34" t="n">
-        <v>0.9786334531914429</v>
+        <v>0.996222325932448</v>
       </c>
       <c r="F15" s="34" t="n">
-        <v>0.9842020481643162</v>
+        <v>0.5186954251543393</v>
       </c>
       <c r="G15" s="34" t="n">
-        <v>0.9842020481643162</v>
+        <v>0.5186954251543393</v>
       </c>
       <c r="H15" s="34" t="n">
-        <v>0.98500002999994</v>
+        <v>0.3930500188827688</v>
       </c>
       <c r="I15" s="34" t="n">
-        <v>0.9800995420904633</v>
+        <v>0.9972319597155607</v>
       </c>
       <c r="J15" s="34" t="n">
-        <v>0.9808426163636448</v>
+        <v>0.8042990817647501</v>
       </c>
       <c r="M15">
         <f>+M14+1</f>
         <v/>
       </c>
       <c r="N15" s="22" t="n">
-        <v>1.001888518349692</v>
+        <v>1.04657508457691</v>
       </c>
       <c r="O15" s="22" t="n">
-        <v>1.001888518349692</v>
+        <v>1.04657508457691</v>
       </c>
       <c r="P15" s="22" t="n">
-        <v>1</v>
+        <v>1.052947264212579</v>
       </c>
       <c r="Q15" s="22" t="n">
-        <v>1</v>
+        <v>1.003791999003853</v>
       </c>
       <c r="R15" s="22" t="n">
-        <v>1.000448207776279</v>
+        <v>1.206806228043125</v>
       </c>
       <c r="S15" s="22" t="n">
-        <v>1.000448207776279</v>
+        <v>1.206806228043125</v>
       </c>
       <c r="T15" s="22" t="n">
-        <v>1</v>
+        <v>1.344677046738541</v>
       </c>
       <c r="U15" s="22" t="n">
-        <v>1</v>
+        <v>1.00277572359918</v>
       </c>
       <c r="V15" s="22" t="n">
-        <v>1.001888518349692</v>
+        <v>1.04657508457691</v>
       </c>
     </row>
     <row r="16">
@@ -7599,62 +7599,62 @@
         <v/>
       </c>
       <c r="B16" s="34" t="n">
-        <v>0.9826949556428071</v>
+        <v>0.8417593795230742</v>
       </c>
       <c r="C16" s="34" t="n">
-        <v>0.9826949556428071</v>
+        <v>0.8417593795230742</v>
       </c>
       <c r="D16" s="34" t="n">
-        <v>0.9827955702828415</v>
+        <v>0.8290718801924764</v>
       </c>
       <c r="E16" s="34" t="n">
-        <v>0.9786334531914429</v>
+        <v>1</v>
       </c>
       <c r="F16" s="34" t="n">
-        <v>0.9846431751757334</v>
+        <v>0.625964869533733</v>
       </c>
       <c r="G16" s="34" t="n">
-        <v>0.9846431751757334</v>
+        <v>0.625964869533733</v>
       </c>
       <c r="H16" s="34" t="n">
-        <v>0.98500002999994</v>
+        <v>0.5285253386118094</v>
       </c>
       <c r="I16" s="34" t="n">
-        <v>0.9800995420904633</v>
+        <v>1</v>
       </c>
       <c r="J16" s="34" t="n">
-        <v>0.9826949556428071</v>
+        <v>0.8417593795230742</v>
       </c>
       <c r="M16">
         <f>+M15+1</f>
         <v/>
       </c>
       <c r="N16" s="22" t="n">
-        <v>1.000084060829779</v>
+        <v>1.117878665951254</v>
       </c>
       <c r="O16" s="22" t="n">
-        <v>1.000084060829779</v>
+        <v>1.117878665951254</v>
       </c>
       <c r="P16" s="22" t="n">
-        <v>1</v>
+        <v>1.130027891974435</v>
       </c>
       <c r="Q16" s="22" t="n">
         <v>1</v>
       </c>
       <c r="R16" s="22" t="n">
-        <v>1.000349676199839</v>
+        <v>1.296742879122742</v>
       </c>
       <c r="S16" s="22" t="n">
-        <v>1.000349676199839</v>
+        <v>1.296742879122742</v>
       </c>
       <c r="T16" s="22" t="n">
-        <v>1</v>
+        <v>1.445114318684113</v>
       </c>
       <c r="U16" s="22" t="n">
         <v>1</v>
       </c>
       <c r="V16" s="22" t="n">
-        <v>1.000084060829779</v>
+        <v>1.117878665951254</v>
       </c>
     </row>
     <row r="17">
@@ -7663,62 +7663,62 @@
         <v/>
       </c>
       <c r="B17" s="34" t="n">
-        <v>0.982777561796198</v>
+        <v>0.9409848522332095</v>
       </c>
       <c r="C17" s="34" t="n">
-        <v>0.982777561796198</v>
+        <v>0.9409848522332095</v>
       </c>
       <c r="D17" s="34" t="n">
-        <v>0.9827955702828415</v>
+        <v>0.9368743490691854</v>
       </c>
       <c r="E17" s="34" t="n">
-        <v>0.9786334531914429</v>
+        <v>1</v>
       </c>
       <c r="F17" s="34" t="n">
-        <v>0.9849874814594263</v>
+        <v>0.8117154871488644</v>
       </c>
       <c r="G17" s="34" t="n">
-        <v>0.9849874814594263</v>
+        <v>0.8117154871488644</v>
       </c>
       <c r="H17" s="34" t="n">
-        <v>0.98500002999994</v>
+        <v>0.763779534615295</v>
       </c>
       <c r="I17" s="34" t="n">
-        <v>0.9800995420904633</v>
+        <v>1</v>
       </c>
       <c r="J17" s="34" t="n">
-        <v>0.982777561796198</v>
+        <v>0.9409848522332095</v>
       </c>
       <c r="M17">
         <f>+M16+1</f>
         <v/>
       </c>
       <c r="N17" s="22" t="n">
-        <v>1.000018324071838</v>
+        <v>1.062716363208963</v>
       </c>
       <c r="O17" s="22" t="n">
-        <v>1.000018324071838</v>
+        <v>1.062716363208963</v>
       </c>
       <c r="P17" s="22" t="n">
-        <v>1</v>
+        <v>1.067378993771718</v>
       </c>
       <c r="Q17" s="22" t="n">
         <v>1</v>
       </c>
       <c r="R17" s="22" t="n">
-        <v>1.000012739796952</v>
+        <v>1.231958753814691</v>
       </c>
       <c r="S17" s="22" t="n">
-        <v>1.000012739796952</v>
+        <v>1.231958753814691</v>
       </c>
       <c r="T17" s="22" t="n">
-        <v>1</v>
+        <v>1.309278338419589</v>
       </c>
       <c r="U17" s="22" t="n">
         <v>1</v>
       </c>
       <c r="V17" s="22" t="n">
-        <v>1.000018324071838</v>
+        <v>1.062716363208963</v>
       </c>
     </row>
     <row r="18">
@@ -7727,31 +7727,31 @@
         <v/>
       </c>
       <c r="B18" s="34" t="n">
-        <v>0.9827955702828415</v>
+        <v>1</v>
       </c>
       <c r="C18" s="34" t="n">
-        <v>0.9827955702828415</v>
+        <v>1</v>
       </c>
       <c r="D18" s="34" t="n">
-        <v>0.9827955702828415</v>
+        <v>1</v>
       </c>
       <c r="E18" s="34" t="n">
-        <v>0.9786334531914429</v>
+        <v>1</v>
       </c>
       <c r="F18" s="34" t="n">
-        <v>0.98500002999994</v>
+        <v>1</v>
       </c>
       <c r="G18" s="34" t="n">
-        <v>0.98500002999994</v>
+        <v>1</v>
       </c>
       <c r="H18" s="34" t="n">
-        <v>0.98500002999994</v>
+        <v>1</v>
       </c>
       <c r="I18" s="34" t="n">
-        <v>0.9800995420904633</v>
+        <v>1</v>
       </c>
       <c r="J18" s="34" t="n">
-        <v>0.9827955702828415</v>
+        <v>1</v>
       </c>
       <c r="M18">
         <f>+M17+1</f>
@@ -7791,31 +7791,31 @@
         <v/>
       </c>
       <c r="B19" s="34" t="n">
-        <v>0.9827955702828415</v>
+        <v>1</v>
       </c>
       <c r="C19" s="34" t="n">
-        <v>0.9827955702828415</v>
+        <v>1</v>
       </c>
       <c r="D19" s="34" t="n">
-        <v>0.9827955702828415</v>
+        <v>1</v>
       </c>
       <c r="E19" s="34" t="n">
-        <v>0.9786334531914429</v>
+        <v>1</v>
       </c>
       <c r="F19" s="34" t="n">
-        <v>0.98500002999994</v>
+        <v>1</v>
       </c>
       <c r="G19" s="34" t="n">
-        <v>0.98500002999994</v>
+        <v>1</v>
       </c>
       <c r="H19" s="34" t="n">
-        <v>0.98500002999994</v>
+        <v>1</v>
       </c>
       <c r="I19" s="34" t="n">
-        <v>0.9800995420904633</v>
+        <v>1</v>
       </c>
       <c r="J19" s="34" t="n">
-        <v>0.9827955702828415</v>
+        <v>1</v>
       </c>
       <c r="M19">
         <f>+M18+1</f>
@@ -7855,31 +7855,31 @@
         <v/>
       </c>
       <c r="B20" s="34" t="n">
-        <v>0.9827955702828415</v>
+        <v>1</v>
       </c>
       <c r="C20" s="34" t="n">
-        <v>0.9827955702828415</v>
+        <v>1</v>
       </c>
       <c r="D20" s="34" t="n">
-        <v>0.9827955702828415</v>
+        <v>1</v>
       </c>
       <c r="E20" s="34" t="n">
-        <v>0.9786334531914429</v>
+        <v>1</v>
       </c>
       <c r="F20" s="34" t="n">
-        <v>0.98500002999994</v>
+        <v>1</v>
       </c>
       <c r="G20" s="34" t="n">
-        <v>0.98500002999994</v>
+        <v>1</v>
       </c>
       <c r="H20" s="34" t="n">
-        <v>0.98500002999994</v>
+        <v>1</v>
       </c>
       <c r="I20" s="34" t="n">
-        <v>0.9800995420904633</v>
+        <v>1</v>
       </c>
       <c r="J20" s="34" t="n">
-        <v>0.9827955702828415</v>
+        <v>1</v>
       </c>
       <c r="M20">
         <f>+M19+1</f>
@@ -7919,62 +7919,62 @@
         <v/>
       </c>
       <c r="B21" s="34" t="n">
-        <v>0.9827955702828415</v>
+        <v>1</v>
       </c>
       <c r="C21" s="34" t="n">
-        <v>0.9827955702828415</v>
+        <v>1</v>
       </c>
       <c r="D21" s="34" t="n">
-        <v>0.9827955702828415</v>
+        <v>1</v>
       </c>
       <c r="E21" s="34" t="n">
-        <v>0.9786334531914429</v>
+        <v>1</v>
       </c>
       <c r="F21" s="34" t="n">
-        <v>0.98500002999994</v>
+        <v>1</v>
       </c>
       <c r="G21" s="34" t="n">
-        <v>0.98500002999994</v>
+        <v>1</v>
       </c>
       <c r="H21" s="34" t="n">
-        <v>0.98500002999994</v>
+        <v>1</v>
       </c>
       <c r="I21" s="34" t="n">
-        <v>0.9800995420904633</v>
+        <v>1</v>
       </c>
       <c r="J21" s="34" t="n">
-        <v>0.9827955702828415</v>
+        <v>1</v>
       </c>
       <c r="M21">
         <f>+M20+1</f>
         <v/>
       </c>
       <c r="N21" s="22" t="n">
-        <v>1.017505603644721</v>
+        <v>1</v>
       </c>
       <c r="O21" s="22" t="n">
-        <v>1.017505603644721</v>
+        <v>1</v>
       </c>
       <c r="P21" s="22" t="n">
-        <v>1.017505603644721</v>
+        <v>1</v>
       </c>
       <c r="Q21" s="22" t="n">
-        <v>1.021833043555662</v>
+        <v>1</v>
       </c>
       <c r="R21" s="22" t="n">
-        <v>1.015228395475339</v>
+        <v>1</v>
       </c>
       <c r="S21" s="22" t="n">
-        <v>1.015228395475339</v>
+        <v>1</v>
       </c>
       <c r="T21" s="22" t="n">
-        <v>1.015228395475339</v>
+        <v>1</v>
       </c>
       <c r="U21" s="22" t="n">
-        <v>1.020304527300452</v>
+        <v>1</v>
       </c>
       <c r="V21" s="22" t="n">
-        <v>1.017505603644721</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
@@ -8234,7 +8234,7 @@
         </is>
       </c>
       <c r="H4" s="8" t="n">
-        <v>45657</v>
+        <v>45808</v>
       </c>
       <c r="J4" s="40" t="inlineStr">
         <is>
@@ -8558,7 +8558,7 @@
         <v/>
       </c>
       <c r="B8" s="14" t="n">
-        <v>29438.32</v>
+        <v>3502.11</v>
       </c>
       <c r="C8" s="14">
         <f>+'Completion Factors'!J30</f>
@@ -8582,7 +8582,7 @@
         <v/>
       </c>
       <c r="I8" s="14" t="n">
-        <v>27160.43333333333</v>
+        <v>24313.24166666667</v>
       </c>
       <c r="J8" s="14">
         <f>100*$G8/$I8</f>
@@ -8605,76 +8605,76 @@
         <v/>
       </c>
       <c r="S8" s="22" t="n">
-        <v>156.05</v>
+        <v>71.86</v>
       </c>
       <c r="T8" s="22" t="n">
-        <v>2436.23</v>
+        <v>901.8700000000001</v>
       </c>
       <c r="U8" s="22" t="n">
-        <v>3897.5</v>
+        <v>991.0100000000001</v>
       </c>
       <c r="V8" s="22" t="n">
-        <v>11492.14</v>
+        <v>1001.01</v>
       </c>
       <c r="W8" s="22" t="n">
-        <v>14923.59</v>
+        <v>1001.01</v>
       </c>
       <c r="X8" s="22" t="n">
-        <v>28807.9</v>
+        <v>1886.01</v>
       </c>
       <c r="Y8" s="22" t="n">
-        <v>28835.32</v>
+        <v>1886.01</v>
       </c>
       <c r="Z8" s="22" t="n">
-        <v>29335.32</v>
+        <v>3502.11</v>
       </c>
       <c r="AA8" s="22" t="n">
-        <v>29335.32</v>
+        <v>3502.11</v>
       </c>
       <c r="AB8" s="22" t="n">
-        <v>29335.32</v>
+        <v>3502.11</v>
       </c>
       <c r="AC8" s="22" t="n">
-        <v>29335.32</v>
+        <v>3502.11</v>
       </c>
       <c r="AD8" s="22" t="n">
-        <v>29335.32</v>
+        <v>3502.11</v>
       </c>
       <c r="AE8" s="22" t="n">
-        <v>29335.32</v>
+        <v>3502.11</v>
       </c>
       <c r="AF8" s="22" t="n">
-        <v>29435.32</v>
+        <v>3502.11</v>
       </c>
       <c r="AG8" s="22" t="n">
-        <v>29435.32</v>
+        <v>3502.11</v>
       </c>
       <c r="AH8" s="22" t="n">
-        <v>29435.32</v>
+        <v>3502.11</v>
       </c>
       <c r="AI8" s="22" t="n">
-        <v>29438.32</v>
+        <v>3502.11</v>
       </c>
       <c r="AJ8" s="22" t="n">
-        <v>29438.32</v>
+        <v>3502.11</v>
       </c>
       <c r="AK8" s="22" t="n">
-        <v>29438.32</v>
+        <v>3502.11</v>
       </c>
       <c r="AL8" s="22" t="n">
-        <v>29438.32</v>
+        <v>3502.11</v>
       </c>
       <c r="AM8" s="22" t="n">
-        <v>29438.32</v>
+        <v>3502.11</v>
       </c>
       <c r="AN8" s="22" t="n">
-        <v>29438.32</v>
+        <v>3502.11</v>
       </c>
       <c r="AO8" s="22" t="n">
-        <v>29438.32</v>
+        <v>3502.11</v>
       </c>
       <c r="AP8" s="22" t="n">
-        <v>29438.32</v>
+        <v>3502.11</v>
       </c>
       <c r="AQ8" s="14" t="n"/>
       <c r="AR8" s="14" t="n"/>
@@ -8685,7 +8685,7 @@
         <v/>
       </c>
       <c r="B9" s="14" t="n">
-        <v>4462.559999999999</v>
+        <v>2314.85</v>
       </c>
       <c r="C9" s="14">
         <f>+'Completion Factors'!J29</f>
@@ -8709,7 +8709,7 @@
         <v/>
       </c>
       <c r="I9" s="14" t="n">
-        <v>26614.09</v>
+        <v>24142.31666666667</v>
       </c>
       <c r="J9" s="14">
         <f>100*$G9/$I9</f>
@@ -8732,73 +8732,73 @@
         <v/>
       </c>
       <c r="S9" s="22" t="n">
-        <v>157.49</v>
+        <v>41.02</v>
       </c>
       <c r="T9" s="22" t="n">
-        <v>2655.45</v>
+        <v>565.0799999999999</v>
       </c>
       <c r="U9" s="22" t="n">
-        <v>3104.98</v>
+        <v>847.5699999999999</v>
       </c>
       <c r="V9" s="22" t="n">
-        <v>3493.62</v>
+        <v>867.4299999999999</v>
       </c>
       <c r="W9" s="22" t="n">
-        <v>3510.76</v>
+        <v>2287.43</v>
       </c>
       <c r="X9" s="22" t="n">
-        <v>3520.76</v>
+        <v>2287.43</v>
       </c>
       <c r="Y9" s="22" t="n">
-        <v>4448.559999999999</v>
+        <v>2287.43</v>
       </c>
       <c r="Z9" s="22" t="n">
-        <v>4448.559999999999</v>
+        <v>2314.85</v>
       </c>
       <c r="AA9" s="22" t="n">
-        <v>4448.559999999999</v>
+        <v>2314.85</v>
       </c>
       <c r="AB9" s="22" t="n">
-        <v>4448.559999999999</v>
+        <v>2314.85</v>
       </c>
       <c r="AC9" s="22" t="n">
-        <v>4448.559999999999</v>
+        <v>2314.85</v>
       </c>
       <c r="AD9" s="22" t="n">
-        <v>4448.559999999999</v>
+        <v>2314.85</v>
       </c>
       <c r="AE9" s="22" t="n">
-        <v>4448.559999999999</v>
+        <v>2314.85</v>
       </c>
       <c r="AF9" s="22" t="n">
-        <v>4448.559999999999</v>
+        <v>2314.85</v>
       </c>
       <c r="AG9" s="22" t="n">
-        <v>4448.559999999999</v>
+        <v>2314.85</v>
       </c>
       <c r="AH9" s="22" t="n">
-        <v>4462.559999999999</v>
+        <v>2314.85</v>
       </c>
       <c r="AI9" s="22" t="n">
-        <v>4462.559999999999</v>
+        <v>2314.85</v>
       </c>
       <c r="AJ9" s="22" t="n">
-        <v>4462.559999999999</v>
+        <v>2314.85</v>
       </c>
       <c r="AK9" s="22" t="n">
-        <v>4462.559999999999</v>
+        <v>2314.85</v>
       </c>
       <c r="AL9" s="22" t="n">
-        <v>4462.559999999999</v>
+        <v>2314.85</v>
       </c>
       <c r="AM9" s="22" t="n">
-        <v>4462.559999999999</v>
+        <v>2314.85</v>
       </c>
       <c r="AN9" s="22" t="n">
-        <v>4462.559999999999</v>
+        <v>2314.85</v>
       </c>
       <c r="AO9" s="22" t="n">
-        <v>4462.559999999999</v>
+        <v>2314.85</v>
       </c>
       <c r="AP9" s="22" t="n">
         <v/>
@@ -8812,7 +8812,7 @@
         <v/>
       </c>
       <c r="B10" s="14" t="n">
-        <v>71939.56999999999</v>
+        <v>2120.26</v>
       </c>
       <c r="C10" s="14">
         <f>+'Completion Factors'!J28</f>
@@ -8836,7 +8836,7 @@
         <v/>
       </c>
       <c r="I10" s="14" t="n">
-        <v>25974.00583333333</v>
+        <v>23964.32166666667</v>
       </c>
       <c r="J10" s="14">
         <f>100*$G10/$I10</f>
@@ -8859,70 +8859,70 @@
         <v/>
       </c>
       <c r="S10" s="22" t="n">
-        <v>259.31</v>
+        <v>224.75</v>
       </c>
       <c r="T10" s="22" t="n">
-        <v>3528.58</v>
+        <v>838.9400000000001</v>
       </c>
       <c r="U10" s="22" t="n">
-        <v>5504.98</v>
+        <v>884.35</v>
       </c>
       <c r="V10" s="22" t="n">
-        <v>8851.4</v>
+        <v>964.35</v>
       </c>
       <c r="W10" s="22" t="n">
-        <v>8921.539999999999</v>
+        <v>1164.35</v>
       </c>
       <c r="X10" s="22" t="n">
-        <v>10630.94</v>
+        <v>2092.84</v>
       </c>
       <c r="Y10" s="22" t="n">
-        <v>18635.94</v>
+        <v>2092.84</v>
       </c>
       <c r="Z10" s="22" t="n">
-        <v>20252.04</v>
+        <v>2092.84</v>
       </c>
       <c r="AA10" s="22" t="n">
-        <v>20252.04</v>
+        <v>2092.84</v>
       </c>
       <c r="AB10" s="22" t="n">
-        <v>20252.04</v>
+        <v>2092.84</v>
       </c>
       <c r="AC10" s="22" t="n">
-        <v>20252.04</v>
+        <v>2120.26</v>
       </c>
       <c r="AD10" s="22" t="n">
-        <v>20252.04</v>
+        <v>2120.26</v>
       </c>
       <c r="AE10" s="22" t="n">
-        <v>75686.62999999999</v>
+        <v>2120.26</v>
       </c>
       <c r="AF10" s="22" t="n">
-        <v>71618.56999999999</v>
+        <v>2120.26</v>
       </c>
       <c r="AG10" s="22" t="n">
-        <v>71939.56999999999</v>
+        <v>2120.26</v>
       </c>
       <c r="AH10" s="22" t="n">
-        <v>71939.56999999999</v>
+        <v>2120.26</v>
       </c>
       <c r="AI10" s="22" t="n">
-        <v>71939.56999999999</v>
+        <v>2120.26</v>
       </c>
       <c r="AJ10" s="22" t="n">
-        <v>71939.56999999999</v>
+        <v>2120.26</v>
       </c>
       <c r="AK10" s="22" t="n">
-        <v>71939.56999999999</v>
+        <v>2120.26</v>
       </c>
       <c r="AL10" s="22" t="n">
-        <v>71939.56999999999</v>
+        <v>2120.26</v>
       </c>
       <c r="AM10" s="22" t="n">
-        <v>71939.56999999999</v>
+        <v>2120.26</v>
       </c>
       <c r="AN10" s="22" t="n">
-        <v>71939.56999999999</v>
+        <v>2120.26</v>
       </c>
       <c r="AO10" s="22" t="n">
         <v/>
@@ -8939,7 +8939,7 @@
         <v/>
       </c>
       <c r="B11" s="14" t="n">
-        <v>45283.42000000001</v>
+        <v>8112.929999999999</v>
       </c>
       <c r="C11" s="14">
         <f>+'Completion Factors'!J27</f>
@@ -8963,7 +8963,7 @@
         <v/>
       </c>
       <c r="I11" s="14" t="n">
-        <v>25374.62833333333</v>
+        <v>23798.84</v>
       </c>
       <c r="J11" s="14">
         <f>100*$G11/$I11</f>
@@ -8986,67 +8986,67 @@
         <v/>
       </c>
       <c r="S11" s="22" t="n">
-        <v>93.94</v>
+        <v>78.02000000000001</v>
       </c>
       <c r="T11" s="22" t="n">
-        <v>2185.95</v>
+        <v>1138.38</v>
       </c>
       <c r="U11" s="22" t="n">
-        <v>3170.46</v>
+        <v>1138.38</v>
       </c>
       <c r="V11" s="22" t="n">
-        <v>3190.46</v>
+        <v>1177</v>
       </c>
       <c r="W11" s="22" t="n">
-        <v>5881.220000000001</v>
+        <v>1194.57</v>
       </c>
       <c r="X11" s="22" t="n">
-        <v>5881.220000000001</v>
+        <v>2794.57</v>
       </c>
       <c r="Y11" s="22" t="n">
-        <v>42634.62</v>
+        <v>2794.57</v>
       </c>
       <c r="Z11" s="22" t="n">
-        <v>42634.62</v>
+        <v>2794.57</v>
       </c>
       <c r="AA11" s="22" t="n">
-        <v>42654.42000000001</v>
+        <v>2813.57</v>
       </c>
       <c r="AB11" s="22" t="n">
-        <v>42654.42000000001</v>
+        <v>2840.99</v>
       </c>
       <c r="AC11" s="22" t="n">
-        <v>42654.42000000001</v>
+        <v>2840.99</v>
       </c>
       <c r="AD11" s="22" t="n">
-        <v>42654.42000000001</v>
+        <v>2840.99</v>
       </c>
       <c r="AE11" s="22" t="n">
-        <v>42654.42000000001</v>
+        <v>2840.99</v>
       </c>
       <c r="AF11" s="22" t="n">
-        <v>42683.42000000001</v>
+        <v>2840.99</v>
       </c>
       <c r="AG11" s="22" t="n">
-        <v>42683.42000000001</v>
+        <v>2840.99</v>
       </c>
       <c r="AH11" s="22" t="n">
-        <v>42683.42000000001</v>
+        <v>2840.99</v>
       </c>
       <c r="AI11" s="22" t="n">
-        <v>42683.42000000001</v>
+        <v>8112.929999999999</v>
       </c>
       <c r="AJ11" s="22" t="n">
-        <v>42683.42000000001</v>
+        <v>8112.929999999999</v>
       </c>
       <c r="AK11" s="22" t="n">
-        <v>42683.42000000001</v>
+        <v>8112.929999999999</v>
       </c>
       <c r="AL11" s="22" t="n">
-        <v>42683.42000000001</v>
+        <v>8112.929999999999</v>
       </c>
       <c r="AM11" s="22" t="n">
-        <v>45283.42000000001</v>
+        <v>8112.929999999999</v>
       </c>
       <c r="AN11" s="22" t="n">
         <v/>
@@ -9066,7 +9066,7 @@
         <v/>
       </c>
       <c r="B12" s="14" t="n">
-        <v>7260.98</v>
+        <v>13763.09</v>
       </c>
       <c r="C12" s="14">
         <f>++'Completion Factors'!J26</f>
@@ -9090,7 +9090,7 @@
         <v/>
       </c>
       <c r="I12" s="14" t="n">
-        <v>24674.52916666666</v>
+        <v>23172.67083333333</v>
       </c>
       <c r="J12" s="14">
         <f>100*$G12/$I12</f>
@@ -9113,64 +9113,64 @@
         <v/>
       </c>
       <c r="S12" s="22" t="n">
-        <v>662.64</v>
+        <v>78.11</v>
       </c>
       <c r="T12" s="22" t="n">
-        <v>2862.86</v>
+        <v>303.38</v>
       </c>
       <c r="U12" s="22" t="n">
-        <v>3570.92</v>
+        <v>422.01</v>
       </c>
       <c r="V12" s="22" t="n">
-        <v>6625.709999999999</v>
+        <v>512.88</v>
       </c>
       <c r="W12" s="22" t="n">
-        <v>6678.709999999999</v>
+        <v>3512.88</v>
       </c>
       <c r="X12" s="22" t="n">
-        <v>7217.559999999999</v>
+        <v>3512.88</v>
       </c>
       <c r="Y12" s="22" t="n">
-        <v>7217.559999999999</v>
+        <v>3512.88</v>
       </c>
       <c r="Z12" s="22" t="n">
-        <v>7217.559999999999</v>
+        <v>3518.88</v>
       </c>
       <c r="AA12" s="22" t="n">
-        <v>7244.98</v>
+        <v>3749.46</v>
       </c>
       <c r="AB12" s="22" t="n">
-        <v>7244.98</v>
+        <v>3749.46</v>
       </c>
       <c r="AC12" s="22" t="n">
-        <v>7244.98</v>
+        <v>3749.46</v>
       </c>
       <c r="AD12" s="22" t="n">
-        <v>7244.98</v>
+        <v>3749.46</v>
       </c>
       <c r="AE12" s="22" t="n">
-        <v>7260.98</v>
+        <v>3749.46</v>
       </c>
       <c r="AF12" s="22" t="n">
-        <v>7260.98</v>
+        <v>3749.46</v>
       </c>
       <c r="AG12" s="22" t="n">
-        <v>7260.98</v>
+        <v>3749.46</v>
       </c>
       <c r="AH12" s="22" t="n">
-        <v>7260.98</v>
+        <v>13763.09</v>
       </c>
       <c r="AI12" s="22" t="n">
-        <v>7260.98</v>
+        <v>13763.09</v>
       </c>
       <c r="AJ12" s="22" t="n">
-        <v>7260.98</v>
+        <v>13763.09</v>
       </c>
       <c r="AK12" s="22" t="n">
-        <v>7260.98</v>
+        <v>13763.09</v>
       </c>
       <c r="AL12" s="22" t="n">
-        <v>7260.98</v>
+        <v>13763.09</v>
       </c>
       <c r="AM12" s="22" t="n">
         <v/>
@@ -9193,7 +9193,7 @@
         <v/>
       </c>
       <c r="B13" s="14" t="n">
-        <v>3502.11</v>
+        <v>5969.31</v>
       </c>
       <c r="C13" s="14">
         <f>++'Completion Factors'!J25</f>
@@ -9217,7 +9217,7 @@
         <v/>
       </c>
       <c r="I13" s="14" t="n">
-        <v>24313.24166666667</v>
+        <v>22582.26416666666</v>
       </c>
       <c r="J13" s="14">
         <f>100*$G13/$I13</f>
@@ -9240,61 +9240,61 @@
         <v/>
       </c>
       <c r="S13" s="22" t="n">
-        <v>71.86</v>
+        <v/>
       </c>
       <c r="T13" s="22" t="n">
-        <v>901.87</v>
+        <v>74.48</v>
       </c>
       <c r="U13" s="22" t="n">
-        <v>991.01</v>
+        <v>1923.78</v>
       </c>
       <c r="V13" s="22" t="n">
-        <v>1001.01</v>
+        <v>1923.78</v>
       </c>
       <c r="W13" s="22" t="n">
-        <v>1001.01</v>
+        <v>1923.78</v>
       </c>
       <c r="X13" s="22" t="n">
-        <v>1886.01</v>
+        <v>1923.78</v>
       </c>
       <c r="Y13" s="22" t="n">
-        <v>1886.01</v>
+        <v>1923.78</v>
       </c>
       <c r="Z13" s="22" t="n">
-        <v>3502.11</v>
+        <v>1923.78</v>
       </c>
       <c r="AA13" s="22" t="n">
-        <v>3502.11</v>
+        <v>1951.2</v>
       </c>
       <c r="AB13" s="22" t="n">
-        <v>3502.11</v>
+        <v>1951.2</v>
       </c>
       <c r="AC13" s="22" t="n">
-        <v>3502.11</v>
+        <v>1951.2</v>
       </c>
       <c r="AD13" s="22" t="n">
-        <v>3502.11</v>
+        <v>1951.2</v>
       </c>
       <c r="AE13" s="22" t="n">
-        <v>3502.11</v>
+        <v>1951.2</v>
       </c>
       <c r="AF13" s="22" t="n">
-        <v>3502.11</v>
+        <v>1951.2</v>
       </c>
       <c r="AG13" s="22" t="n">
-        <v>3502.11</v>
+        <v>5969.31</v>
       </c>
       <c r="AH13" s="22" t="n">
-        <v>3502.11</v>
+        <v>5969.31</v>
       </c>
       <c r="AI13" s="22" t="n">
-        <v>3502.11</v>
+        <v>5969.31</v>
       </c>
       <c r="AJ13" s="22" t="n">
-        <v>3502.11</v>
+        <v>5969.31</v>
       </c>
       <c r="AK13" s="22" t="n">
-        <v>3502.11</v>
+        <v>5969.31</v>
       </c>
       <c r="AL13" s="22" t="n">
         <v/>
@@ -9320,7 +9320,7 @@
         <v/>
       </c>
       <c r="B14" s="14" t="n">
-        <v>2314.85</v>
+        <v>36955.42</v>
       </c>
       <c r="C14" s="14">
         <f>++'Completion Factors'!J24</f>
@@ -9344,7 +9344,7 @@
         <v/>
       </c>
       <c r="I14" s="14" t="n">
-        <v>24142.31666666667</v>
+        <v>22313.55583333333</v>
       </c>
       <c r="J14" s="14">
         <f>100*$G14/$I14</f>
@@ -9367,58 +9367,58 @@
         <v/>
       </c>
       <c r="S14" s="22" t="n">
-        <v>41.02</v>
+        <v/>
       </c>
       <c r="T14" s="22" t="n">
-        <v>565.0799999999999</v>
+        <v>399.96</v>
       </c>
       <c r="U14" s="22" t="n">
-        <v>847.5699999999999</v>
+        <v>27418.06</v>
       </c>
       <c r="V14" s="22" t="n">
-        <v>867.4299999999999</v>
+        <v>27418.06</v>
       </c>
       <c r="W14" s="22" t="n">
-        <v>2287.43</v>
+        <v>27418.06</v>
       </c>
       <c r="X14" s="22" t="n">
-        <v>2287.43</v>
+        <v>27421.06</v>
       </c>
       <c r="Y14" s="22" t="n">
-        <v>2287.43</v>
+        <v>27611.08</v>
       </c>
       <c r="Z14" s="22" t="n">
-        <v>2314.85</v>
+        <v>27612.76</v>
       </c>
       <c r="AA14" s="22" t="n">
-        <v>2314.85</v>
+        <v>29091.06</v>
       </c>
       <c r="AB14" s="22" t="n">
-        <v>2314.85</v>
+        <v>29091.06</v>
       </c>
       <c r="AC14" s="22" t="n">
-        <v>2314.85</v>
+        <v>29091.06</v>
       </c>
       <c r="AD14" s="22" t="n">
-        <v>2314.85</v>
+        <v>29091.06</v>
       </c>
       <c r="AE14" s="22" t="n">
-        <v>2314.85</v>
+        <v>29148.96</v>
       </c>
       <c r="AF14" s="22" t="n">
-        <v>2314.85</v>
+        <v>36939.42</v>
       </c>
       <c r="AG14" s="22" t="n">
-        <v>2314.85</v>
+        <v>36955.42</v>
       </c>
       <c r="AH14" s="22" t="n">
-        <v>2314.85</v>
+        <v>36955.42</v>
       </c>
       <c r="AI14" s="22" t="n">
-        <v>2314.85</v>
+        <v>36955.42</v>
       </c>
       <c r="AJ14" s="22" t="n">
-        <v>2314.85</v>
+        <v>36955.42</v>
       </c>
       <c r="AK14" s="22" t="n">
         <v/>
@@ -9447,7 +9447,7 @@
         <v/>
       </c>
       <c r="B15" s="14" t="n">
-        <v>2120.26</v>
+        <v>16594.01</v>
       </c>
       <c r="C15" s="14">
         <f>++'Completion Factors'!J23</f>
@@ -9471,7 +9471,7 @@
         <v/>
       </c>
       <c r="I15" s="14" t="n">
-        <v>23964.32166666667</v>
+        <v>21819.67916666666</v>
       </c>
       <c r="J15" s="14">
         <f>100*$G15/$I15</f>
@@ -9494,55 +9494,55 @@
         <v/>
       </c>
       <c r="S15" s="22" t="n">
-        <v>224.75</v>
+        <v>100.33</v>
       </c>
       <c r="T15" s="22" t="n">
-        <v>838.9400000000001</v>
+        <v>622.88</v>
       </c>
       <c r="U15" s="22" t="n">
-        <v>884.35</v>
+        <v>822.88</v>
       </c>
       <c r="V15" s="22" t="n">
-        <v>964.35</v>
+        <v>828.9399999999999</v>
       </c>
       <c r="W15" s="22" t="n">
-        <v>1164.35</v>
+        <v>2505.69</v>
       </c>
       <c r="X15" s="22" t="n">
-        <v>2092.84</v>
+        <v>2871.55</v>
       </c>
       <c r="Y15" s="22" t="n">
-        <v>2092.84</v>
+        <v>2871.55</v>
       </c>
       <c r="Z15" s="22" t="n">
-        <v>2092.84</v>
+        <v>2871.55</v>
       </c>
       <c r="AA15" s="22" t="n">
-        <v>2092.84</v>
+        <v>2871.55</v>
       </c>
       <c r="AB15" s="22" t="n">
-        <v>2092.84</v>
+        <v>4374.02</v>
       </c>
       <c r="AC15" s="22" t="n">
-        <v>2120.26</v>
+        <v>4386.540000000001</v>
       </c>
       <c r="AD15" s="22" t="n">
-        <v>2120.26</v>
+        <v>4386.540000000001</v>
       </c>
       <c r="AE15" s="22" t="n">
-        <v>2120.26</v>
+        <v>16456.97</v>
       </c>
       <c r="AF15" s="22" t="n">
-        <v>2120.26</v>
+        <v>16456.97</v>
       </c>
       <c r="AG15" s="22" t="n">
-        <v>2120.26</v>
+        <v>16594.01</v>
       </c>
       <c r="AH15" s="22" t="n">
-        <v>2120.26</v>
+        <v>16594.01</v>
       </c>
       <c r="AI15" s="22" t="n">
-        <v>2120.26</v>
+        <v>16594.01</v>
       </c>
       <c r="AJ15" s="22" t="n">
         <v/>
@@ -9574,7 +9574,7 @@
         <v/>
       </c>
       <c r="B16" s="14" t="n">
-        <v>2840.99</v>
+        <v>10902.21</v>
       </c>
       <c r="C16" s="14">
         <f>++'Completion Factors'!J22</f>
@@ -9598,7 +9598,7 @@
         <v/>
       </c>
       <c r="I16" s="14" t="n">
-        <v>23798.84</v>
+        <v>21537.36666666666</v>
       </c>
       <c r="J16" s="14">
         <f>100*$G16/$I16</f>
@@ -9621,52 +9621,52 @@
         <v/>
       </c>
       <c r="S16" s="22" t="n">
-        <v>78.02000000000001</v>
+        <v>105.41</v>
       </c>
       <c r="T16" s="22" t="n">
-        <v>1138.38</v>
+        <v>105.41</v>
       </c>
       <c r="U16" s="22" t="n">
-        <v>1138.38</v>
+        <v>111.42</v>
       </c>
       <c r="V16" s="22" t="n">
-        <v>1177</v>
+        <v>111.42</v>
       </c>
       <c r="W16" s="22" t="n">
-        <v>1194.57</v>
+        <v>1266.02</v>
       </c>
       <c r="X16" s="22" t="n">
-        <v>2794.57</v>
+        <v>1480.46</v>
       </c>
       <c r="Y16" s="22" t="n">
-        <v>2794.57</v>
+        <v>1531.5</v>
       </c>
       <c r="Z16" s="22" t="n">
-        <v>2794.57</v>
+        <v>1558.32</v>
       </c>
       <c r="AA16" s="22" t="n">
-        <v>2813.57</v>
+        <v>1558.32</v>
       </c>
       <c r="AB16" s="22" t="n">
-        <v>2840.99</v>
+        <v>1558.32</v>
       </c>
       <c r="AC16" s="22" t="n">
-        <v>2840.99</v>
+        <v>1558.32</v>
       </c>
       <c r="AD16" s="22" t="n">
-        <v>2840.99</v>
+        <v>9390.42</v>
       </c>
       <c r="AE16" s="22" t="n">
-        <v>2840.99</v>
+        <v>9390.42</v>
       </c>
       <c r="AF16" s="22" t="n">
-        <v>2840.99</v>
+        <v>10902.21</v>
       </c>
       <c r="AG16" s="22" t="n">
-        <v>2840.99</v>
+        <v>10902.21</v>
       </c>
       <c r="AH16" s="22" t="n">
-        <v>2840.99</v>
+        <v>10902.21</v>
       </c>
       <c r="AI16" s="22" t="n">
         <v/>
@@ -9701,7 +9701,7 @@
         <v/>
       </c>
       <c r="B17" s="14" t="n">
-        <v>3749.46</v>
+        <v>8780.07</v>
       </c>
       <c r="C17" s="14">
         <f>++'Completion Factors'!J21</f>
@@ -9725,7 +9725,7 @@
         <v/>
       </c>
       <c r="I17" s="14" t="n">
-        <v>23172.67083333333</v>
+        <v>21386.11833333334</v>
       </c>
       <c r="J17" s="14">
         <f>100*$G17/$I17</f>
@@ -9748,49 +9748,49 @@
         <v/>
       </c>
       <c r="S17" s="22" t="n">
-        <v>78.11</v>
+        <v/>
       </c>
       <c r="T17" s="22" t="n">
-        <v>303.38</v>
+        <v/>
       </c>
       <c r="U17" s="22" t="n">
-        <v>422.01</v>
+        <v/>
       </c>
       <c r="V17" s="22" t="n">
-        <v>512.88</v>
+        <v>541.9299999999999</v>
       </c>
       <c r="W17" s="22" t="n">
-        <v>3512.88</v>
+        <v>864.25</v>
       </c>
       <c r="X17" s="22" t="n">
-        <v>3512.88</v>
+        <v>864.25</v>
       </c>
       <c r="Y17" s="22" t="n">
-        <v>3512.88</v>
+        <v>887.13</v>
       </c>
       <c r="Z17" s="22" t="n">
-        <v>3518.88</v>
+        <v>914.4</v>
       </c>
       <c r="AA17" s="22" t="n">
-        <v>3749.46</v>
+        <v>914.4</v>
       </c>
       <c r="AB17" s="22" t="n">
-        <v>3749.46</v>
+        <v>914.4</v>
       </c>
       <c r="AC17" s="22" t="n">
-        <v>3749.46</v>
+        <v>8704.860000000001</v>
       </c>
       <c r="AD17" s="22" t="n">
-        <v>3749.46</v>
+        <v>8704.860000000001</v>
       </c>
       <c r="AE17" s="22" t="n">
-        <v>3749.46</v>
+        <v>8780.07</v>
       </c>
       <c r="AF17" s="22" t="n">
-        <v>3749.46</v>
+        <v>8780.07</v>
       </c>
       <c r="AG17" s="22" t="n">
-        <v>3749.46</v>
+        <v>8780.07</v>
       </c>
       <c r="AH17" s="22" t="n">
         <v/>
@@ -9828,7 +9828,7 @@
         <v/>
       </c>
       <c r="B18" s="14" t="n">
-        <v>1951.2</v>
+        <v>8926.6</v>
       </c>
       <c r="C18" s="14">
         <f>++'Completion Factors'!J20</f>
@@ -9852,7 +9852,7 @@
         <v/>
       </c>
       <c r="I18" s="14" t="n">
-        <v>22582.26416666666</v>
+        <v>21237.95833333333</v>
       </c>
       <c r="J18" s="14">
         <f>100*$G18/$I18</f>
@@ -9878,43 +9878,43 @@
         <v/>
       </c>
       <c r="T18" s="22" t="n">
-        <v>74.48</v>
+        <v/>
       </c>
       <c r="U18" s="22" t="n">
-        <v>1923.78</v>
+        <v>361.23</v>
       </c>
       <c r="V18" s="22" t="n">
-        <v>1923.78</v>
+        <v>398.78</v>
       </c>
       <c r="W18" s="22" t="n">
-        <v>1923.78</v>
+        <v>398.78</v>
       </c>
       <c r="X18" s="22" t="n">
-        <v>1923.78</v>
+        <v>398.78</v>
       </c>
       <c r="Y18" s="22" t="n">
-        <v>1923.78</v>
+        <v>3432.81</v>
       </c>
       <c r="Z18" s="22" t="n">
-        <v>1923.78</v>
+        <v>3460.08</v>
       </c>
       <c r="AA18" s="22" t="n">
-        <v>1951.2</v>
+        <v>3460.08</v>
       </c>
       <c r="AB18" s="22" t="n">
-        <v>1951.2</v>
+        <v>8857.58</v>
       </c>
       <c r="AC18" s="22" t="n">
-        <v>1951.2</v>
+        <v>8857.58</v>
       </c>
       <c r="AD18" s="22" t="n">
-        <v>1951.2</v>
+        <v>8926.6</v>
       </c>
       <c r="AE18" s="22" t="n">
-        <v>1951.2</v>
+        <v>8926.6</v>
       </c>
       <c r="AF18" s="22" t="n">
-        <v>1951.2</v>
+        <v>8926.6</v>
       </c>
       <c r="AG18" s="22" t="n">
         <v/>
@@ -9955,7 +9955,7 @@
         <v/>
       </c>
       <c r="B19" s="14" t="n">
-        <v>29148.96</v>
+        <v>10864.32</v>
       </c>
       <c r="C19" s="14">
         <f>++'Completion Factors'!J19</f>
@@ -9979,7 +9979,7 @@
         <v/>
       </c>
       <c r="I19" s="14" t="n">
-        <v>22313.55583333333</v>
+        <v>21061.72166666667</v>
       </c>
       <c r="J19" s="14">
         <f>100*$G19/$I19</f>
@@ -10008,40 +10008,40 @@
         <v/>
       </c>
       <c r="T19" s="22" t="n">
-        <v>399.96</v>
+        <v>258.18</v>
       </c>
       <c r="U19" s="22" t="n">
-        <v>27418.06</v>
+        <v>261.19</v>
       </c>
       <c r="V19" s="22" t="n">
-        <v>27418.06</v>
+        <v>436.78</v>
       </c>
       <c r="W19" s="22" t="n">
-        <v>27418.06</v>
+        <v>436.78</v>
       </c>
       <c r="X19" s="22" t="n">
-        <v>27421.06</v>
+        <v>436.78</v>
       </c>
       <c r="Y19" s="22" t="n">
-        <v>27611.08</v>
+        <v>436.78</v>
       </c>
       <c r="Z19" s="22" t="n">
-        <v>27612.76</v>
+        <v>436.78</v>
       </c>
       <c r="AA19" s="22" t="n">
-        <v>29091.06</v>
+        <v>10462.94</v>
       </c>
       <c r="AB19" s="22" t="n">
-        <v>29091.06</v>
+        <v>10462.94</v>
       </c>
       <c r="AC19" s="22" t="n">
-        <v>29091.06</v>
+        <v>10864.32</v>
       </c>
       <c r="AD19" s="22" t="n">
-        <v>29091.06</v>
+        <v>10864.32</v>
       </c>
       <c r="AE19" s="22" t="n">
-        <v>29148.96</v>
+        <v>10864.32</v>
       </c>
       <c r="AF19" s="22" t="n">
         <v/>
@@ -10085,7 +10085,7 @@
         <v/>
       </c>
       <c r="B20" s="14" t="n">
-        <v>4386.540000000001</v>
+        <v>5550.1</v>
       </c>
       <c r="C20" s="14">
         <f>++'Completion Factors'!J18</f>
@@ -10109,7 +10109,7 @@
         <v/>
       </c>
       <c r="I20" s="14" t="n">
-        <v>21819.67916666666</v>
+        <v>20916.385</v>
       </c>
       <c r="J20" s="14">
         <f>100*$G20/$I20</f>
@@ -10141,40 +10141,40 @@
         <v/>
       </c>
       <c r="S20" s="22" t="n">
-        <v>100.33</v>
+        <v>284.31</v>
       </c>
       <c r="T20" s="22" t="n">
-        <v>622.88</v>
+        <v>722.4200000000001</v>
       </c>
       <c r="U20" s="22" t="n">
-        <v>822.88</v>
+        <v>1503.3</v>
       </c>
       <c r="V20" s="22" t="n">
-        <v>828.9399999999999</v>
+        <v>1592.6</v>
       </c>
       <c r="W20" s="22" t="n">
-        <v>2505.69</v>
+        <v>1592.6</v>
       </c>
       <c r="X20" s="22" t="n">
-        <v>2871.55</v>
+        <v>1592.6</v>
       </c>
       <c r="Y20" s="22" t="n">
-        <v>2871.55</v>
+        <v>1592.6</v>
       </c>
       <c r="Z20" s="22" t="n">
-        <v>2871.55</v>
+        <v>5515.1</v>
       </c>
       <c r="AA20" s="22" t="n">
-        <v>2871.55</v>
+        <v>5515.1</v>
       </c>
       <c r="AB20" s="22" t="n">
-        <v>4374.02</v>
+        <v>5545.1</v>
       </c>
       <c r="AC20" s="22" t="n">
-        <v>4386.540000000001</v>
+        <v>5550.1</v>
       </c>
       <c r="AD20" s="22" t="n">
-        <v>4386.540000000001</v>
+        <v>5550.1</v>
       </c>
       <c r="AE20" s="22" t="n">
         <v/>
@@ -10221,7 +10221,7 @@
         <v/>
       </c>
       <c r="B21" s="14" t="n">
-        <v>1558.32</v>
+        <v>5454.040000000001</v>
       </c>
       <c r="C21" s="14">
         <f>++'Completion Factors'!J17</f>
@@ -10245,7 +10245,7 @@
         <v/>
       </c>
       <c r="I21" s="14" t="n">
-        <v>21537.36666666666</v>
+        <v>20785.00416666667</v>
       </c>
       <c r="J21" s="14">
         <f>100*$G21/$I21</f>
@@ -10277,37 +10277,37 @@
         <v/>
       </c>
       <c r="S21" s="22" t="n">
-        <v>105.41</v>
+        <v>205.83</v>
       </c>
       <c r="T21" s="22" t="n">
-        <v>105.41</v>
+        <v>2677.97</v>
       </c>
       <c r="U21" s="22" t="n">
-        <v>111.42</v>
+        <v>2801.39</v>
       </c>
       <c r="V21" s="22" t="n">
-        <v>111.42</v>
+        <v>4928.39</v>
       </c>
       <c r="W21" s="22" t="n">
-        <v>1266.02</v>
+        <v>5168.64</v>
       </c>
       <c r="X21" s="22" t="n">
-        <v>1480.46</v>
+        <v>5387.42</v>
       </c>
       <c r="Y21" s="22" t="n">
-        <v>1531.5</v>
+        <v>5426.77</v>
       </c>
       <c r="Z21" s="22" t="n">
-        <v>1558.32</v>
+        <v>5454.040000000001</v>
       </c>
       <c r="AA21" s="22" t="n">
-        <v>1558.32</v>
+        <v>5454.040000000001</v>
       </c>
       <c r="AB21" s="22" t="n">
-        <v>1558.32</v>
+        <v>5454.040000000001</v>
       </c>
       <c r="AC21" s="22" t="n">
-        <v>1558.32</v>
+        <v>5454.040000000001</v>
       </c>
       <c r="AD21" s="22" t="n">
         <v/>
@@ -10357,7 +10357,7 @@
         <v/>
       </c>
       <c r="B22" s="14" t="n">
-        <v>914.4</v>
+        <v>10803.65</v>
       </c>
       <c r="C22" s="14">
         <f>++'Completion Factors'!J16</f>
@@ -10381,7 +10381,7 @@
         <v/>
       </c>
       <c r="I22" s="14" t="n">
-        <v>21386.11833333334</v>
+        <v>20653.01</v>
       </c>
       <c r="J22" s="14">
         <f>100*$G22/$I22</f>
@@ -10413,34 +10413,34 @@
         <v/>
       </c>
       <c r="S22" s="22" t="n">
-        <v/>
+        <v>30.61</v>
       </c>
       <c r="T22" s="22" t="n">
-        <v/>
+        <v>956.4299999999999</v>
       </c>
       <c r="U22" s="22" t="n">
-        <v/>
+        <v>1034.64</v>
       </c>
       <c r="V22" s="22" t="n">
-        <v>541.9299999999999</v>
+        <v>1034.64</v>
       </c>
       <c r="W22" s="22" t="n">
-        <v>864.25</v>
+        <v>2385.73</v>
       </c>
       <c r="X22" s="22" t="n">
-        <v>864.25</v>
+        <v>10323.94</v>
       </c>
       <c r="Y22" s="22" t="n">
-        <v>887.13</v>
+        <v>10645.41</v>
       </c>
       <c r="Z22" s="22" t="n">
-        <v>914.4</v>
+        <v>10803.65</v>
       </c>
       <c r="AA22" s="22" t="n">
-        <v>914.4</v>
+        <v>10803.65</v>
       </c>
       <c r="AB22" s="22" t="n">
-        <v>914.4</v>
+        <v>10803.65</v>
       </c>
       <c r="AC22" s="22" t="n">
         <v/>
@@ -10493,7 +10493,7 @@
         <v/>
       </c>
       <c r="B23" s="14" t="n">
-        <v>3460.08</v>
+        <v>9703.860000000001</v>
       </c>
       <c r="C23" s="14">
         <f>++'Completion Factors'!J15</f>
@@ -10517,7 +10517,7 @@
         <v/>
       </c>
       <c r="I23" s="14" t="n">
-        <v>21237.95833333333</v>
+        <v>20523.28416666667</v>
       </c>
       <c r="J23" s="14">
         <f>100*$G23/$I23</f>
@@ -10549,31 +10549,31 @@
         <v/>
       </c>
       <c r="S23" s="22" t="n">
-        <v/>
+        <v>27.45</v>
       </c>
       <c r="T23" s="22" t="n">
-        <v/>
+        <v>737.02</v>
       </c>
       <c r="U23" s="22" t="n">
-        <v>361.23</v>
+        <v>737.02</v>
       </c>
       <c r="V23" s="22" t="n">
-        <v>398.78</v>
+        <v>783.05</v>
       </c>
       <c r="W23" s="22" t="n">
-        <v>398.78</v>
+        <v>8908.84</v>
       </c>
       <c r="X23" s="22" t="n">
-        <v>398.78</v>
+        <v>9140.07</v>
       </c>
       <c r="Y23" s="22" t="n">
-        <v>3432.81</v>
+        <v>9676.59</v>
       </c>
       <c r="Z23" s="22" t="n">
-        <v>3460.08</v>
+        <v>9703.860000000001</v>
       </c>
       <c r="AA23" s="22" t="n">
-        <v>3460.08</v>
+        <v>9703.860000000001</v>
       </c>
       <c r="AB23" s="22" t="n">
         <v/>
@@ -10629,7 +10629,7 @@
         <v/>
       </c>
       <c r="B24" s="14" t="n">
-        <v>436.78</v>
+        <v>2132.4</v>
       </c>
       <c r="C24" s="14">
         <f>++'Completion Factors'!J14</f>
@@ -10655,7 +10655,7 @@
         <v/>
       </c>
       <c r="I24" s="14" t="n">
-        <v>21061.72166666667</v>
+        <v>20272.995</v>
       </c>
       <c r="J24" s="14">
         <f>100*$G24/$I24</f>
@@ -10687,28 +10687,28 @@
         <v/>
       </c>
       <c r="S24" s="22" t="n">
-        <v/>
+        <v>79.56999999999999</v>
       </c>
       <c r="T24" s="22" t="n">
-        <v>258.18</v>
+        <v>261.65</v>
       </c>
       <c r="U24" s="22" t="n">
-        <v>261.19</v>
+        <v>285.46</v>
       </c>
       <c r="V24" s="22" t="n">
-        <v>436.78</v>
+        <v>1451.67</v>
       </c>
       <c r="W24" s="22" t="n">
-        <v>436.78</v>
+        <v>1451.67</v>
       </c>
       <c r="X24" s="22" t="n">
-        <v>436.78</v>
+        <v>2109.31</v>
       </c>
       <c r="Y24" s="22" t="n">
-        <v>436.78</v>
+        <v>2116.38</v>
       </c>
       <c r="Z24" s="22" t="n">
-        <v>436.78</v>
+        <v>2132.4</v>
       </c>
       <c r="AA24" s="22" t="n">
         <v/>
@@ -10767,7 +10767,7 @@
         <v/>
       </c>
       <c r="B25" s="14" t="n">
-        <v>1592.6</v>
+        <v>832.95</v>
       </c>
       <c r="C25" s="14">
         <f>++'Completion Factors'!J13</f>
@@ -10793,7 +10793,7 @@
         <v/>
       </c>
       <c r="I25" s="14" t="n">
-        <v>20916.385</v>
+        <v>20221.4275</v>
       </c>
       <c r="J25" s="14">
         <f>100*$G25/$I25</f>
@@ -10825,25 +10825,25 @@
         <v/>
       </c>
       <c r="S25" s="22" t="n">
-        <v>284.31</v>
+        <v/>
       </c>
       <c r="T25" s="22" t="n">
-        <v>722.4200000000001</v>
+        <v>75.84</v>
       </c>
       <c r="U25" s="22" t="n">
-        <v>1503.3</v>
+        <v>239.97</v>
       </c>
       <c r="V25" s="22" t="n">
-        <v>1592.6</v>
+        <v>757.6400000000001</v>
       </c>
       <c r="W25" s="22" t="n">
-        <v>1592.6</v>
+        <v>791.6400000000001</v>
       </c>
       <c r="X25" s="22" t="n">
-        <v>1592.6</v>
+        <v>832.95</v>
       </c>
       <c r="Y25" s="22" t="n">
-        <v>1592.6</v>
+        <v>832.95</v>
       </c>
       <c r="Z25" s="22" t="n">
         <v/>
@@ -10905,7 +10905,7 @@
         <v/>
       </c>
       <c r="B26" s="14" t="n">
-        <v>5387.42</v>
+        <v>809.79</v>
       </c>
       <c r="C26" s="14">
         <f>++'Completion Factors'!J12</f>
@@ -10931,7 +10931,7 @@
         <v/>
       </c>
       <c r="I26" s="14" t="n">
-        <v>20785.00416666667</v>
+        <v>20164</v>
       </c>
       <c r="J26" s="14">
         <f>100*$G26/$I26</f>
@@ -10963,22 +10963,22 @@
         <v/>
       </c>
       <c r="S26" s="22" t="n">
-        <v>205.83</v>
+        <v/>
       </c>
       <c r="T26" s="22" t="n">
-        <v>2677.97</v>
+        <v>405.83</v>
       </c>
       <c r="U26" s="22" t="n">
-        <v>2801.39</v>
+        <v>460.1</v>
       </c>
       <c r="V26" s="22" t="n">
-        <v>4928.39</v>
+        <v>799.78</v>
       </c>
       <c r="W26" s="22" t="n">
-        <v>5168.64</v>
+        <v>809.79</v>
       </c>
       <c r="X26" s="22" t="n">
-        <v>5387.42</v>
+        <v>809.79</v>
       </c>
       <c r="Y26" s="22" t="n">
         <v/>
@@ -11043,7 +11043,7 @@
         <v/>
       </c>
       <c r="B27" s="14" t="n">
-        <v>2385.73</v>
+        <v>3153.14</v>
       </c>
       <c r="C27" s="14">
         <f>++'Completion Factors'!J11</f>
@@ -11069,7 +11069,7 @@
         <v/>
       </c>
       <c r="I27" s="14" t="n">
-        <v>20653.01</v>
+        <v>19697.08666666667</v>
       </c>
       <c r="J27" s="14">
         <f>100*$G27/$I27</f>
@@ -11101,19 +11101,19 @@
         <v/>
       </c>
       <c r="S27" s="22" t="n">
-        <v>30.61</v>
+        <v>160.05</v>
       </c>
       <c r="T27" s="22" t="n">
-        <v>956.4300000000001</v>
+        <v>712.03</v>
       </c>
       <c r="U27" s="22" t="n">
-        <v>1034.64</v>
+        <v>2980.7</v>
       </c>
       <c r="V27" s="22" t="n">
-        <v>1034.64</v>
+        <v>3053.14</v>
       </c>
       <c r="W27" s="22" t="n">
-        <v>2385.73</v>
+        <v>3153.14</v>
       </c>
       <c r="X27" s="22" t="n">
         <v/>
@@ -11181,7 +11181,7 @@
         <v/>
       </c>
       <c r="B28" s="14" t="n">
-        <v>783.0500000000001</v>
+        <v>738.0999999999999</v>
       </c>
       <c r="C28" s="14">
         <f>++'Completion Factors'!J10</f>
@@ -11207,7 +11207,7 @@
         <v/>
       </c>
       <c r="I28" s="14" t="n">
-        <v>20523.28416666667</v>
+        <v>19600.65</v>
       </c>
       <c r="J28" s="14">
         <f>100*$G28/$I28</f>
@@ -11239,16 +11239,16 @@
         <v/>
       </c>
       <c r="S28" s="22" t="n">
-        <v>27.45</v>
+        <v>25.34</v>
       </c>
       <c r="T28" s="22" t="n">
-        <v>737.0200000000001</v>
+        <v>337.3</v>
       </c>
       <c r="U28" s="22" t="n">
-        <v>737.0200000000001</v>
+        <v>738.0999999999999</v>
       </c>
       <c r="V28" s="22" t="n">
-        <v>783.0500000000001</v>
+        <v>738.0999999999999</v>
       </c>
       <c r="W28" s="22" t="n">
         <v/>
@@ -11319,7 +11319,7 @@
         <v/>
       </c>
       <c r="B29" s="14" t="n">
-        <v>285.46</v>
+        <v>4733.03</v>
       </c>
       <c r="C29" s="14">
         <f>++'Completion Factors'!J9</f>
@@ -11346,7 +11346,7 @@
         <v/>
       </c>
       <c r="I29" s="14" t="n">
-        <v>20272.995</v>
+        <v>19349.41833333333</v>
       </c>
       <c r="J29" s="20" t="n">
         <v>80</v>
@@ -11377,13 +11377,13 @@
         <v/>
       </c>
       <c r="S29" s="22" t="n">
-        <v>79.56999999999999</v>
+        <v>21.39</v>
       </c>
       <c r="T29" s="22" t="n">
-        <v>261.65</v>
+        <v>3001.58</v>
       </c>
       <c r="U29" s="22" t="n">
-        <v>285.46</v>
+        <v>4733.03</v>
       </c>
       <c r="V29" s="22" t="n">
         <v/>
@@ -11457,7 +11457,7 @@
         <v/>
       </c>
       <c r="B30" s="14" t="n">
-        <v>75.84</v>
+        <v>1371.13</v>
       </c>
       <c r="C30" s="14">
         <f>++'Completion Factors'!J8</f>
@@ -11484,7 +11484,7 @@
         <v/>
       </c>
       <c r="I30" s="14" t="n">
-        <v>20221.4275</v>
+        <v>19166.44833333333</v>
       </c>
       <c r="J30" s="20" t="n">
         <v>60</v>
@@ -11515,10 +11515,10 @@
         <v/>
       </c>
       <c r="S30" s="22" t="n">
-        <v/>
+        <v>105.89</v>
       </c>
       <c r="T30" s="22" t="n">
-        <v>75.84</v>
+        <v>1371.13</v>
       </c>
       <c r="U30" s="22" t="n">
         <v/>
@@ -11595,7 +11595,7 @@
         <v/>
       </c>
       <c r="B31" s="14" t="n">
-        <v/>
+        <v>59.95</v>
       </c>
       <c r="C31" s="14">
         <f>+'Completion Factors'!J7</f>
@@ -11622,7 +11622,7 @@
         <v/>
       </c>
       <c r="I31" s="14" t="n">
-        <v>20164</v>
+        <v>19066.7175</v>
       </c>
       <c r="J31" s="20" t="n">
         <v>60</v>
@@ -11653,7 +11653,7 @@
         <v/>
       </c>
       <c r="S31" s="22" t="n">
-        <v/>
+        <v>59.95</v>
       </c>
       <c r="T31" s="22" t="n">
         <v/>

--- a/Process Results/Unified_IBNP_USH.xlsx
+++ b/Process Results/Unified_IBNP_USH.xlsx
@@ -3727,20 +3727,20 @@
         <v/>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.009731236613320055</v>
+        <v>0.01359026404222064</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.001490508197456753</v>
+        <v>0.001390420184603347</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>0.00631632221891599</v>
+        <v>0.006105786406027641</v>
       </c>
       <c r="H7" s="4">
         <f>+I7/I8</f>
         <v/>
       </c>
       <c r="I7" s="5" t="n">
-        <v>0.00631632221891599</v>
+        <v>0.006105786406027641</v>
       </c>
       <c r="J7" s="5">
         <f>I7</f>
@@ -3765,20 +3765,20 @@
         <v/>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.3003159596455484</v>
+        <v>0.398612903991128</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.02584704342258103</v>
+        <v>0.02440728113917012</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.07238564098085325</v>
+        <v>0.0726086821303645</v>
       </c>
       <c r="H8" s="4">
         <f>+I8/I9</f>
         <v/>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.07238564098085325</v>
+        <v>0.0726086821303645</v>
       </c>
       <c r="J8" s="5">
         <f>I8</f>
@@ -3803,20 +3803,20 @@
         <v/>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.6265800615691376</v>
+        <v>0.6404629416206545</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.05087946421313315</v>
+        <v>0.04650377707379465</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.112541702393383</v>
+        <v>0.1126666490572653</v>
       </c>
       <c r="H9" s="4">
         <f>+I9/I10</f>
         <v/>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.112541702393383</v>
+        <v>0.1126666490572653</v>
       </c>
       <c r="J9" s="5">
         <f>I9</f>
@@ -3841,20 +3841,20 @@
         <v/>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.6883729197313032</v>
+        <v>0.899435840063645</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.07090856337574124</v>
+        <v>0.07331538237026343</v>
       </c>
       <c r="G10" s="5" t="n">
-        <v>0.1576593472654159</v>
+        <v>0.1679420565183042</v>
       </c>
       <c r="H10" s="4">
         <f>+I10/I11</f>
         <v/>
       </c>
       <c r="I10" s="5" t="n">
-        <v>0.1576593472654159</v>
+        <v>0.1679420565183042</v>
       </c>
       <c r="J10" s="5">
         <f>I10</f>
@@ -3879,20 +3879,20 @@
         <v/>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.7098741222252529</v>
+        <v>0.9220186145416772</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.1574834890470723</v>
+        <v>0.1533178598983409</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.2701559733351965</v>
+        <v>0.2715423707549268</v>
       </c>
       <c r="H11" s="4">
         <f>+I11/I12</f>
         <v/>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.2701559733351965</v>
+        <v>0.2715423707549268</v>
       </c>
       <c r="J11" s="5">
         <f>I11</f>
@@ -3917,20 +3917,20 @@
         <v/>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.872386492514251</v>
+        <v>0.9300295574800957</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.2308108361308132</v>
+        <v>0.2310104110170519</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.3684134043676821</v>
+        <v>0.3643068912110818</v>
       </c>
       <c r="H12" s="4">
         <f>+I12/I13</f>
         <v/>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.3684134043676821</v>
+        <v>0.3643068912110818</v>
       </c>
       <c r="J12" s="5">
         <f>I12</f>
@@ -3955,20 +3955,20 @@
         <v/>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.9116355921056233</v>
+        <v>0.9317820151955803</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.2379144081810812</v>
+        <v>0.2383147014680016</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>0.3930432733628765</v>
+        <v>0.4046328245208652</v>
       </c>
       <c r="H13" s="4">
         <f>+I13/I14</f>
         <v/>
       </c>
       <c r="I13" s="5" t="n">
-        <v>0.3930432733628765</v>
+        <v>0.4046328245208652</v>
       </c>
       <c r="J13" s="5">
         <f>I13</f>
@@ -3993,20 +3993,20 @@
         <v/>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.9198234345825331</v>
+        <v>0.9667104093222588</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.2709523613679058</v>
+        <v>0.274358475360165</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.417463240121651</v>
+        <v>0.4327762997123223</v>
       </c>
       <c r="H14" s="4">
         <f>+I14/I15</f>
         <v/>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.417463240121651</v>
+        <v>0.4327762997123223</v>
       </c>
       <c r="J14" s="5">
         <f>I14</f>
@@ -4031,20 +4031,20 @@
         <v/>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.9198234345825331</v>
+        <v>0.9667104093222588</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.3477502739146799</v>
+        <v>0.355154331161509</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.4840239242644199</v>
+        <v>0.5017216028718872</v>
       </c>
       <c r="H15" s="4">
         <f>+I15/I16</f>
         <v/>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.4840239242644199</v>
+        <v>0.5017216028718872</v>
       </c>
       <c r="J15" s="5">
         <f>I15</f>
@@ -4069,20 +4069,20 @@
         <v/>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.9210908285654575</v>
+        <v>0.9667104093222588</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.3993045974673696</v>
+        <v>0.3976127924758553</v>
       </c>
       <c r="G16" s="5" t="n">
-        <v>0.5268432690070034</v>
+        <v>0.5423703294527551</v>
       </c>
       <c r="H16" s="4">
         <f>+I16/I17</f>
         <v/>
       </c>
       <c r="I16" s="5" t="n">
-        <v>0.5268432690070034</v>
+        <v>0.5423703294527551</v>
       </c>
       <c r="J16" s="5">
         <f>I16</f>
@@ -4107,20 +4107,20 @@
         <v/>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.9385314909296101</v>
+        <v>0.9998536919465648</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.4991154650135629</v>
+        <v>0.4821653511259605</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.5832795032459778</v>
+        <v>0.5990883985595801</v>
       </c>
       <c r="H17" s="4">
         <f>+I17/I18</f>
         <v/>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.5832795032459778</v>
+        <v>0.5990883985595801</v>
       </c>
       <c r="J17" s="5">
         <f>I17</f>
@@ -4145,20 +4145,20 @@
         <v/>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.9410947009448031</v>
+        <v>1</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.5978980621293175</v>
+        <v>0.5751456329710884</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.6394886410053415</v>
+        <v>0.6547145826986182</v>
       </c>
       <c r="H18" s="4">
         <f>+I18/I19</f>
         <v/>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.6394886410053415</v>
+        <v>0.6547145826986182</v>
       </c>
       <c r="J18" s="5">
         <f>I18</f>
@@ -4183,20 +4183,20 @@
         <v/>
       </c>
       <c r="E19" s="5" t="n">
-        <v>0.9435785681159442</v>
+        <v>1</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>0.7001413972252291</v>
+        <v>0.7212162512287864</v>
       </c>
       <c r="G19" s="5" t="n">
-        <v>0.7283295791286287</v>
+        <v>0.7435985178988479</v>
       </c>
       <c r="H19" s="4">
         <f>+I19/I20</f>
         <v/>
       </c>
       <c r="I19" s="5" t="n">
-        <v>0.7283295791286287</v>
+        <v>0.7435985178988479</v>
       </c>
       <c r="J19" s="5">
         <f>I19</f>
@@ -4221,20 +4221,20 @@
         <v/>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.996222325932448</v>
+        <v>1</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.7873821494873033</v>
+        <v>0.8014980200752398</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.8042990817647501</v>
+        <v>0.815245975517952</v>
       </c>
       <c r="H20" s="4">
         <f>+I20/I21</f>
         <v/>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.8042990817647501</v>
+        <v>0.815245975517952</v>
       </c>
       <c r="J20" s="5">
         <f>I20</f>
@@ -4262,17 +4262,17 @@
         <v>1</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.8290718801924764</v>
+        <v>0.8413182801032858</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.8417593795230742</v>
+        <v>0.8510476240064262</v>
       </c>
       <c r="H21" s="4">
         <f>+I21/I22</f>
         <v/>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.8417593795230742</v>
+        <v>0.8510476240064262</v>
       </c>
       <c r="J21" s="5">
         <f>I21</f>
@@ -4300,17 +4300,17 @@
         <v>1</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.9368743490691854</v>
+        <v>0.9428806817818615</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.9409848522332095</v>
+        <v>0.9454995695326721</v>
       </c>
       <c r="H22" s="4">
         <f>+I22/I23</f>
         <v/>
       </c>
       <c r="I22" s="5" t="n">
-        <v>0.9409848522332095</v>
+        <v>0.9454995695326721</v>
       </c>
       <c r="J22" s="5">
         <f>I22</f>
@@ -4833,25 +4833,25 @@
         <v>0</v>
       </c>
       <c r="B38" s="4" t="n">
-        <v>12.55037573058726</v>
+        <v>13.77571916138469</v>
       </c>
       <c r="C38" s="4" t="n">
-        <v>1.098839078802932</v>
+        <v>1.499911516953352</v>
       </c>
       <c r="D38" s="4" t="n">
-        <v>1.010090715532638</v>
+        <v>1.023431692957514</v>
       </c>
       <c r="E38" s="4" t="n">
-        <v>1</v>
+        <v>2.637019701877962</v>
       </c>
       <c r="F38" s="4" t="n">
-        <v>1.884107051877604</v>
+        <v>1</v>
       </c>
       <c r="G38" s="4" t="n">
         <v>1</v>
       </c>
       <c r="H38" s="4" t="n">
-        <v>1.856888351599408</v>
+        <v>1.011987252068916</v>
       </c>
       <c r="I38" s="4" t="n">
         <v>1</v>
@@ -4908,25 +4908,25 @@
         <v/>
       </c>
       <c r="B39" s="4" t="n">
-        <v>13.77571916138469</v>
+        <v>3.732769744160178</v>
       </c>
       <c r="C39" s="4" t="n">
-        <v>1.499911516953352</v>
+        <v>1.054127827973395</v>
       </c>
       <c r="D39" s="4" t="n">
-        <v>1.023431692957514</v>
+        <v>1.090461921185051</v>
       </c>
       <c r="E39" s="4" t="n">
-        <v>2.637019701877962</v>
+        <v>1.207393581168663</v>
       </c>
       <c r="F39" s="4" t="n">
-        <v>1</v>
+        <v>1.797432043629493</v>
       </c>
       <c r="G39" s="4" t="n">
         <v>1</v>
       </c>
       <c r="H39" s="4" t="n">
-        <v>1.011987252068916</v>
+        <v>1</v>
       </c>
       <c r="I39" s="4" t="n">
         <v>1</v>
@@ -4935,7 +4935,7 @@
         <v>1</v>
       </c>
       <c r="K39" s="4" t="n">
-        <v>1</v>
+        <v>1.013101813803253</v>
       </c>
       <c r="L39" s="4" t="n">
         <v>1</v>
@@ -4983,19 +4983,19 @@
         <v/>
       </c>
       <c r="B40" s="4" t="n">
-        <v>3.732769744160178</v>
+        <v>14.59087413483722</v>
       </c>
       <c r="C40" s="4" t="n">
-        <v>1.054127827973395</v>
+        <v>1</v>
       </c>
       <c r="D40" s="4" t="n">
-        <v>1.090461921185051</v>
+        <v>1.033925402765333</v>
       </c>
       <c r="E40" s="4" t="n">
-        <v>1.207393581168663</v>
+        <v>1.014927782497876</v>
       </c>
       <c r="F40" s="4" t="n">
-        <v>1.797432043629493</v>
+        <v>2.339394091597814</v>
       </c>
       <c r="G40" s="4" t="n">
         <v>1</v>
@@ -5004,13 +5004,13 @@
         <v>1</v>
       </c>
       <c r="I40" s="4" t="n">
-        <v>1</v>
+        <v>1.006798899293988</v>
       </c>
       <c r="J40" s="4" t="n">
-        <v>1</v>
+        <v>1.009745625664192</v>
       </c>
       <c r="K40" s="4" t="n">
-        <v>1.013101813803253</v>
+        <v>1</v>
       </c>
       <c r="L40" s="4" t="n">
         <v>1</v>
@@ -5028,7 +5028,7 @@
         <v>1</v>
       </c>
       <c r="Q40" s="4" t="n">
-        <v>1</v>
+        <v>2.855670030517531</v>
       </c>
       <c r="R40" s="4" t="n">
         <v>1</v>
@@ -5058,31 +5058,31 @@
         <v/>
       </c>
       <c r="B41" s="4" t="n">
-        <v>14.59087413483722</v>
+        <v>3.884009729868135</v>
       </c>
       <c r="C41" s="4" t="n">
-        <v>1</v>
+        <v>1.391027753971916</v>
       </c>
       <c r="D41" s="4" t="n">
-        <v>1.033925402765333</v>
+        <v>1.215326651027227</v>
       </c>
       <c r="E41" s="4" t="n">
-        <v>1.014927782497876</v>
+        <v>6.84932147870847</v>
       </c>
       <c r="F41" s="4" t="n">
-        <v>2.339394091597814</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="G41" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="H41" s="4" t="n">
-        <v>1</v>
+        <v>1.00170800027328</v>
       </c>
       <c r="I41" s="4" t="n">
-        <v>1.006798899293988</v>
+        <v>1.065526531169008</v>
       </c>
       <c r="J41" s="4" t="n">
-        <v>1.009745625664192</v>
+        <v>1</v>
       </c>
       <c r="K41" s="4" t="n">
         <v>1</v>
@@ -5100,10 +5100,10 @@
         <v>1</v>
       </c>
       <c r="P41" s="4" t="n">
-        <v>1</v>
+        <v>3.670685912104676</v>
       </c>
       <c r="Q41" s="4" t="n">
-        <v>2.855670030517531</v>
+        <v>1</v>
       </c>
       <c r="R41" s="4" t="n">
         <v>1</v>
@@ -5133,28 +5133,28 @@
         <v/>
       </c>
       <c r="B42" s="4" t="n">
-        <v>3.884009729868135</v>
+        <v/>
       </c>
       <c r="C42" s="4" t="n">
-        <v>1.391027753971916</v>
+        <v>25.82948442534909</v>
       </c>
       <c r="D42" s="4" t="n">
-        <v>1.215326651027227</v>
+        <v>1</v>
       </c>
       <c r="E42" s="4" t="n">
-        <v>6.84932147870847</v>
+        <v>1</v>
       </c>
       <c r="F42" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="G42" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="H42" s="4" t="n">
-        <v>1.00170800027328</v>
+        <v>1</v>
       </c>
       <c r="I42" s="4" t="n">
-        <v>1.065526531169008</v>
+        <v>1.014253189034089</v>
       </c>
       <c r="J42" s="4" t="n">
         <v>1</v>
@@ -5172,10 +5172,10 @@
         <v>1</v>
       </c>
       <c r="O42" s="4" t="n">
-        <v>1</v>
+        <v>3.05930196801968</v>
       </c>
       <c r="P42" s="4" t="n">
-        <v>3.670685912104676</v>
+        <v>1</v>
       </c>
       <c r="Q42" s="4" t="n">
         <v>1</v>
@@ -5211,7 +5211,7 @@
         <v/>
       </c>
       <c r="C43" s="4" t="n">
-        <v>25.82948442534909</v>
+        <v>68.55200520052004</v>
       </c>
       <c r="D43" s="4" t="n">
         <v>1</v>
@@ -5220,16 +5220,16 @@
         <v>1</v>
       </c>
       <c r="F43" s="4" t="n">
-        <v>1</v>
+        <v>1.000109416931759</v>
       </c>
       <c r="G43" s="4" t="n">
-        <v>1</v>
+        <v>1.00692971023002</v>
       </c>
       <c r="H43" s="4" t="n">
-        <v>1</v>
+        <v>1.000060845138981</v>
       </c>
       <c r="I43" s="4" t="n">
-        <v>1.014253189034089</v>
+        <v>1.053536843111663</v>
       </c>
       <c r="J43" s="4" t="n">
         <v>1</v>
@@ -5241,25 +5241,25 @@
         <v>1</v>
       </c>
       <c r="M43" s="4" t="n">
-        <v>1</v>
+        <v>1.001990302175308</v>
       </c>
       <c r="N43" s="4" t="n">
-        <v>1</v>
+        <v>1.267263737711397</v>
       </c>
       <c r="O43" s="4" t="n">
-        <v>3.05930196801968</v>
+        <v>1.000433141614026</v>
       </c>
       <c r="P43" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="Q43" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="R43" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="S43" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="T43" t="n">
         <v/>
@@ -5283,55 +5283,55 @@
         <v/>
       </c>
       <c r="B44" s="4" t="n">
-        <v/>
+        <v>6.208312568523873</v>
       </c>
       <c r="C44" s="4" t="n">
-        <v>68.55200520052004</v>
+        <v>1.321089134343694</v>
       </c>
       <c r="D44" s="4" t="n">
-        <v>1</v>
+        <v>1.007364378767256</v>
       </c>
       <c r="E44" s="4" t="n">
-        <v>1</v>
+        <v>3.022764011870581</v>
       </c>
       <c r="F44" s="4" t="n">
-        <v>1.000109416931759</v>
+        <v>1.146011677422187</v>
       </c>
       <c r="G44" s="4" t="n">
-        <v>1.00692971023002</v>
+        <v>1</v>
       </c>
       <c r="H44" s="4" t="n">
-        <v>1.000060845138981</v>
+        <v>1</v>
       </c>
       <c r="I44" s="4" t="n">
-        <v>1.053536843111663</v>
+        <v>1</v>
       </c>
       <c r="J44" s="4" t="n">
-        <v>1</v>
+        <v>1.523226132228239</v>
       </c>
       <c r="K44" s="4" t="n">
-        <v>1</v>
+        <v>1.002862355453336</v>
       </c>
       <c r="L44" s="4" t="n">
         <v>1</v>
       </c>
       <c r="M44" s="4" t="n">
-        <v>1.001990302175308</v>
+        <v>3.751697237458224</v>
       </c>
       <c r="N44" s="4" t="n">
-        <v>1.267263737711397</v>
+        <v>1</v>
       </c>
       <c r="O44" s="4" t="n">
-        <v>1.000433141614026</v>
+        <v>1.008327170797541</v>
       </c>
       <c r="P44" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="Q44" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="R44" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="S44" t="n">
         <v/>
@@ -5358,46 +5358,46 @@
         <v/>
       </c>
       <c r="B45" s="4" t="n">
-        <v>6.208312568523872</v>
+        <v>1</v>
       </c>
       <c r="C45" s="4" t="n">
-        <v>1.321089134343694</v>
+        <v>1.057015463428517</v>
       </c>
       <c r="D45" s="4" t="n">
-        <v>1.007364378767256</v>
+        <v>1</v>
       </c>
       <c r="E45" s="4" t="n">
-        <v>3.022764011870582</v>
+        <v>11.36259199425597</v>
       </c>
       <c r="F45" s="4" t="n">
-        <v>1.146011677422187</v>
+        <v>1.169381210407419</v>
       </c>
       <c r="G45" s="4" t="n">
-        <v>1</v>
+        <v>1.034475771044135</v>
       </c>
       <c r="H45" s="4" t="n">
-        <v>1</v>
+        <v>1.017512242899118</v>
       </c>
       <c r="I45" s="4" t="n">
         <v>1</v>
       </c>
       <c r="J45" s="4" t="n">
-        <v>1.523226132228239</v>
+        <v>1</v>
       </c>
       <c r="K45" s="4" t="n">
-        <v>1.002862355453336</v>
+        <v>1</v>
       </c>
       <c r="L45" s="4" t="n">
-        <v>1</v>
+        <v>6.025989527183121</v>
       </c>
       <c r="M45" s="4" t="n">
-        <v>3.751697237458224</v>
+        <v>1</v>
       </c>
       <c r="N45" s="4" t="n">
-        <v>1</v>
+        <v>1.160992799044132</v>
       </c>
       <c r="O45" s="4" t="n">
-        <v>1.008327170797541</v>
+        <v>1</v>
       </c>
       <c r="P45" s="4" t="n">
         <v>1</v>
@@ -5433,25 +5433,25 @@
         <v/>
       </c>
       <c r="B46" s="4" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="C46" s="4" t="n">
-        <v>1.057015463428517</v>
+        <v/>
       </c>
       <c r="D46" s="4" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="E46" s="4" t="n">
-        <v>11.36259199425597</v>
+        <v>1.594763161293894</v>
       </c>
       <c r="F46" s="4" t="n">
-        <v>1.169381210407419</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="G46" s="4" t="n">
-        <v>1.034475771044135</v>
+        <v>1.026473821232282</v>
       </c>
       <c r="H46" s="4" t="n">
-        <v>1.017512242899118</v>
+        <v>1.030739575935883</v>
       </c>
       <c r="I46" s="4" t="n">
         <v>1</v>
@@ -5460,16 +5460,16 @@
         <v>1</v>
       </c>
       <c r="K46" s="4" t="n">
-        <v>1</v>
+        <v>9.519750656167981</v>
       </c>
       <c r="L46" s="4" t="n">
-        <v>6.025989527183121</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="M46" s="4" t="n">
-        <v>1</v>
+        <v>1.008640001102832</v>
       </c>
       <c r="N46" s="4" t="n">
-        <v>1.160992799044132</v>
+        <v>1</v>
       </c>
       <c r="O46" s="4" t="n">
         <v>1</v>
@@ -5514,34 +5514,34 @@
         <v/>
       </c>
       <c r="D47" s="4" t="n">
-        <v/>
+        <v>1.103950391717188</v>
       </c>
       <c r="E47" s="4" t="n">
-        <v>1.594763161293894</v>
+        <v>1</v>
       </c>
       <c r="F47" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="G47" s="4" t="n">
-        <v>1.026473821232282</v>
+        <v>8.608280254777071</v>
       </c>
       <c r="H47" s="4" t="n">
-        <v>1.030739575935883</v>
+        <v>1.007943929317382</v>
       </c>
       <c r="I47" s="4" t="n">
         <v>1</v>
       </c>
       <c r="J47" s="4" t="n">
-        <v>1</v>
+        <v>2.559935030403921</v>
       </c>
       <c r="K47" s="4" t="n">
-        <v>9.519750656167981</v>
+        <v>1</v>
       </c>
       <c r="L47" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1.007792196062582</v>
       </c>
       <c r="M47" s="4" t="n">
-        <v>1.008640001102832</v>
+        <v>1</v>
       </c>
       <c r="N47" s="4" t="n">
         <v>1</v>
@@ -5586,10 +5586,10 @@
         <v/>
       </c>
       <c r="C48" s="4" t="n">
-        <v/>
+        <v>1.011658532806569</v>
       </c>
       <c r="D48" s="4" t="n">
-        <v>1.103950391717188</v>
+        <v>1.672269229296681</v>
       </c>
       <c r="E48" s="4" t="n">
         <v>1</v>
@@ -5598,28 +5598,28 @@
         <v>1</v>
       </c>
       <c r="G48" s="4" t="n">
-        <v>8.608280254777071</v>
+        <v>1</v>
       </c>
       <c r="H48" s="4" t="n">
-        <v>1.007943929317382</v>
+        <v>1</v>
       </c>
       <c r="I48" s="4" t="n">
-        <v>1</v>
+        <v>23.95471404368332</v>
       </c>
       <c r="J48" s="4" t="n">
-        <v>2.559935030403921</v>
+        <v>1</v>
       </c>
       <c r="K48" s="4" t="n">
-        <v>1</v>
+        <v>1.038362066493739</v>
       </c>
       <c r="L48" s="4" t="n">
-        <v>1.007792196062582</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="M48" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="N48" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="O48" t="n">
         <v/>
@@ -5658,13 +5658,13 @@
         <v/>
       </c>
       <c r="B49" s="4" t="n">
-        <v/>
+        <v>2.540958812563751</v>
       </c>
       <c r="C49" s="4" t="n">
-        <v>1.011658532806569</v>
+        <v>2.080922455081532</v>
       </c>
       <c r="D49" s="4" t="n">
-        <v>1.672269229296681</v>
+        <v>1.059402647508814</v>
       </c>
       <c r="E49" s="4" t="n">
         <v>1</v>
@@ -5676,22 +5676,22 @@
         <v>1</v>
       </c>
       <c r="H49" s="4" t="n">
-        <v>1</v>
+        <v>3.462953660680648</v>
       </c>
       <c r="I49" s="4" t="n">
-        <v>23.95471404368332</v>
+        <v>1</v>
       </c>
       <c r="J49" s="4" t="n">
-        <v>1</v>
+        <v>1.005439611249116</v>
       </c>
       <c r="K49" s="4" t="n">
-        <v>1.038362066493739</v>
+        <v>1.000901696993742</v>
       </c>
       <c r="L49" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="M49" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="N49" t="n">
         <v/>
@@ -5733,37 +5733,37 @@
         <v/>
       </c>
       <c r="B50" s="4" t="n">
-        <v>2.540958812563751</v>
+        <v>13.01059126463586</v>
       </c>
       <c r="C50" s="4" t="n">
-        <v>2.080922455081531</v>
+        <v>1.046087148100987</v>
       </c>
       <c r="D50" s="4" t="n">
-        <v>1.059402647508814</v>
+        <v>1.759265935838994</v>
       </c>
       <c r="E50" s="4" t="n">
-        <v>1</v>
+        <v>1.048748171309495</v>
       </c>
       <c r="F50" s="4" t="n">
-        <v>1</v>
+        <v>1.042328349430411</v>
       </c>
       <c r="G50" s="4" t="n">
-        <v>1</v>
+        <v>1.007304052774798</v>
       </c>
       <c r="H50" s="4" t="n">
-        <v>3.462953660680649</v>
+        <v>1.005025088588608</v>
       </c>
       <c r="I50" s="4" t="n">
         <v>1</v>
       </c>
       <c r="J50" s="4" t="n">
-        <v>1.005439611249116</v>
+        <v>1</v>
       </c>
       <c r="K50" s="4" t="n">
-        <v>1.000901696993742</v>
+        <v>1</v>
       </c>
       <c r="L50" s="4" t="n">
-        <v>1</v>
+        <v>1.000586721036149</v>
       </c>
       <c r="M50" t="n">
         <v/>
@@ -5808,25 +5808,25 @@
         <v/>
       </c>
       <c r="B51" s="4" t="n">
-        <v>13.01059126463587</v>
+        <v>31.24567134923228</v>
       </c>
       <c r="C51" s="4" t="n">
-        <v>1.046087148100987</v>
+        <v>1.08177284275901</v>
       </c>
       <c r="D51" s="4" t="n">
-        <v>1.759265935838994</v>
+        <v>1</v>
       </c>
       <c r="E51" s="4" t="n">
-        <v>1.048748171309495</v>
+        <v>2.305855176679811</v>
       </c>
       <c r="F51" s="4" t="n">
-        <v>1.042328349430411</v>
+        <v>4.327371496355414</v>
       </c>
       <c r="G51" s="4" t="n">
-        <v>1.007304052774798</v>
+        <v>1.031138305724365</v>
       </c>
       <c r="H51" s="4" t="n">
-        <v>1.005025088588608</v>
+        <v>1.014864622405337</v>
       </c>
       <c r="I51" s="4" t="n">
         <v>1</v>
@@ -5835,7 +5835,7 @@
         <v>1</v>
       </c>
       <c r="K51" s="4" t="n">
-        <v>1</v>
+        <v>1.068726772896197</v>
       </c>
       <c r="L51" t="n">
         <v/>
@@ -5883,25 +5883,25 @@
         <v/>
       </c>
       <c r="B52" s="4" t="n">
-        <v>31.24567134923228</v>
+        <v>26.84954462659381</v>
       </c>
       <c r="C52" s="4" t="n">
-        <v>1.08177284275901</v>
+        <v>1</v>
       </c>
       <c r="D52" s="4" t="n">
-        <v>1</v>
+        <v>1.062454207484193</v>
       </c>
       <c r="E52" s="4" t="n">
-        <v>2.305855176679811</v>
+        <v>11.37710235617138</v>
       </c>
       <c r="F52" s="4" t="n">
-        <v>4.327371496355413</v>
+        <v>1.025955118735997</v>
       </c>
       <c r="G52" s="4" t="n">
-        <v>1.031138305724365</v>
+        <v>1.058699769257785</v>
       </c>
       <c r="H52" s="4" t="n">
-        <v>1.014864622405337</v>
+        <v>1.002818141514728</v>
       </c>
       <c r="I52" s="4" t="n">
         <v>1</v>
@@ -5958,25 +5958,25 @@
         <v/>
       </c>
       <c r="B53" s="4" t="n">
-        <v>26.8495446265938</v>
+        <v>3.288299610405932</v>
       </c>
       <c r="C53" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1.090999426715078</v>
       </c>
       <c r="D53" s="4" t="n">
-        <v>1.062454207484193</v>
+        <v>5.085370980172354</v>
       </c>
       <c r="E53" s="4" t="n">
-        <v>11.37710235617138</v>
+        <v>1</v>
       </c>
       <c r="F53" s="4" t="n">
-        <v>1.025955118735997</v>
+        <v>1.453023069981469</v>
       </c>
       <c r="G53" s="4" t="n">
-        <v>1.058699769257785</v>
+        <v>1.003351806989015</v>
       </c>
       <c r="H53" s="4" t="n">
-        <v>1.002818141514728</v>
+        <v>1.007569529101579</v>
       </c>
       <c r="I53" s="4" t="n">
         <v>1</v>
@@ -6033,25 +6033,25 @@
         <v/>
       </c>
       <c r="B54" s="4" t="n">
-        <v>3.288299610405932</v>
+        <v/>
       </c>
       <c r="C54" s="4" t="n">
-        <v>1.090999426715078</v>
+        <v>3.164161392405063</v>
       </c>
       <c r="D54" s="4" t="n">
-        <v>5.085370980172354</v>
+        <v>3.157227986831688</v>
       </c>
       <c r="E54" s="4" t="n">
-        <v>1</v>
+        <v>1.044876194498706</v>
       </c>
       <c r="F54" s="4" t="n">
-        <v>1.453023069981469</v>
+        <v>1.052182810368349</v>
       </c>
       <c r="G54" s="4" t="n">
-        <v>1.003351806989015</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="H54" s="4" t="n">
-        <v>1.007569529101579</v>
+        <v>1.516237469235848</v>
       </c>
       <c r="I54" t="n">
         <v/>
@@ -6111,19 +6111,19 @@
         <v/>
       </c>
       <c r="C55" s="4" t="n">
-        <v>3.164161392405063</v>
+        <v>1.133725944360939</v>
       </c>
       <c r="D55" s="4" t="n">
-        <v>3.157227986831688</v>
+        <v>1.738274288198218</v>
       </c>
       <c r="E55" s="4" t="n">
-        <v>1.044876194498706</v>
+        <v>1.012515941884018</v>
       </c>
       <c r="F55" s="4" t="n">
-        <v>1.052182810368349</v>
+        <v>1</v>
       </c>
       <c r="G55" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="H55" t="n">
         <v/>
@@ -6183,16 +6183,16 @@
         <v/>
       </c>
       <c r="B56" s="4" t="n">
-        <v/>
+        <v>4.448797250859106</v>
       </c>
       <c r="C56" s="4" t="n">
-        <v>1.133725944360939</v>
+        <v>4.186200019662093</v>
       </c>
       <c r="D56" s="4" t="n">
-        <v>1.738274288198218</v>
+        <v>1.024303016070051</v>
       </c>
       <c r="E56" s="4" t="n">
-        <v>1.012515941884018</v>
+        <v>1.032753165593455</v>
       </c>
       <c r="F56" s="4" t="n">
         <v>1</v>
@@ -6258,16 +6258,16 @@
         <v/>
       </c>
       <c r="B57" s="4" t="n">
-        <v>4.448797250859106</v>
+        <v>13.31097079715864</v>
       </c>
       <c r="C57" s="4" t="n">
-        <v>4.186200019662093</v>
+        <v>2.188259709457456</v>
       </c>
       <c r="D57" s="4" t="n">
-        <v>1.024303016070051</v>
+        <v>1</v>
       </c>
       <c r="E57" s="4" t="n">
-        <v>1.032753165593455</v>
+        <v>1.007126405636093</v>
       </c>
       <c r="F57" t="n">
         <v/>
@@ -6333,13 +6333,13 @@
         <v/>
       </c>
       <c r="B58" s="4" t="n">
-        <v>13.31097079715864</v>
+        <v>140.3263207106124</v>
       </c>
       <c r="C58" s="4" t="n">
-        <v>2.188259709457456</v>
+        <v>1.576846194337649</v>
       </c>
       <c r="D58" s="4" t="n">
-        <v>1</v>
+        <v>1.706752334128455</v>
       </c>
       <c r="E58" t="n">
         <v/>
@@ -6408,10 +6408,10 @@
         <v/>
       </c>
       <c r="B59" s="4" t="n">
-        <v>140.3263207106124</v>
+        <v>12.94862593257154</v>
       </c>
       <c r="C59" s="4" t="n">
-        <v>1.576846194337649</v>
+        <v>1.529089145449374</v>
       </c>
       <c r="D59" t="n">
         <v/>
@@ -6483,7 +6483,7 @@
         <v/>
       </c>
       <c r="B60" s="4" t="n">
-        <v>12.94862593257154</v>
+        <v>18.66371976647206</v>
       </c>
       <c r="C60" t="n">
         <v/>
@@ -6704,61 +6704,61 @@
         <v>1</v>
       </c>
       <c r="B2" s="34" t="n">
-        <v>0.006887135561139205</v>
+        <v>0.006824243316637208</v>
       </c>
       <c r="C2" s="34" t="n">
-        <v>0.00631632221891599</v>
+        <v>0.006105786406027641</v>
       </c>
       <c r="D2" s="34" t="n">
-        <v>0.001490508197456753</v>
+        <v>0.001390420184603347</v>
       </c>
       <c r="E2" s="34" t="n">
-        <v>0.009731236613320055</v>
+        <v>0.01359026404222064</v>
       </c>
       <c r="F2" s="34" t="n">
-        <v>6.193302915676014e-05</v>
+        <v>6.197946285104701e-05</v>
       </c>
       <c r="G2" s="34" t="n">
-        <v>7.082069980582081e-05</v>
+        <v>0.0001031597865354914</v>
       </c>
       <c r="H2" s="34" t="n">
-        <v>6.35165186382335e-06</v>
+        <v>6.715859440612418e-06</v>
       </c>
       <c r="I2" s="34" t="n">
-        <v>0.004056061903586173</v>
+        <v>0.006376425011792599</v>
       </c>
       <c r="J2" s="34" t="n">
-        <v>0.00631632221891599</v>
+        <v>0.006105786406027641</v>
       </c>
       <c r="M2" s="33" t="n">
         <v>1</v>
       </c>
       <c r="N2" s="22" t="n">
-        <v>9.30123663060844</v>
+        <v>9.502582876236923</v>
       </c>
       <c r="O2" s="22" t="n">
-        <v>11.46009314788822</v>
+        <v>11.89178220494007</v>
       </c>
       <c r="P2" s="22" t="n">
-        <v>17.34109444462213</v>
+        <v>17.55388868015673</v>
       </c>
       <c r="Q2" s="22" t="n">
-        <v>30.86102738828463</v>
+        <v>29.33076964161727</v>
       </c>
       <c r="R2" s="22" t="n">
-        <v>18.98199008899967</v>
+        <v>19.36407409124247</v>
       </c>
       <c r="S2" s="22" t="n">
-        <v>27.55219781718148</v>
+        <v>26.66335001211054</v>
       </c>
       <c r="T2" s="22" t="n">
-        <v>42.75867867280043</v>
+        <v>37.93968689153476</v>
       </c>
       <c r="U2" s="22" t="n">
-        <v>55.52863914678087</v>
+        <v>57.31288880321868</v>
       </c>
       <c r="V2" s="22" t="n">
-        <v>11.46009314788822</v>
+        <v>11.89178220494007</v>
       </c>
     </row>
     <row r="3">
@@ -6767,62 +6767,62 @@
         <v/>
       </c>
       <c r="B3" s="34" t="n">
-        <v>0.06405887756123399</v>
+        <v>0.064847937683951</v>
       </c>
       <c r="C3" s="34" t="n">
-        <v>0.07238564098085325</v>
+        <v>0.0726086821303645</v>
       </c>
       <c r="D3" s="34" t="n">
-        <v>0.02584704342258103</v>
+        <v>0.02440728113917012</v>
       </c>
       <c r="E3" s="34" t="n">
-        <v>0.3003159596455484</v>
+        <v>0.398612903991128</v>
       </c>
       <c r="F3" s="34" t="n">
-        <v>0.001175612145635349</v>
+        <v>0.001200174910783084</v>
       </c>
       <c r="G3" s="34" t="n">
-        <v>0.001951265930601201</v>
+        <v>0.002750585495570416</v>
       </c>
       <c r="H3" s="34" t="n">
-        <v>0.0002715882410867166</v>
+        <v>0.0002547976043843929</v>
       </c>
       <c r="I3" s="34" t="n">
-        <v>0.2252275978012417</v>
+        <v>0.3654513376629315</v>
       </c>
       <c r="J3" s="34" t="n">
-        <v>0.07238564098085325</v>
+        <v>0.0726086821303645</v>
       </c>
       <c r="M3">
         <f>+M2+1</f>
         <v/>
       </c>
       <c r="N3" s="22" t="n">
-        <v>3.334145435107039</v>
+        <v>3.304657170261385</v>
       </c>
       <c r="O3" s="22" t="n">
-        <v>1.55475175557472</v>
+        <v>1.551696653231898</v>
       </c>
       <c r="P3" s="22" t="n">
-        <v>1.968482947209458</v>
+        <v>1.905323940369699</v>
       </c>
       <c r="Q3" s="22" t="n">
-        <v>2.086402808257898</v>
+        <v>1.606729072762053</v>
       </c>
       <c r="R3" s="22" t="n">
-        <v>6.118206703351464</v>
+        <v>6.139719206683786</v>
       </c>
       <c r="S3" s="22" t="n">
-        <v>1.778239424153307</v>
+        <v>1.757476900927979</v>
       </c>
       <c r="T3" s="22" t="n">
-        <v>2.223365447823047</v>
+        <v>2.296380400945429</v>
       </c>
       <c r="U3" s="22" t="n">
-        <v>2.650435307819067</v>
+        <v>1.764731683081493</v>
       </c>
       <c r="V3" s="22" t="n">
-        <v>1.55475175557472</v>
+        <v>1.551696653231898</v>
       </c>
     </row>
     <row r="4">
@@ -6831,62 +6831,62 @@
         <v/>
       </c>
       <c r="B4" s="34" t="n">
-        <v>0.2135816141988691</v>
+        <v>0.2143002022439321</v>
       </c>
       <c r="C4" s="34" t="n">
-        <v>0.112541702393383</v>
+        <v>0.1126666490572653</v>
       </c>
       <c r="D4" s="34" t="n">
-        <v>0.05087946421313315</v>
+        <v>0.04650377707379465</v>
       </c>
       <c r="E4" s="34" t="n">
-        <v>0.6265800615691376</v>
+        <v>0.6404629416206545</v>
       </c>
       <c r="F4" s="34" t="n">
-        <v>0.007192638109967587</v>
+        <v>0.007368736951114902</v>
       </c>
       <c r="G4" s="34" t="n">
-        <v>0.003469818004802247</v>
+        <v>0.004834090472492543</v>
       </c>
       <c r="H4" s="34" t="n">
-        <v>0.0006038399112672411</v>
+        <v>0.0005851122249161671</v>
       </c>
       <c r="I4" s="34" t="n">
-        <v>0.5969511775076829</v>
+        <v>0.6449235541982882</v>
       </c>
       <c r="J4" s="34" t="n">
-        <v>0.112541702393383</v>
+        <v>0.1126666490572653</v>
       </c>
       <c r="M4">
         <f>+M3+1</f>
         <v/>
       </c>
       <c r="N4" s="22" t="n">
-        <v>1.104800080761385</v>
+        <v>1.164008226203702</v>
       </c>
       <c r="O4" s="22" t="n">
-        <v>1.400897124466154</v>
+        <v>1.490610202074475</v>
       </c>
       <c r="P4" s="22" t="n">
-        <v>1.393657823885616</v>
+        <v>1.576546830893385</v>
       </c>
       <c r="Q4" s="22" t="n">
-        <v>1.098619253870636</v>
+        <v>1.404352666818902</v>
       </c>
       <c r="R4" s="22" t="n">
-        <v>1.45215597226766</v>
+        <v>1.486989053197451</v>
       </c>
       <c r="S4" s="22" t="n">
-        <v>1.787501698465289</v>
+        <v>1.780772584770553</v>
       </c>
       <c r="T4" s="22" t="n">
-        <v>2.177938413126084</v>
+        <v>2.285321434233461</v>
       </c>
       <c r="U4" s="22" t="n">
-        <v>1.25419243475609</v>
+        <v>1.243685116732835</v>
       </c>
       <c r="V4" s="22" t="n">
-        <v>1.400897124466154</v>
+        <v>1.490610202074475</v>
       </c>
     </row>
     <row r="5">
@@ -6895,62 +6895,62 @@
         <v/>
       </c>
       <c r="B5" s="34" t="n">
-        <v>0.2359649846160575</v>
+        <v>0.249447198289054</v>
       </c>
       <c r="C5" s="34" t="n">
-        <v>0.1576593472654159</v>
+        <v>0.1679420565183042</v>
       </c>
       <c r="D5" s="34" t="n">
-        <v>0.07090856337574124</v>
+        <v>0.07331538237026343</v>
       </c>
       <c r="E5" s="34" t="n">
-        <v>0.6883729197313032</v>
+        <v>0.899435840063645</v>
       </c>
       <c r="F5" s="34" t="n">
-        <v>0.01044483238774941</v>
+        <v>0.01095723118219942</v>
       </c>
       <c r="G5" s="34" t="n">
-        <v>0.006202305576949456</v>
+        <v>0.008608415785715251</v>
       </c>
       <c r="H5" s="34" t="n">
-        <v>0.001315126138127571</v>
+        <v>0.001337169509032946</v>
       </c>
       <c r="I5" s="34" t="n">
-        <v>0.7486916507488754</v>
+        <v>0.8020818257868531</v>
       </c>
       <c r="J5" s="34" t="n">
-        <v>0.1576593472654159</v>
+        <v>0.1679420565183042</v>
       </c>
       <c r="M5">
         <f>+M4+1</f>
         <v/>
       </c>
       <c r="N5" s="22" t="n">
-        <v>1.348976647812607</v>
+        <v>1.350904484785085</v>
       </c>
       <c r="O5" s="22" t="n">
-        <v>1.713542381222695</v>
+        <v>1.616881300517664</v>
       </c>
       <c r="P5" s="22" t="n">
-        <v>2.220937522208347</v>
+        <v>2.091209988158314</v>
       </c>
       <c r="Q5" s="22" t="n">
-        <v>1.031234817462521</v>
+        <v>1.025107710269177</v>
       </c>
       <c r="R5" s="22" t="n">
-        <v>2.625531635890515</v>
+        <v>2.625887956172319</v>
       </c>
       <c r="S5" s="22" t="n">
-        <v>2.898267180140561</v>
+        <v>2.035311714422237</v>
       </c>
       <c r="T5" s="22" t="n">
-        <v>2.962183805804562</v>
+        <v>2.745729010630609</v>
       </c>
       <c r="U5" s="22" t="n">
-        <v>1.03004843399206</v>
+        <v>1.017465171037855</v>
       </c>
       <c r="V5" s="22" t="n">
-        <v>1.713542381222695</v>
+        <v>1.616881300517664</v>
       </c>
     </row>
     <row r="6">
@@ -6959,62 +6959,62 @@
         <v/>
       </c>
       <c r="B6" s="34" t="n">
-        <v>0.3183112539485227</v>
+        <v>0.3369793388857575</v>
       </c>
       <c r="C6" s="34" t="n">
-        <v>0.2701559733351965</v>
+        <v>0.2715423707549268</v>
       </c>
       <c r="D6" s="34" t="n">
-        <v>0.1574834890470723</v>
+        <v>0.1533178598983409</v>
       </c>
       <c r="E6" s="34" t="n">
-        <v>0.7098741222252529</v>
+        <v>0.9220186145416772</v>
       </c>
       <c r="F6" s="34" t="n">
-        <v>0.02742323786560993</v>
+        <v>0.02877246139433323</v>
       </c>
       <c r="G6" s="34" t="n">
-        <v>0.01797593869487538</v>
+        <v>0.01752080949128356</v>
       </c>
       <c r="H6" s="34" t="n">
-        <v>0.003895645348951783</v>
+        <v>0.003671505113082448</v>
       </c>
       <c r="I6" s="34" t="n">
-        <v>0.7711886623968093</v>
+        <v>0.8160903220605755</v>
       </c>
       <c r="J6" s="34" t="n">
-        <v>0.2701559733351965</v>
+        <v>0.2715423707549268</v>
       </c>
       <c r="M6">
         <f>+M5+1</f>
         <v/>
       </c>
       <c r="N6" s="22" t="n">
-        <v>1.201036499667883</v>
+        <v>1.181438615570783</v>
       </c>
       <c r="O6" s="22" t="n">
-        <v>1.363706305729441</v>
+        <v>1.341620794567921</v>
       </c>
       <c r="P6" s="22" t="n">
-        <v>1.465619269216363</v>
+        <v>1.506741687956158</v>
       </c>
       <c r="Q6" s="22" t="n">
-        <v>1.22893125020471</v>
+        <v>1.008688482870165</v>
       </c>
       <c r="R6" s="22" t="n">
-        <v>1.380910333512522</v>
+        <v>1.334378383413701</v>
       </c>
       <c r="S6" s="22" t="n">
-        <v>1.351354477725104</v>
+        <v>1.339186837939921</v>
       </c>
       <c r="T6" s="22" t="n">
-        <v>1.650143474145273</v>
+        <v>1.643088749240205</v>
       </c>
       <c r="U6" s="22" t="n">
-        <v>1.168401960116606</v>
+        <v>1.017394270122783</v>
       </c>
       <c r="V6" s="22" t="n">
-        <v>1.363706305729441</v>
+        <v>1.341620794567921</v>
       </c>
     </row>
     <row r="7">
@@ -7023,62 +7023,62 @@
         <v/>
       </c>
       <c r="B7" s="34" t="n">
-        <v>0.3823034342472282</v>
+        <v>0.3981204036091471</v>
       </c>
       <c r="C7" s="34" t="n">
-        <v>0.3684134043676821</v>
+        <v>0.3643068912110818</v>
       </c>
       <c r="D7" s="34" t="n">
-        <v>0.2308108361308132</v>
+        <v>0.2310104110170519</v>
       </c>
       <c r="E7" s="34" t="n">
-        <v>0.872386492514251</v>
+        <v>0.9300295574800957</v>
       </c>
       <c r="F7" s="34" t="n">
-        <v>0.03786903254699262</v>
+        <v>0.03839335052220349</v>
       </c>
       <c r="G7" s="34" t="n">
-        <v>0.0242918652466318</v>
+        <v>0.02346363746077979</v>
       </c>
       <c r="H7" s="34" t="n">
-        <v>0.006428373750157171</v>
+        <v>0.006032608744083656</v>
       </c>
       <c r="I7" s="34" t="n">
-        <v>0.9010583447641356</v>
+        <v>0.8302856175670863</v>
       </c>
       <c r="J7" s="34" t="n">
-        <v>0.3684134043676821</v>
+        <v>0.3643068912110818</v>
       </c>
       <c r="M7">
         <f>+M6+1</f>
         <v/>
       </c>
       <c r="N7" s="22" t="n">
-        <v>1.05432472024394</v>
+        <v>1.055091172759052</v>
       </c>
       <c r="O7" s="22" t="n">
-        <v>1.066853889416612</v>
+        <v>1.110692205617429</v>
       </c>
       <c r="P7" s="22" t="n">
-        <v>1.030776596841588</v>
+        <v>1.031618879940483</v>
       </c>
       <c r="Q7" s="22" t="n">
-        <v>1.04499049438312</v>
+        <v>1.001884303247558</v>
       </c>
       <c r="R7" s="22" t="n">
         <v>1.432036305112748</v>
       </c>
       <c r="S7" s="22" t="n">
-        <v>1.648054457669123</v>
+        <v>1.647476981816621</v>
       </c>
       <c r="T7" s="22" t="n">
         <v>1.016748989124327</v>
       </c>
       <c r="U7" s="22" t="n">
-        <v>1.020683858748934</v>
+        <v>1.001117268996339</v>
       </c>
       <c r="V7" s="22" t="n">
-        <v>1.066853889416612</v>
+        <v>1.110692205617429</v>
       </c>
     </row>
     <row r="8">
@@ -7087,62 +7087,62 @@
         <v/>
       </c>
       <c r="B8" s="34" t="n">
-        <v>0.4030719613610065</v>
+        <v>0.4200533235432823</v>
       </c>
       <c r="C8" s="34" t="n">
-        <v>0.3930432733628765</v>
+        <v>0.4046328245208652</v>
       </c>
       <c r="D8" s="34" t="n">
-        <v>0.2379144081810812</v>
+        <v>0.2383147014680016</v>
       </c>
       <c r="E8" s="34" t="n">
-        <v>0.9116355921056233</v>
+        <v>0.9317820151955803</v>
       </c>
       <c r="F8" s="34" t="n">
-        <v>0.05422982944678972</v>
+        <v>0.05498067182271489</v>
       </c>
       <c r="G8" s="34" t="n">
-        <v>0.04003431680480918</v>
+        <v>0.03865580262632489</v>
       </c>
       <c r="H8" s="34" t="n">
-        <v>0.006536042512185663</v>
+        <v>0.006133648842329633</v>
       </c>
       <c r="I8" s="34" t="n">
-        <v>0.9196957082917848</v>
+        <v>0.8312132699456999</v>
       </c>
       <c r="J8" s="34" t="n">
-        <v>0.3930432733628765</v>
+        <v>0.4046328245208652</v>
       </c>
       <c r="M8">
         <f>+M7+1</f>
         <v/>
       </c>
       <c r="N8" s="22" t="n">
-        <v>1.072886702951498</v>
+        <v>1.058962974305615</v>
       </c>
       <c r="O8" s="22" t="n">
-        <v>1.062130478788855</v>
+        <v>1.069553119485011</v>
       </c>
       <c r="P8" s="22" t="n">
-        <v>1.138864869258691</v>
+        <v>1.151244441363191</v>
       </c>
       <c r="Q8" s="22" t="n">
-        <v>1.008981486185723</v>
+        <v>1.03748558520884</v>
       </c>
       <c r="R8" s="22" t="n">
-        <v>1.201180661148463</v>
+        <v>1.181142373950606</v>
       </c>
       <c r="S8" s="22" t="n">
-        <v>1.212457302965189</v>
+        <v>1.255477092068176</v>
       </c>
       <c r="T8" s="22" t="n">
-        <v>1.415538507048484</v>
+        <v>1.501578085254458</v>
       </c>
       <c r="U8" s="22" t="n">
-        <v>1.008417431007215</v>
+        <v>1.175541713284052</v>
       </c>
       <c r="V8" s="22" t="n">
-        <v>1.062130478788855</v>
+        <v>1.069553119485011</v>
       </c>
     </row>
     <row r="9">
@@ -7151,44 +7151,44 @@
         <v/>
       </c>
       <c r="B9" s="34" t="n">
-        <v>0.432450547676804</v>
+        <v>0.4448209168663533</v>
       </c>
       <c r="C9" s="34" t="n">
-        <v>0.417463240121651</v>
+        <v>0.4327762997123223</v>
       </c>
       <c r="D9" s="34" t="n">
-        <v>0.2709523613679058</v>
+        <v>0.274358475360165</v>
       </c>
       <c r="E9" s="34" t="n">
-        <v>0.9198234345825331</v>
+        <v>0.9667104093222588</v>
       </c>
       <c r="F9" s="34" t="n">
-        <v>0.06513982238886325</v>
+        <v>0.06494000123808066</v>
       </c>
       <c r="G9" s="34" t="n">
-        <v>0.04853989977921287</v>
+        <v>0.04853147467285975</v>
       </c>
       <c r="H9" s="34" t="n">
-        <v>0.009252019859704714</v>
+        <v>0.009210152684288554</v>
       </c>
       <c r="I9" s="34" t="n">
-        <v>0.9274371834639624</v>
+        <v>0.9771258714564072</v>
       </c>
       <c r="J9" s="34" t="n">
-        <v>0.417463240121651</v>
+        <v>0.4327762997123223</v>
       </c>
       <c r="M9">
         <f>+M8+1</f>
         <v/>
       </c>
       <c r="N9" s="22" t="n">
-        <v>1.139462581605981</v>
+        <v>1.141761080119257</v>
       </c>
       <c r="O9" s="22" t="n">
-        <v>1.159440826750094</v>
+        <v>1.159309331877449</v>
       </c>
       <c r="P9" s="22" t="n">
-        <v>1.283436956072496</v>
+        <v>1.294490103486976</v>
       </c>
       <c r="Q9" s="22" t="n">
         <v>1</v>
@@ -7197,7 +7197,7 @@
         <v>2.443426844143255</v>
       </c>
       <c r="S9" s="22" t="n">
-        <v>2.924002550583173</v>
+        <v>2.91854200631909</v>
       </c>
       <c r="T9" s="22" t="n">
         <v>4.82578567394722</v>
@@ -7206,7 +7206,7 @@
         <v>1</v>
       </c>
       <c r="V9" s="22" t="n">
-        <v>1.159440826750094</v>
+        <v>1.159309331877449</v>
       </c>
     </row>
     <row r="10">
@@ -7215,62 +7215,62 @@
         <v/>
       </c>
       <c r="B10" s="34" t="n">
-        <v>0.4927612174727315</v>
+        <v>0.5078792105009658</v>
       </c>
       <c r="C10" s="34" t="n">
-        <v>0.4840239242644199</v>
+        <v>0.5017216028718872</v>
       </c>
       <c r="D10" s="34" t="n">
-        <v>0.3477502739146799</v>
+        <v>0.355154331161509</v>
       </c>
       <c r="E10" s="34" t="n">
-        <v>0.9198234345825331</v>
+        <v>0.9667104093222588</v>
       </c>
       <c r="F10" s="34" t="n">
-        <v>0.1591643906476722</v>
+        <v>0.1586761422838225</v>
       </c>
       <c r="G10" s="34" t="n">
-        <v>0.14193079075947</v>
+        <v>0.1416411474613522</v>
       </c>
       <c r="H10" s="34" t="n">
-        <v>0.04464826489403818</v>
+        <v>0.04444622287870624</v>
       </c>
       <c r="I10" s="34" t="n">
-        <v>0.9274371834639624</v>
+        <v>0.9771258714564072</v>
       </c>
       <c r="J10" s="34" t="n">
-        <v>0.4840239242644199</v>
+        <v>0.5017216028718872</v>
       </c>
       <c r="M10">
         <f>+M9+1</f>
         <v/>
       </c>
       <c r="N10" s="22" t="n">
-        <v>1.080380987062933</v>
+        <v>1.075006694918287</v>
       </c>
       <c r="O10" s="22" t="n">
-        <v>1.088465347673995</v>
+        <v>1.081018489832194</v>
       </c>
       <c r="P10" s="22" t="n">
-        <v>1.148250993370428</v>
+        <v>1.11954932712066</v>
       </c>
       <c r="Q10" s="22" t="n">
-        <v>1.001377866594038</v>
+        <v>1</v>
       </c>
       <c r="R10" s="22" t="n">
         <v>1.139889759969698</v>
       </c>
       <c r="S10" s="22" t="n">
-        <v>1.174862199962122</v>
+        <v>1.174050064490106</v>
       </c>
       <c r="T10" s="22" t="n">
         <v>1.26089577360884</v>
       </c>
       <c r="U10" s="22" t="n">
-        <v>1.001813203749705</v>
+        <v>1</v>
       </c>
       <c r="V10" s="22" t="n">
-        <v>1.088465347673995</v>
+        <v>1.081018489832194</v>
       </c>
     </row>
     <row r="11">
@@ -7279,62 +7279,62 @@
         <v/>
       </c>
       <c r="B11" s="34" t="n">
-        <v>0.5323698505195225</v>
+        <v>0.5459735514983525</v>
       </c>
       <c r="C11" s="34" t="n">
-        <v>0.5268432690070034</v>
+        <v>0.5423703294527551</v>
       </c>
       <c r="D11" s="34" t="n">
-        <v>0.3993045974673696</v>
+        <v>0.3976127924758553</v>
       </c>
       <c r="E11" s="34" t="n">
-        <v>0.9210908285654575</v>
+        <v>0.9667104093222588</v>
       </c>
       <c r="F11" s="34" t="n">
-        <v>0.1814298590510983</v>
+        <v>0.180873309740824</v>
       </c>
       <c r="G11" s="34" t="n">
-        <v>0.1667491210740346</v>
+        <v>0.1662937983114532</v>
       </c>
       <c r="H11" s="34" t="n">
-        <v>0.05629680850386067</v>
+        <v>0.05604205458063721</v>
       </c>
       <c r="I11" s="34" t="n">
-        <v>0.9291188160426356</v>
+        <v>0.9771258714564072</v>
       </c>
       <c r="J11" s="34" t="n">
-        <v>0.5268432690070034</v>
+        <v>0.5423703294527551</v>
       </c>
       <c r="M11">
         <f>+M10+1</f>
         <v/>
       </c>
       <c r="N11" s="22" t="n">
-        <v>1.099587577686612</v>
+        <v>1.099758194742944</v>
       </c>
       <c r="O11" s="22" t="n">
-        <v>1.107121486709597</v>
+        <v>1.104574431945886</v>
       </c>
       <c r="P11" s="22" t="n">
-        <v>1.249961728913851</v>
+        <v>1.212650498802147</v>
       </c>
       <c r="Q11" s="22" t="n">
-        <v>1.018934791036097</v>
+        <v>1.034284603025576</v>
       </c>
       <c r="R11" s="22" t="n">
-        <v>1.612498470636575</v>
+        <v>1.617407525843447</v>
       </c>
       <c r="S11" s="22" t="n">
-        <v>1.714581549076004</v>
+        <v>1.71921696233375</v>
       </c>
       <c r="T11" s="22" t="n">
-        <v>2.42650240327591</v>
+        <v>2.437956865425276</v>
       </c>
       <c r="U11" s="22" t="n">
-        <v>1.013087921162494</v>
+        <v>1.023209489963313</v>
       </c>
       <c r="V11" s="22" t="n">
-        <v>1.107121486709597</v>
+        <v>1.104574431945886</v>
       </c>
     </row>
     <row r="12">
@@ -7343,62 +7343,62 @@
         <v/>
       </c>
       <c r="B12" s="34" t="n">
-        <v>0.5853872743661453</v>
+        <v>0.6004388873732218</v>
       </c>
       <c r="C12" s="34" t="n">
-        <v>0.5832795032459778</v>
+        <v>0.5990883985595801</v>
       </c>
       <c r="D12" s="34" t="n">
-        <v>0.4991154650135629</v>
+        <v>0.4821653511259605</v>
       </c>
       <c r="E12" s="34" t="n">
-        <v>0.9385314909296101</v>
+        <v>0.9998536919465648</v>
       </c>
       <c r="F12" s="34" t="n">
-        <v>0.2925553702477055</v>
+        <v>0.2925458523990215</v>
       </c>
       <c r="G12" s="34" t="n">
-        <v>0.2859049663181805</v>
+        <v>0.2858951187879578</v>
       </c>
       <c r="H12" s="34" t="n">
-        <v>0.1366043411313816</v>
+        <v>0.1366281117174026</v>
       </c>
       <c r="I12" s="34" t="n">
-        <v>0.941279049857591</v>
+        <v>0.9998044645628683</v>
       </c>
       <c r="J12" s="34" t="n">
-        <v>0.5832795032459778</v>
+        <v>0.5990883985595801</v>
       </c>
       <c r="M12">
         <f>+M11+1</f>
         <v/>
       </c>
       <c r="N12" s="22" t="n">
-        <v>1.092419786025887</v>
+        <v>1.090393371360139</v>
       </c>
       <c r="O12" s="22" t="n">
-        <v>1.096367414672652</v>
+        <v>1.092851379316947</v>
       </c>
       <c r="P12" s="22" t="n">
-        <v>1.197915320281792</v>
+        <v>1.192838995228502</v>
       </c>
       <c r="Q12" s="22" t="n">
-        <v>1.002731085786641</v>
+        <v>1.000146329462614</v>
       </c>
       <c r="R12" s="22" t="n">
-        <v>1.387213978711208</v>
+        <v>1.387259111098604</v>
       </c>
       <c r="S12" s="22" t="n">
-        <v>1.419481810270475</v>
+        <v>1.419530703690154</v>
       </c>
       <c r="T12" s="22" t="n">
-        <v>1.838963620540951</v>
+        <v>1.839061407380309</v>
       </c>
       <c r="U12" s="22" t="n">
-        <v>1.002597398687527</v>
+        <v>1.000195573678716</v>
       </c>
       <c r="V12" s="22" t="n">
-        <v>1.096367414672652</v>
+        <v>1.092851379316947</v>
       </c>
     </row>
     <row r="13">
@@ -7407,47 +7407,47 @@
         <v/>
       </c>
       <c r="B13" s="34" t="n">
-        <v>0.6394886410053415</v>
+        <v>0.6547145826986182</v>
       </c>
       <c r="C13" s="34" t="n">
-        <v>0.6394886410053415</v>
+        <v>0.6547145826986182</v>
       </c>
       <c r="D13" s="34" t="n">
-        <v>0.5978980621293175</v>
+        <v>0.5751456329710884</v>
       </c>
       <c r="E13" s="34" t="n">
-        <v>0.9410947009448031</v>
+        <v>1</v>
       </c>
       <c r="F13" s="34" t="n">
-        <v>0.4058368991546501</v>
+        <v>0.40583689915465</v>
       </c>
       <c r="G13" s="34" t="n">
-        <v>0.4058368991546501</v>
+        <v>0.40583689915465</v>
       </c>
       <c r="H13" s="34" t="n">
-        <v>0.2512104137485766</v>
+        <v>0.2512674874227204</v>
       </c>
       <c r="I13" s="34" t="n">
-        <v>0.943723926826288</v>
+        <v>1</v>
       </c>
       <c r="J13" s="34" t="n">
-        <v>0.6394886410053415</v>
+        <v>0.6547145826986182</v>
       </c>
       <c r="M13">
         <f>+M12+1</f>
         <v/>
       </c>
       <c r="N13" s="22" t="n">
-        <v>1.138924966647758</v>
+        <v>1.13575982198818</v>
       </c>
       <c r="O13" s="22" t="n">
-        <v>1.138924966647758</v>
+        <v>1.13575982198818</v>
       </c>
       <c r="P13" s="22" t="n">
-        <v>1.17100462699576</v>
+        <v>1.253971533267368</v>
       </c>
       <c r="Q13" s="22" t="n">
-        <v>1.002639338175688</v>
+        <v>1</v>
       </c>
       <c r="R13" s="22" t="n">
         <v>1.23019396172803</v>
@@ -7456,13 +7456,13 @@
         <v>1.23019396172803</v>
       </c>
       <c r="T13" s="22" t="n">
-        <v>1.460387923456061</v>
+        <v>1.460056206426843</v>
       </c>
       <c r="U13" s="22" t="n">
-        <v>1.002880000367611</v>
+        <v>1</v>
       </c>
       <c r="V13" s="22" t="n">
-        <v>1.138924966647758</v>
+        <v>1.13575982198818</v>
       </c>
     </row>
     <row r="14">
@@ -7471,47 +7471,47 @@
         <v/>
       </c>
       <c r="B14" s="34" t="n">
-        <v>0.7283295791286287</v>
+        <v>0.7435985178988479</v>
       </c>
       <c r="C14" s="34" t="n">
-        <v>0.7283295791286287</v>
+        <v>0.7435985178988479</v>
       </c>
       <c r="D14" s="34" t="n">
-        <v>0.7001413972252291</v>
+        <v>0.7212162512287864</v>
       </c>
       <c r="E14" s="34" t="n">
-        <v>0.9435785681159442</v>
+        <v>1</v>
       </c>
       <c r="F14" s="34" t="n">
-        <v>0.4992581027864781</v>
+        <v>0.499258102786478</v>
       </c>
       <c r="G14" s="34" t="n">
-        <v>0.4992581027864781</v>
+        <v>0.499258102786478</v>
       </c>
       <c r="H14" s="34" t="n">
         <v>0.3668646544848216</v>
       </c>
       <c r="I14" s="34" t="n">
-        <v>0.9464418520824708</v>
+        <v>1</v>
       </c>
       <c r="J14" s="34" t="n">
-        <v>0.7283295791286287</v>
+        <v>0.7435985178988479</v>
       </c>
       <c r="M14">
         <f>+M13+1</f>
         <v/>
       </c>
       <c r="N14" s="22" t="n">
-        <v>1.104306490925456</v>
+        <v>1.096352340536604</v>
       </c>
       <c r="O14" s="22" t="n">
-        <v>1.104306490925456</v>
+        <v>1.096352340536604</v>
       </c>
       <c r="P14" s="22" t="n">
-        <v>1.124604476478356</v>
+        <v>1.111314420202917</v>
       </c>
       <c r="Q14" s="22" t="n">
-        <v>1.055791599762189</v>
+        <v>1</v>
       </c>
       <c r="R14" s="22" t="n">
         <v>1.038932412432321</v>
@@ -7523,10 +7523,10 @@
         <v>1.071376089459255</v>
       </c>
       <c r="U14" s="22" t="n">
-        <v>1.053664266348044</v>
+        <v>1</v>
       </c>
       <c r="V14" s="22" t="n">
-        <v>1.104306490925456</v>
+        <v>1.096352340536604</v>
       </c>
     </row>
     <row r="15">
@@ -7535,16 +7535,16 @@
         <v/>
       </c>
       <c r="B15" s="34" t="n">
-        <v>0.8042990817647501</v>
+        <v>0.815245975517952</v>
       </c>
       <c r="C15" s="34" t="n">
-        <v>0.8042990817647501</v>
+        <v>0.815245975517952</v>
       </c>
       <c r="D15" s="34" t="n">
-        <v>0.7873821494873033</v>
+        <v>0.8014980200752398</v>
       </c>
       <c r="E15" s="34" t="n">
-        <v>0.996222325932448</v>
+        <v>1</v>
       </c>
       <c r="F15" s="34" t="n">
         <v>0.5186954251543393</v>
@@ -7556,26 +7556,26 @@
         <v>0.3930500188827688</v>
       </c>
       <c r="I15" s="34" t="n">
-        <v>0.9972319597155607</v>
+        <v>1</v>
       </c>
       <c r="J15" s="34" t="n">
-        <v>0.8042990817647501</v>
+        <v>0.815245975517952</v>
       </c>
       <c r="M15">
         <f>+M14+1</f>
         <v/>
       </c>
       <c r="N15" s="22" t="n">
-        <v>1.04657508457691</v>
+        <v>1.043915149002396</v>
       </c>
       <c r="O15" s="22" t="n">
-        <v>1.04657508457691</v>
+        <v>1.043915149002396</v>
       </c>
       <c r="P15" s="22" t="n">
-        <v>1.052947264212579</v>
+        <v>1.049682293693387</v>
       </c>
       <c r="Q15" s="22" t="n">
-        <v>1.003791999003853</v>
+        <v>1</v>
       </c>
       <c r="R15" s="22" t="n">
         <v>1.206806228043125</v>
@@ -7587,10 +7587,10 @@
         <v>1.344677046738541</v>
       </c>
       <c r="U15" s="22" t="n">
-        <v>1.00277572359918</v>
+        <v>1</v>
       </c>
       <c r="V15" s="22" t="n">
-        <v>1.04657508457691</v>
+        <v>1.043915149002396</v>
       </c>
     </row>
     <row r="16">
@@ -7599,13 +7599,13 @@
         <v/>
       </c>
       <c r="B16" s="34" t="n">
-        <v>0.8417593795230742</v>
+        <v>0.8510476240064262</v>
       </c>
       <c r="C16" s="34" t="n">
-        <v>0.8417593795230742</v>
+        <v>0.8510476240064262</v>
       </c>
       <c r="D16" s="34" t="n">
-        <v>0.8290718801924764</v>
+        <v>0.8413182801032858</v>
       </c>
       <c r="E16" s="34" t="n">
         <v>1</v>
@@ -7623,20 +7623,20 @@
         <v>1</v>
       </c>
       <c r="J16" s="34" t="n">
-        <v>0.8417593795230742</v>
+        <v>0.8510476240064262</v>
       </c>
       <c r="M16">
         <f>+M15+1</f>
         <v/>
       </c>
       <c r="N16" s="22" t="n">
-        <v>1.117878665951254</v>
+        <v>1.110983149311433</v>
       </c>
       <c r="O16" s="22" t="n">
-        <v>1.117878665951254</v>
+        <v>1.110983149311433</v>
       </c>
       <c r="P16" s="22" t="n">
-        <v>1.130027891974435</v>
+        <v>1.120718168237242</v>
       </c>
       <c r="Q16" s="22" t="n">
         <v>1</v>
@@ -7654,7 +7654,7 @@
         <v>1</v>
       </c>
       <c r="V16" s="22" t="n">
-        <v>1.117878665951254</v>
+        <v>1.110983149311433</v>
       </c>
     </row>
     <row r="17">
@@ -7663,13 +7663,13 @@
         <v/>
       </c>
       <c r="B17" s="34" t="n">
-        <v>0.9409848522332095</v>
+        <v>0.9454995695326721</v>
       </c>
       <c r="C17" s="34" t="n">
-        <v>0.9409848522332095</v>
+        <v>0.9454995695326721</v>
       </c>
       <c r="D17" s="34" t="n">
-        <v>0.9368743490691854</v>
+        <v>0.9428806817818615</v>
       </c>
       <c r="E17" s="34" t="n">
         <v>1</v>
@@ -7687,20 +7687,20 @@
         <v>1</v>
       </c>
       <c r="J17" s="34" t="n">
-        <v>0.9409848522332095</v>
+        <v>0.9454995695326721</v>
       </c>
       <c r="M17">
         <f>+M16+1</f>
         <v/>
       </c>
       <c r="N17" s="22" t="n">
-        <v>1.062716363208963</v>
+        <v>1.057641941068535</v>
       </c>
       <c r="O17" s="22" t="n">
-        <v>1.062716363208963</v>
+        <v>1.057641941068535</v>
       </c>
       <c r="P17" s="22" t="n">
-        <v>1.067378993771718</v>
+        <v>1.060579582678684</v>
       </c>
       <c r="Q17" s="22" t="n">
         <v>1</v>
@@ -7718,7 +7718,7 @@
         <v>1</v>
       </c>
       <c r="V17" s="22" t="n">
-        <v>1.062716363208963</v>
+        <v>1.057641941068535</v>
       </c>
     </row>
     <row r="18">
@@ -8234,7 +8234,7 @@
         </is>
       </c>
       <c r="H4" s="8" t="n">
-        <v>45808</v>
+        <v>45838</v>
       </c>
       <c r="J4" s="40" t="inlineStr">
         <is>
@@ -8558,7 +8558,7 @@
         <v/>
       </c>
       <c r="B8" s="14" t="n">
-        <v>3502.11</v>
+        <v>2314.85</v>
       </c>
       <c r="C8" s="14">
         <f>+'Completion Factors'!J30</f>
@@ -8582,7 +8582,7 @@
         <v/>
       </c>
       <c r="I8" s="14" t="n">
-        <v>24313.24166666667</v>
+        <v>24142.31666666667</v>
       </c>
       <c r="J8" s="14">
         <f>100*$G8/$I8</f>
@@ -8605,76 +8605,76 @@
         <v/>
       </c>
       <c r="S8" s="22" t="n">
-        <v>71.86</v>
+        <v>41.02</v>
       </c>
       <c r="T8" s="22" t="n">
-        <v>901.8700000000001</v>
+        <v>565.0799999999999</v>
       </c>
       <c r="U8" s="22" t="n">
-        <v>991.0100000000001</v>
+        <v>847.5699999999999</v>
       </c>
       <c r="V8" s="22" t="n">
-        <v>1001.01</v>
+        <v>867.4299999999999</v>
       </c>
       <c r="W8" s="22" t="n">
-        <v>1001.01</v>
+        <v>2287.43</v>
       </c>
       <c r="X8" s="22" t="n">
-        <v>1886.01</v>
+        <v>2287.43</v>
       </c>
       <c r="Y8" s="22" t="n">
-        <v>1886.01</v>
+        <v>2287.43</v>
       </c>
       <c r="Z8" s="22" t="n">
-        <v>3502.11</v>
+        <v>2314.85</v>
       </c>
       <c r="AA8" s="22" t="n">
-        <v>3502.11</v>
+        <v>2314.85</v>
       </c>
       <c r="AB8" s="22" t="n">
-        <v>3502.11</v>
+        <v>2314.85</v>
       </c>
       <c r="AC8" s="22" t="n">
-        <v>3502.11</v>
+        <v>2314.85</v>
       </c>
       <c r="AD8" s="22" t="n">
-        <v>3502.11</v>
+        <v>2314.85</v>
       </c>
       <c r="AE8" s="22" t="n">
-        <v>3502.11</v>
+        <v>2314.85</v>
       </c>
       <c r="AF8" s="22" t="n">
-        <v>3502.11</v>
+        <v>2314.85</v>
       </c>
       <c r="AG8" s="22" t="n">
-        <v>3502.11</v>
+        <v>2314.85</v>
       </c>
       <c r="AH8" s="22" t="n">
-        <v>3502.11</v>
+        <v>2314.85</v>
       </c>
       <c r="AI8" s="22" t="n">
-        <v>3502.11</v>
+        <v>2314.85</v>
       </c>
       <c r="AJ8" s="22" t="n">
-        <v>3502.11</v>
+        <v>2314.85</v>
       </c>
       <c r="AK8" s="22" t="n">
-        <v>3502.11</v>
+        <v>2314.85</v>
       </c>
       <c r="AL8" s="22" t="n">
-        <v>3502.11</v>
+        <v>2314.85</v>
       </c>
       <c r="AM8" s="22" t="n">
-        <v>3502.11</v>
+        <v>2314.85</v>
       </c>
       <c r="AN8" s="22" t="n">
-        <v>3502.11</v>
+        <v>2314.85</v>
       </c>
       <c r="AO8" s="22" t="n">
-        <v>3502.11</v>
+        <v>2314.85</v>
       </c>
       <c r="AP8" s="22" t="n">
-        <v>3502.11</v>
+        <v>2314.85</v>
       </c>
       <c r="AQ8" s="14" t="n"/>
       <c r="AR8" s="14" t="n"/>
@@ -8685,7 +8685,7 @@
         <v/>
       </c>
       <c r="B9" s="14" t="n">
-        <v>2314.85</v>
+        <v>2120.26</v>
       </c>
       <c r="C9" s="14">
         <f>+'Completion Factors'!J29</f>
@@ -8709,7 +8709,7 @@
         <v/>
       </c>
       <c r="I9" s="14" t="n">
-        <v>24142.31666666667</v>
+        <v>23964.32166666667</v>
       </c>
       <c r="J9" s="14">
         <f>100*$G9/$I9</f>
@@ -8732,73 +8732,73 @@
         <v/>
       </c>
       <c r="S9" s="22" t="n">
-        <v>41.02</v>
+        <v>224.75</v>
       </c>
       <c r="T9" s="22" t="n">
-        <v>565.0799999999999</v>
+        <v>838.9400000000001</v>
       </c>
       <c r="U9" s="22" t="n">
-        <v>847.5699999999999</v>
+        <v>884.35</v>
       </c>
       <c r="V9" s="22" t="n">
-        <v>867.4299999999999</v>
+        <v>964.35</v>
       </c>
       <c r="W9" s="22" t="n">
-        <v>2287.43</v>
+        <v>1164.35</v>
       </c>
       <c r="X9" s="22" t="n">
-        <v>2287.43</v>
+        <v>2092.84</v>
       </c>
       <c r="Y9" s="22" t="n">
-        <v>2287.43</v>
+        <v>2092.84</v>
       </c>
       <c r="Z9" s="22" t="n">
-        <v>2314.85</v>
+        <v>2092.84</v>
       </c>
       <c r="AA9" s="22" t="n">
-        <v>2314.85</v>
+        <v>2092.84</v>
       </c>
       <c r="AB9" s="22" t="n">
-        <v>2314.85</v>
+        <v>2092.84</v>
       </c>
       <c r="AC9" s="22" t="n">
-        <v>2314.85</v>
+        <v>2120.26</v>
       </c>
       <c r="AD9" s="22" t="n">
-        <v>2314.85</v>
+        <v>2120.26</v>
       </c>
       <c r="AE9" s="22" t="n">
-        <v>2314.85</v>
+        <v>2120.26</v>
       </c>
       <c r="AF9" s="22" t="n">
-        <v>2314.85</v>
+        <v>2120.26</v>
       </c>
       <c r="AG9" s="22" t="n">
-        <v>2314.85</v>
+        <v>2120.26</v>
       </c>
       <c r="AH9" s="22" t="n">
-        <v>2314.85</v>
+        <v>2120.26</v>
       </c>
       <c r="AI9" s="22" t="n">
-        <v>2314.85</v>
+        <v>2120.26</v>
       </c>
       <c r="AJ9" s="22" t="n">
-        <v>2314.85</v>
+        <v>2120.26</v>
       </c>
       <c r="AK9" s="22" t="n">
-        <v>2314.85</v>
+        <v>2120.26</v>
       </c>
       <c r="AL9" s="22" t="n">
-        <v>2314.85</v>
+        <v>2120.26</v>
       </c>
       <c r="AM9" s="22" t="n">
-        <v>2314.85</v>
+        <v>2120.26</v>
       </c>
       <c r="AN9" s="22" t="n">
-        <v>2314.85</v>
+        <v>2120.26</v>
       </c>
       <c r="AO9" s="22" t="n">
-        <v>2314.85</v>
+        <v>2120.26</v>
       </c>
       <c r="AP9" s="22" t="n">
         <v/>
@@ -8812,7 +8812,7 @@
         <v/>
       </c>
       <c r="B10" s="14" t="n">
-        <v>2120.26</v>
+        <v>8112.929999999999</v>
       </c>
       <c r="C10" s="14">
         <f>+'Completion Factors'!J28</f>
@@ -8836,7 +8836,7 @@
         <v/>
       </c>
       <c r="I10" s="14" t="n">
-        <v>23964.32166666667</v>
+        <v>23798.84</v>
       </c>
       <c r="J10" s="14">
         <f>100*$G10/$I10</f>
@@ -8859,70 +8859,70 @@
         <v/>
       </c>
       <c r="S10" s="22" t="n">
-        <v>224.75</v>
+        <v>78.02000000000001</v>
       </c>
       <c r="T10" s="22" t="n">
-        <v>838.9400000000001</v>
+        <v>1138.38</v>
       </c>
       <c r="U10" s="22" t="n">
-        <v>884.35</v>
+        <v>1138.38</v>
       </c>
       <c r="V10" s="22" t="n">
-        <v>964.35</v>
+        <v>1177</v>
       </c>
       <c r="W10" s="22" t="n">
-        <v>1164.35</v>
+        <v>1194.57</v>
       </c>
       <c r="X10" s="22" t="n">
-        <v>2092.84</v>
+        <v>2794.57</v>
       </c>
       <c r="Y10" s="22" t="n">
-        <v>2092.84</v>
+        <v>2794.57</v>
       </c>
       <c r="Z10" s="22" t="n">
-        <v>2092.84</v>
+        <v>2794.57</v>
       </c>
       <c r="AA10" s="22" t="n">
-        <v>2092.84</v>
+        <v>2813.57</v>
       </c>
       <c r="AB10" s="22" t="n">
-        <v>2092.84</v>
+        <v>2840.99</v>
       </c>
       <c r="AC10" s="22" t="n">
-        <v>2120.26</v>
+        <v>2840.99</v>
       </c>
       <c r="AD10" s="22" t="n">
-        <v>2120.26</v>
+        <v>2840.99</v>
       </c>
       <c r="AE10" s="22" t="n">
-        <v>2120.26</v>
+        <v>2840.99</v>
       </c>
       <c r="AF10" s="22" t="n">
-        <v>2120.26</v>
+        <v>2840.99</v>
       </c>
       <c r="AG10" s="22" t="n">
-        <v>2120.26</v>
+        <v>2840.99</v>
       </c>
       <c r="AH10" s="22" t="n">
-        <v>2120.26</v>
+        <v>2840.99</v>
       </c>
       <c r="AI10" s="22" t="n">
-        <v>2120.26</v>
+        <v>8112.929999999999</v>
       </c>
       <c r="AJ10" s="22" t="n">
-        <v>2120.26</v>
+        <v>8112.929999999999</v>
       </c>
       <c r="AK10" s="22" t="n">
-        <v>2120.26</v>
+        <v>8112.929999999999</v>
       </c>
       <c r="AL10" s="22" t="n">
-        <v>2120.26</v>
+        <v>8112.929999999999</v>
       </c>
       <c r="AM10" s="22" t="n">
-        <v>2120.26</v>
+        <v>8112.929999999999</v>
       </c>
       <c r="AN10" s="22" t="n">
-        <v>2120.26</v>
+        <v>8112.929999999999</v>
       </c>
       <c r="AO10" s="22" t="n">
         <v/>
@@ -8939,7 +8939,7 @@
         <v/>
       </c>
       <c r="B11" s="14" t="n">
-        <v>8112.929999999999</v>
+        <v>13763.09</v>
       </c>
       <c r="C11" s="14">
         <f>+'Completion Factors'!J27</f>
@@ -8963,7 +8963,7 @@
         <v/>
       </c>
       <c r="I11" s="14" t="n">
-        <v>23798.84</v>
+        <v>23172.67083333333</v>
       </c>
       <c r="J11" s="14">
         <f>100*$G11/$I11</f>
@@ -8986,67 +8986,67 @@
         <v/>
       </c>
       <c r="S11" s="22" t="n">
-        <v>78.02000000000001</v>
+        <v>78.11</v>
       </c>
       <c r="T11" s="22" t="n">
-        <v>1138.38</v>
+        <v>303.38</v>
       </c>
       <c r="U11" s="22" t="n">
-        <v>1138.38</v>
+        <v>422.01</v>
       </c>
       <c r="V11" s="22" t="n">
-        <v>1177</v>
+        <v>512.88</v>
       </c>
       <c r="W11" s="22" t="n">
-        <v>1194.57</v>
+        <v>3512.88</v>
       </c>
       <c r="X11" s="22" t="n">
-        <v>2794.57</v>
+        <v>3512.88</v>
       </c>
       <c r="Y11" s="22" t="n">
-        <v>2794.57</v>
+        <v>3512.88</v>
       </c>
       <c r="Z11" s="22" t="n">
-        <v>2794.57</v>
+        <v>3518.88</v>
       </c>
       <c r="AA11" s="22" t="n">
-        <v>2813.57</v>
+        <v>3749.46</v>
       </c>
       <c r="AB11" s="22" t="n">
-        <v>2840.99</v>
+        <v>3749.46</v>
       </c>
       <c r="AC11" s="22" t="n">
-        <v>2840.99</v>
+        <v>3749.46</v>
       </c>
       <c r="AD11" s="22" t="n">
-        <v>2840.99</v>
+        <v>3749.46</v>
       </c>
       <c r="AE11" s="22" t="n">
-        <v>2840.99</v>
+        <v>3749.46</v>
       </c>
       <c r="AF11" s="22" t="n">
-        <v>2840.99</v>
+        <v>3749.46</v>
       </c>
       <c r="AG11" s="22" t="n">
-        <v>2840.99</v>
+        <v>3749.46</v>
       </c>
       <c r="AH11" s="22" t="n">
-        <v>2840.99</v>
+        <v>13763.09</v>
       </c>
       <c r="AI11" s="22" t="n">
-        <v>8112.929999999999</v>
+        <v>13763.09</v>
       </c>
       <c r="AJ11" s="22" t="n">
-        <v>8112.929999999999</v>
+        <v>13763.09</v>
       </c>
       <c r="AK11" s="22" t="n">
-        <v>8112.929999999999</v>
+        <v>13763.09</v>
       </c>
       <c r="AL11" s="22" t="n">
-        <v>8112.929999999999</v>
+        <v>13763.09</v>
       </c>
       <c r="AM11" s="22" t="n">
-        <v>8112.929999999999</v>
+        <v>13763.09</v>
       </c>
       <c r="AN11" s="22" t="n">
         <v/>
@@ -9066,7 +9066,7 @@
         <v/>
       </c>
       <c r="B12" s="14" t="n">
-        <v>13763.09</v>
+        <v>5969.31</v>
       </c>
       <c r="C12" s="14">
         <f>++'Completion Factors'!J26</f>
@@ -9090,7 +9090,7 @@
         <v/>
       </c>
       <c r="I12" s="14" t="n">
-        <v>23172.67083333333</v>
+        <v>22582.26416666667</v>
       </c>
       <c r="J12" s="14">
         <f>100*$G12/$I12</f>
@@ -9113,64 +9113,64 @@
         <v/>
       </c>
       <c r="S12" s="22" t="n">
-        <v>78.11</v>
+        <v/>
       </c>
       <c r="T12" s="22" t="n">
-        <v>303.38</v>
+        <v>74.48</v>
       </c>
       <c r="U12" s="22" t="n">
-        <v>422.01</v>
+        <v>1923.78</v>
       </c>
       <c r="V12" s="22" t="n">
-        <v>512.88</v>
+        <v>1923.78</v>
       </c>
       <c r="W12" s="22" t="n">
-        <v>3512.88</v>
+        <v>1923.78</v>
       </c>
       <c r="X12" s="22" t="n">
-        <v>3512.88</v>
+        <v>1923.78</v>
       </c>
       <c r="Y12" s="22" t="n">
-        <v>3512.88</v>
+        <v>1923.78</v>
       </c>
       <c r="Z12" s="22" t="n">
-        <v>3518.88</v>
+        <v>1923.78</v>
       </c>
       <c r="AA12" s="22" t="n">
-        <v>3749.46</v>
+        <v>1951.2</v>
       </c>
       <c r="AB12" s="22" t="n">
-        <v>3749.46</v>
+        <v>1951.2</v>
       </c>
       <c r="AC12" s="22" t="n">
-        <v>3749.46</v>
+        <v>1951.2</v>
       </c>
       <c r="AD12" s="22" t="n">
-        <v>3749.46</v>
+        <v>1951.2</v>
       </c>
       <c r="AE12" s="22" t="n">
-        <v>3749.46</v>
+        <v>1951.2</v>
       </c>
       <c r="AF12" s="22" t="n">
-        <v>3749.46</v>
+        <v>1951.2</v>
       </c>
       <c r="AG12" s="22" t="n">
-        <v>3749.46</v>
+        <v>5969.31</v>
       </c>
       <c r="AH12" s="22" t="n">
-        <v>13763.09</v>
+        <v>5969.31</v>
       </c>
       <c r="AI12" s="22" t="n">
-        <v>13763.09</v>
+        <v>5969.31</v>
       </c>
       <c r="AJ12" s="22" t="n">
-        <v>13763.09</v>
+        <v>5969.31</v>
       </c>
       <c r="AK12" s="22" t="n">
-        <v>13763.09</v>
+        <v>5969.31</v>
       </c>
       <c r="AL12" s="22" t="n">
-        <v>13763.09</v>
+        <v>5969.31</v>
       </c>
       <c r="AM12" s="22" t="n">
         <v/>
@@ -9193,7 +9193,7 @@
         <v/>
       </c>
       <c r="B13" s="14" t="n">
-        <v>5969.31</v>
+        <v>36955.42</v>
       </c>
       <c r="C13" s="14">
         <f>++'Completion Factors'!J25</f>
@@ -9217,7 +9217,7 @@
         <v/>
       </c>
       <c r="I13" s="14" t="n">
-        <v>22582.26416666666</v>
+        <v>22313.55583333333</v>
       </c>
       <c r="J13" s="14">
         <f>100*$G13/$I13</f>
@@ -9243,58 +9243,58 @@
         <v/>
       </c>
       <c r="T13" s="22" t="n">
-        <v>74.48</v>
+        <v>399.96</v>
       </c>
       <c r="U13" s="22" t="n">
-        <v>1923.78</v>
+        <v>27418.06</v>
       </c>
       <c r="V13" s="22" t="n">
-        <v>1923.78</v>
+        <v>27418.06</v>
       </c>
       <c r="W13" s="22" t="n">
-        <v>1923.78</v>
+        <v>27418.06</v>
       </c>
       <c r="X13" s="22" t="n">
-        <v>1923.78</v>
+        <v>27421.06</v>
       </c>
       <c r="Y13" s="22" t="n">
-        <v>1923.78</v>
+        <v>27611.08</v>
       </c>
       <c r="Z13" s="22" t="n">
-        <v>1923.78</v>
+        <v>27612.76</v>
       </c>
       <c r="AA13" s="22" t="n">
-        <v>1951.2</v>
+        <v>29091.06</v>
       </c>
       <c r="AB13" s="22" t="n">
-        <v>1951.2</v>
+        <v>29091.06</v>
       </c>
       <c r="AC13" s="22" t="n">
-        <v>1951.2</v>
+        <v>29091.06</v>
       </c>
       <c r="AD13" s="22" t="n">
-        <v>1951.2</v>
+        <v>29091.06</v>
       </c>
       <c r="AE13" s="22" t="n">
-        <v>1951.2</v>
+        <v>29148.96</v>
       </c>
       <c r="AF13" s="22" t="n">
-        <v>1951.2</v>
+        <v>36939.42</v>
       </c>
       <c r="AG13" s="22" t="n">
-        <v>5969.31</v>
+        <v>36955.42</v>
       </c>
       <c r="AH13" s="22" t="n">
-        <v>5969.31</v>
+        <v>36955.42</v>
       </c>
       <c r="AI13" s="22" t="n">
-        <v>5969.31</v>
+        <v>36955.42</v>
       </c>
       <c r="AJ13" s="22" t="n">
-        <v>5969.31</v>
+        <v>36955.42</v>
       </c>
       <c r="AK13" s="22" t="n">
-        <v>5969.31</v>
+        <v>36955.42</v>
       </c>
       <c r="AL13" s="22" t="n">
         <v/>
@@ -9320,7 +9320,7 @@
         <v/>
       </c>
       <c r="B14" s="14" t="n">
-        <v>36955.42</v>
+        <v>16594.01</v>
       </c>
       <c r="C14" s="14">
         <f>++'Completion Factors'!J24</f>
@@ -9344,7 +9344,7 @@
         <v/>
       </c>
       <c r="I14" s="14" t="n">
-        <v>22313.55583333333</v>
+        <v>21819.67916666666</v>
       </c>
       <c r="J14" s="14">
         <f>100*$G14/$I14</f>
@@ -9367,58 +9367,58 @@
         <v/>
       </c>
       <c r="S14" s="22" t="n">
-        <v/>
+        <v>100.33</v>
       </c>
       <c r="T14" s="22" t="n">
-        <v>399.96</v>
+        <v>622.8800000000001</v>
       </c>
       <c r="U14" s="22" t="n">
-        <v>27418.06</v>
+        <v>822.8800000000001</v>
       </c>
       <c r="V14" s="22" t="n">
-        <v>27418.06</v>
+        <v>828.9400000000001</v>
       </c>
       <c r="W14" s="22" t="n">
-        <v>27418.06</v>
+        <v>2505.69</v>
       </c>
       <c r="X14" s="22" t="n">
-        <v>27421.06</v>
+        <v>2871.55</v>
       </c>
       <c r="Y14" s="22" t="n">
-        <v>27611.08</v>
+        <v>2871.55</v>
       </c>
       <c r="Z14" s="22" t="n">
-        <v>27612.76</v>
+        <v>2871.55</v>
       </c>
       <c r="AA14" s="22" t="n">
-        <v>29091.06</v>
+        <v>2871.55</v>
       </c>
       <c r="AB14" s="22" t="n">
-        <v>29091.06</v>
+        <v>4374.02</v>
       </c>
       <c r="AC14" s="22" t="n">
-        <v>29091.06</v>
+        <v>4386.540000000001</v>
       </c>
       <c r="AD14" s="22" t="n">
-        <v>29091.06</v>
+        <v>4386.540000000001</v>
       </c>
       <c r="AE14" s="22" t="n">
-        <v>29148.96</v>
+        <v>16456.97</v>
       </c>
       <c r="AF14" s="22" t="n">
-        <v>36939.42</v>
+        <v>16456.97</v>
       </c>
       <c r="AG14" s="22" t="n">
-        <v>36955.42</v>
+        <v>16594.01</v>
       </c>
       <c r="AH14" s="22" t="n">
-        <v>36955.42</v>
+        <v>16594.01</v>
       </c>
       <c r="AI14" s="22" t="n">
-        <v>36955.42</v>
+        <v>16594.01</v>
       </c>
       <c r="AJ14" s="22" t="n">
-        <v>36955.42</v>
+        <v>16594.01</v>
       </c>
       <c r="AK14" s="22" t="n">
         <v/>
@@ -9447,7 +9447,7 @@
         <v/>
       </c>
       <c r="B15" s="14" t="n">
-        <v>16594.01</v>
+        <v>10902.21</v>
       </c>
       <c r="C15" s="14">
         <f>++'Completion Factors'!J23</f>
@@ -9471,7 +9471,7 @@
         <v/>
       </c>
       <c r="I15" s="14" t="n">
-        <v>21819.67916666666</v>
+        <v>21537.36666666666</v>
       </c>
       <c r="J15" s="14">
         <f>100*$G15/$I15</f>
@@ -9494,55 +9494,55 @@
         <v/>
       </c>
       <c r="S15" s="22" t="n">
-        <v>100.33</v>
+        <v>105.41</v>
       </c>
       <c r="T15" s="22" t="n">
-        <v>622.88</v>
+        <v>105.41</v>
       </c>
       <c r="U15" s="22" t="n">
-        <v>822.88</v>
+        <v>111.42</v>
       </c>
       <c r="V15" s="22" t="n">
-        <v>828.9399999999999</v>
+        <v>111.42</v>
       </c>
       <c r="W15" s="22" t="n">
-        <v>2505.69</v>
+        <v>1266.02</v>
       </c>
       <c r="X15" s="22" t="n">
-        <v>2871.55</v>
+        <v>1480.46</v>
       </c>
       <c r="Y15" s="22" t="n">
-        <v>2871.55</v>
+        <v>1531.5</v>
       </c>
       <c r="Z15" s="22" t="n">
-        <v>2871.55</v>
+        <v>1558.32</v>
       </c>
       <c r="AA15" s="22" t="n">
-        <v>2871.55</v>
+        <v>1558.32</v>
       </c>
       <c r="AB15" s="22" t="n">
-        <v>4374.02</v>
+        <v>1558.32</v>
       </c>
       <c r="AC15" s="22" t="n">
-        <v>4386.540000000001</v>
+        <v>1558.32</v>
       </c>
       <c r="AD15" s="22" t="n">
-        <v>4386.540000000001</v>
+        <v>9390.42</v>
       </c>
       <c r="AE15" s="22" t="n">
-        <v>16456.97</v>
+        <v>9390.42</v>
       </c>
       <c r="AF15" s="22" t="n">
-        <v>16456.97</v>
+        <v>10902.21</v>
       </c>
       <c r="AG15" s="22" t="n">
-        <v>16594.01</v>
+        <v>10902.21</v>
       </c>
       <c r="AH15" s="22" t="n">
-        <v>16594.01</v>
+        <v>10902.21</v>
       </c>
       <c r="AI15" s="22" t="n">
-        <v>16594.01</v>
+        <v>10902.21</v>
       </c>
       <c r="AJ15" s="22" t="n">
         <v/>
@@ -9574,7 +9574,7 @@
         <v/>
       </c>
       <c r="B16" s="14" t="n">
-        <v>10902.21</v>
+        <v>8780.07</v>
       </c>
       <c r="C16" s="14">
         <f>++'Completion Factors'!J22</f>
@@ -9598,7 +9598,7 @@
         <v/>
       </c>
       <c r="I16" s="14" t="n">
-        <v>21537.36666666666</v>
+        <v>21386.11833333333</v>
       </c>
       <c r="J16" s="14">
         <f>100*$G16/$I16</f>
@@ -9621,52 +9621,52 @@
         <v/>
       </c>
       <c r="S16" s="22" t="n">
-        <v>105.41</v>
+        <v/>
       </c>
       <c r="T16" s="22" t="n">
-        <v>105.41</v>
+        <v/>
       </c>
       <c r="U16" s="22" t="n">
-        <v>111.42</v>
+        <v/>
       </c>
       <c r="V16" s="22" t="n">
-        <v>111.42</v>
+        <v>541.9299999999999</v>
       </c>
       <c r="W16" s="22" t="n">
-        <v>1266.02</v>
+        <v>864.25</v>
       </c>
       <c r="X16" s="22" t="n">
-        <v>1480.46</v>
+        <v>864.25</v>
       </c>
       <c r="Y16" s="22" t="n">
-        <v>1531.5</v>
+        <v>887.13</v>
       </c>
       <c r="Z16" s="22" t="n">
-        <v>1558.32</v>
+        <v>914.4</v>
       </c>
       <c r="AA16" s="22" t="n">
-        <v>1558.32</v>
+        <v>914.4</v>
       </c>
       <c r="AB16" s="22" t="n">
-        <v>1558.32</v>
+        <v>914.4</v>
       </c>
       <c r="AC16" s="22" t="n">
-        <v>1558.32</v>
+        <v>8704.860000000001</v>
       </c>
       <c r="AD16" s="22" t="n">
-        <v>9390.42</v>
+        <v>8704.860000000001</v>
       </c>
       <c r="AE16" s="22" t="n">
-        <v>9390.42</v>
+        <v>8780.07</v>
       </c>
       <c r="AF16" s="22" t="n">
-        <v>10902.21</v>
+        <v>8780.07</v>
       </c>
       <c r="AG16" s="22" t="n">
-        <v>10902.21</v>
+        <v>8780.07</v>
       </c>
       <c r="AH16" s="22" t="n">
-        <v>10902.21</v>
+        <v>8780.07</v>
       </c>
       <c r="AI16" s="22" t="n">
         <v/>
@@ -9701,7 +9701,7 @@
         <v/>
       </c>
       <c r="B17" s="14" t="n">
-        <v>8780.07</v>
+        <v>8926.6</v>
       </c>
       <c r="C17" s="14">
         <f>++'Completion Factors'!J21</f>
@@ -9725,7 +9725,7 @@
         <v/>
       </c>
       <c r="I17" s="14" t="n">
-        <v>21386.11833333334</v>
+        <v>21237.95833333333</v>
       </c>
       <c r="J17" s="14">
         <f>100*$G17/$I17</f>
@@ -9754,43 +9754,43 @@
         <v/>
       </c>
       <c r="U17" s="22" t="n">
-        <v/>
+        <v>361.23</v>
       </c>
       <c r="V17" s="22" t="n">
-        <v>541.9299999999999</v>
+        <v>398.78</v>
       </c>
       <c r="W17" s="22" t="n">
-        <v>864.25</v>
+        <v>398.78</v>
       </c>
       <c r="X17" s="22" t="n">
-        <v>864.25</v>
+        <v>398.78</v>
       </c>
       <c r="Y17" s="22" t="n">
-        <v>887.13</v>
+        <v>3432.81</v>
       </c>
       <c r="Z17" s="22" t="n">
-        <v>914.4</v>
+        <v>3460.08</v>
       </c>
       <c r="AA17" s="22" t="n">
-        <v>914.4</v>
+        <v>3460.08</v>
       </c>
       <c r="AB17" s="22" t="n">
-        <v>914.4</v>
+        <v>8857.58</v>
       </c>
       <c r="AC17" s="22" t="n">
-        <v>8704.860000000001</v>
+        <v>8857.58</v>
       </c>
       <c r="AD17" s="22" t="n">
-        <v>8704.860000000001</v>
+        <v>8926.6</v>
       </c>
       <c r="AE17" s="22" t="n">
-        <v>8780.07</v>
+        <v>8926.6</v>
       </c>
       <c r="AF17" s="22" t="n">
-        <v>8780.07</v>
+        <v>8926.6</v>
       </c>
       <c r="AG17" s="22" t="n">
-        <v>8780.07</v>
+        <v>8926.6</v>
       </c>
       <c r="AH17" s="22" t="n">
         <v/>
@@ -9828,7 +9828,7 @@
         <v/>
       </c>
       <c r="B18" s="14" t="n">
-        <v>8926.6</v>
+        <v>10864.32</v>
       </c>
       <c r="C18" s="14">
         <f>++'Completion Factors'!J20</f>
@@ -9852,7 +9852,7 @@
         <v/>
       </c>
       <c r="I18" s="14" t="n">
-        <v>21237.95833333333</v>
+        <v>21061.72166666667</v>
       </c>
       <c r="J18" s="14">
         <f>100*$G18/$I18</f>
@@ -9878,43 +9878,43 @@
         <v/>
       </c>
       <c r="T18" s="22" t="n">
-        <v/>
+        <v>258.18</v>
       </c>
       <c r="U18" s="22" t="n">
-        <v>361.23</v>
+        <v>261.19</v>
       </c>
       <c r="V18" s="22" t="n">
-        <v>398.78</v>
+        <v>436.78</v>
       </c>
       <c r="W18" s="22" t="n">
-        <v>398.78</v>
+        <v>436.78</v>
       </c>
       <c r="X18" s="22" t="n">
-        <v>398.78</v>
+        <v>436.78</v>
       </c>
       <c r="Y18" s="22" t="n">
-        <v>3432.81</v>
+        <v>436.78</v>
       </c>
       <c r="Z18" s="22" t="n">
-        <v>3460.08</v>
+        <v>436.78</v>
       </c>
       <c r="AA18" s="22" t="n">
-        <v>3460.08</v>
+        <v>10462.94</v>
       </c>
       <c r="AB18" s="22" t="n">
-        <v>8857.58</v>
+        <v>10462.94</v>
       </c>
       <c r="AC18" s="22" t="n">
-        <v>8857.58</v>
+        <v>10864.32</v>
       </c>
       <c r="AD18" s="22" t="n">
-        <v>8926.6</v>
+        <v>10864.32</v>
       </c>
       <c r="AE18" s="22" t="n">
-        <v>8926.6</v>
+        <v>10864.32</v>
       </c>
       <c r="AF18" s="22" t="n">
-        <v>8926.6</v>
+        <v>10864.32</v>
       </c>
       <c r="AG18" s="22" t="n">
         <v/>
@@ -9955,7 +9955,7 @@
         <v/>
       </c>
       <c r="B19" s="14" t="n">
-        <v>10864.32</v>
+        <v>5550.1</v>
       </c>
       <c r="C19" s="14">
         <f>++'Completion Factors'!J19</f>
@@ -9979,7 +9979,7 @@
         <v/>
       </c>
       <c r="I19" s="14" t="n">
-        <v>21061.72166666667</v>
+        <v>20916.385</v>
       </c>
       <c r="J19" s="14">
         <f>100*$G19/$I19</f>
@@ -10005,43 +10005,43 @@
         <v/>
       </c>
       <c r="S19" s="22" t="n">
-        <v/>
+        <v>284.31</v>
       </c>
       <c r="T19" s="22" t="n">
-        <v>258.18</v>
+        <v>722.4200000000001</v>
       </c>
       <c r="U19" s="22" t="n">
-        <v>261.19</v>
+        <v>1503.3</v>
       </c>
       <c r="V19" s="22" t="n">
-        <v>436.78</v>
+        <v>1592.6</v>
       </c>
       <c r="W19" s="22" t="n">
-        <v>436.78</v>
+        <v>1592.6</v>
       </c>
       <c r="X19" s="22" t="n">
-        <v>436.78</v>
+        <v>1592.6</v>
       </c>
       <c r="Y19" s="22" t="n">
-        <v>436.78</v>
+        <v>1592.6</v>
       </c>
       <c r="Z19" s="22" t="n">
-        <v>436.78</v>
+        <v>5515.1</v>
       </c>
       <c r="AA19" s="22" t="n">
-        <v>10462.94</v>
+        <v>5515.1</v>
       </c>
       <c r="AB19" s="22" t="n">
-        <v>10462.94</v>
+        <v>5545.1</v>
       </c>
       <c r="AC19" s="22" t="n">
-        <v>10864.32</v>
+        <v>5550.1</v>
       </c>
       <c r="AD19" s="22" t="n">
-        <v>10864.32</v>
+        <v>5550.1</v>
       </c>
       <c r="AE19" s="22" t="n">
-        <v>10864.32</v>
+        <v>5550.1</v>
       </c>
       <c r="AF19" s="22" t="n">
         <v/>
@@ -10085,7 +10085,7 @@
         <v/>
       </c>
       <c r="B20" s="14" t="n">
-        <v>5550.1</v>
+        <v>5457.24</v>
       </c>
       <c r="C20" s="14">
         <f>++'Completion Factors'!J18</f>
@@ -10109,7 +10109,7 @@
         <v/>
       </c>
       <c r="I20" s="14" t="n">
-        <v>20916.385</v>
+        <v>20785.00416666667</v>
       </c>
       <c r="J20" s="14">
         <f>100*$G20/$I20</f>
@@ -10141,40 +10141,40 @@
         <v/>
       </c>
       <c r="S20" s="22" t="n">
-        <v>284.31</v>
+        <v>205.83</v>
       </c>
       <c r="T20" s="22" t="n">
-        <v>722.4200000000001</v>
+        <v>2677.97</v>
       </c>
       <c r="U20" s="22" t="n">
-        <v>1503.3</v>
+        <v>2801.39</v>
       </c>
       <c r="V20" s="22" t="n">
-        <v>1592.6</v>
+        <v>4928.389999999999</v>
       </c>
       <c r="W20" s="22" t="n">
-        <v>1592.6</v>
+        <v>5168.639999999999</v>
       </c>
       <c r="X20" s="22" t="n">
-        <v>1592.6</v>
+        <v>5387.419999999999</v>
       </c>
       <c r="Y20" s="22" t="n">
-        <v>1592.6</v>
+        <v>5426.77</v>
       </c>
       <c r="Z20" s="22" t="n">
-        <v>5515.1</v>
+        <v>5454.04</v>
       </c>
       <c r="AA20" s="22" t="n">
-        <v>5515.1</v>
+        <v>5454.04</v>
       </c>
       <c r="AB20" s="22" t="n">
-        <v>5545.1</v>
+        <v>5454.04</v>
       </c>
       <c r="AC20" s="22" t="n">
-        <v>5550.1</v>
+        <v>5454.04</v>
       </c>
       <c r="AD20" s="22" t="n">
-        <v>5550.1</v>
+        <v>5457.24</v>
       </c>
       <c r="AE20" s="22" t="n">
         <v/>
@@ -10221,7 +10221,7 @@
         <v/>
       </c>
       <c r="B21" s="14" t="n">
-        <v>5454.040000000001</v>
+        <v>11546.15</v>
       </c>
       <c r="C21" s="14">
         <f>++'Completion Factors'!J17</f>
@@ -10245,7 +10245,7 @@
         <v/>
       </c>
       <c r="I21" s="14" t="n">
-        <v>20785.00416666667</v>
+        <v>20653.01</v>
       </c>
       <c r="J21" s="14">
         <f>100*$G21/$I21</f>
@@ -10277,37 +10277,37 @@
         <v/>
       </c>
       <c r="S21" s="22" t="n">
-        <v>205.83</v>
+        <v>30.61</v>
       </c>
       <c r="T21" s="22" t="n">
-        <v>2677.97</v>
+        <v>956.4300000000001</v>
       </c>
       <c r="U21" s="22" t="n">
-        <v>2801.39</v>
+        <v>1034.64</v>
       </c>
       <c r="V21" s="22" t="n">
-        <v>4928.39</v>
+        <v>1034.64</v>
       </c>
       <c r="W21" s="22" t="n">
-        <v>5168.64</v>
+        <v>2385.73</v>
       </c>
       <c r="X21" s="22" t="n">
-        <v>5387.42</v>
+        <v>10323.94</v>
       </c>
       <c r="Y21" s="22" t="n">
-        <v>5426.77</v>
+        <v>10645.41</v>
       </c>
       <c r="Z21" s="22" t="n">
-        <v>5454.040000000001</v>
+        <v>10803.65</v>
       </c>
       <c r="AA21" s="22" t="n">
-        <v>5454.040000000001</v>
+        <v>10803.65</v>
       </c>
       <c r="AB21" s="22" t="n">
-        <v>5454.040000000001</v>
+        <v>10803.65</v>
       </c>
       <c r="AC21" s="22" t="n">
-        <v>5454.040000000001</v>
+        <v>11546.15</v>
       </c>
       <c r="AD21" s="22" t="n">
         <v/>
@@ -10357,7 +10357,7 @@
         <v/>
       </c>
       <c r="B22" s="14" t="n">
-        <v>10803.65</v>
+        <v>9703.860000000001</v>
       </c>
       <c r="C22" s="14">
         <f>++'Completion Factors'!J16</f>
@@ -10381,7 +10381,7 @@
         <v/>
       </c>
       <c r="I22" s="14" t="n">
-        <v>20653.01</v>
+        <v>20523.28416666667</v>
       </c>
       <c r="J22" s="14">
         <f>100*$G22/$I22</f>
@@ -10413,34 +10413,34 @@
         <v/>
       </c>
       <c r="S22" s="22" t="n">
-        <v>30.61</v>
+        <v>27.45</v>
       </c>
       <c r="T22" s="22" t="n">
-        <v>956.4299999999999</v>
+        <v>737.0200000000001</v>
       </c>
       <c r="U22" s="22" t="n">
-        <v>1034.64</v>
+        <v>737.0200000000001</v>
       </c>
       <c r="V22" s="22" t="n">
-        <v>1034.64</v>
+        <v>783.0500000000001</v>
       </c>
       <c r="W22" s="22" t="n">
-        <v>2385.73</v>
+        <v>8908.84</v>
       </c>
       <c r="X22" s="22" t="n">
-        <v>10323.94</v>
+        <v>9140.07</v>
       </c>
       <c r="Y22" s="22" t="n">
-        <v>10645.41</v>
+        <v>9676.59</v>
       </c>
       <c r="Z22" s="22" t="n">
-        <v>10803.65</v>
+        <v>9703.860000000001</v>
       </c>
       <c r="AA22" s="22" t="n">
-        <v>10803.65</v>
+        <v>9703.860000000001</v>
       </c>
       <c r="AB22" s="22" t="n">
-        <v>10803.65</v>
+        <v>9703.860000000001</v>
       </c>
       <c r="AC22" s="22" t="n">
         <v/>
@@ -10493,7 +10493,7 @@
         <v/>
       </c>
       <c r="B23" s="14" t="n">
-        <v>9703.860000000001</v>
+        <v>2132.4</v>
       </c>
       <c r="C23" s="14">
         <f>++'Completion Factors'!J15</f>
@@ -10517,7 +10517,7 @@
         <v/>
       </c>
       <c r="I23" s="14" t="n">
-        <v>20523.28416666667</v>
+        <v>20272.995</v>
       </c>
       <c r="J23" s="14">
         <f>100*$G23/$I23</f>
@@ -10549,31 +10549,31 @@
         <v/>
       </c>
       <c r="S23" s="22" t="n">
-        <v>27.45</v>
+        <v>79.56999999999999</v>
       </c>
       <c r="T23" s="22" t="n">
-        <v>737.02</v>
+        <v>261.65</v>
       </c>
       <c r="U23" s="22" t="n">
-        <v>737.02</v>
+        <v>285.46</v>
       </c>
       <c r="V23" s="22" t="n">
-        <v>783.05</v>
+        <v>1451.67</v>
       </c>
       <c r="W23" s="22" t="n">
-        <v>8908.84</v>
+        <v>1451.67</v>
       </c>
       <c r="X23" s="22" t="n">
-        <v>9140.07</v>
+        <v>2109.31</v>
       </c>
       <c r="Y23" s="22" t="n">
-        <v>9676.59</v>
+        <v>2116.38</v>
       </c>
       <c r="Z23" s="22" t="n">
-        <v>9703.860000000001</v>
+        <v>2132.4</v>
       </c>
       <c r="AA23" s="22" t="n">
-        <v>9703.860000000001</v>
+        <v>2132.4</v>
       </c>
       <c r="AB23" s="22" t="n">
         <v/>
@@ -10629,7 +10629,7 @@
         <v/>
       </c>
       <c r="B24" s="14" t="n">
-        <v>2132.4</v>
+        <v>1262.95</v>
       </c>
       <c r="C24" s="14">
         <f>++'Completion Factors'!J14</f>
@@ -10655,7 +10655,7 @@
         <v/>
       </c>
       <c r="I24" s="14" t="n">
-        <v>20272.995</v>
+        <v>20221.4275</v>
       </c>
       <c r="J24" s="14">
         <f>100*$G24/$I24</f>
@@ -10687,28 +10687,28 @@
         <v/>
       </c>
       <c r="S24" s="22" t="n">
-        <v>79.56999999999999</v>
+        <v/>
       </c>
       <c r="T24" s="22" t="n">
-        <v>261.65</v>
+        <v>75.84</v>
       </c>
       <c r="U24" s="22" t="n">
-        <v>285.46</v>
+        <v>239.97</v>
       </c>
       <c r="V24" s="22" t="n">
-        <v>1451.67</v>
+        <v>757.64</v>
       </c>
       <c r="W24" s="22" t="n">
-        <v>1451.67</v>
+        <v>791.64</v>
       </c>
       <c r="X24" s="22" t="n">
-        <v>2109.31</v>
+        <v>832.95</v>
       </c>
       <c r="Y24" s="22" t="n">
-        <v>2116.38</v>
+        <v>832.95</v>
       </c>
       <c r="Z24" s="22" t="n">
-        <v>2132.4</v>
+        <v>1262.95</v>
       </c>
       <c r="AA24" s="22" t="n">
         <v/>
@@ -10767,7 +10767,7 @@
         <v/>
       </c>
       <c r="B25" s="14" t="n">
-        <v>832.95</v>
+        <v>809.79</v>
       </c>
       <c r="C25" s="14">
         <f>++'Completion Factors'!J13</f>
@@ -10793,7 +10793,7 @@
         <v/>
       </c>
       <c r="I25" s="14" t="n">
-        <v>20221.4275</v>
+        <v>20164</v>
       </c>
       <c r="J25" s="14">
         <f>100*$G25/$I25</f>
@@ -10828,22 +10828,22 @@
         <v/>
       </c>
       <c r="T25" s="22" t="n">
-        <v>75.84</v>
+        <v>405.83</v>
       </c>
       <c r="U25" s="22" t="n">
-        <v>239.97</v>
+        <v>460.1</v>
       </c>
       <c r="V25" s="22" t="n">
-        <v>757.6400000000001</v>
+        <v>799.78</v>
       </c>
       <c r="W25" s="22" t="n">
-        <v>791.6400000000001</v>
+        <v>809.79</v>
       </c>
       <c r="X25" s="22" t="n">
-        <v>832.95</v>
+        <v>809.79</v>
       </c>
       <c r="Y25" s="22" t="n">
-        <v>832.95</v>
+        <v>809.79</v>
       </c>
       <c r="Z25" s="22" t="n">
         <v/>
@@ -10905,7 +10905,7 @@
         <v/>
       </c>
       <c r="B26" s="14" t="n">
-        <v>809.79</v>
+        <v>3153.14</v>
       </c>
       <c r="C26" s="14">
         <f>++'Completion Factors'!J12</f>
@@ -10931,7 +10931,7 @@
         <v/>
       </c>
       <c r="I26" s="14" t="n">
-        <v>20164</v>
+        <v>19697.08666666667</v>
       </c>
       <c r="J26" s="14">
         <f>100*$G26/$I26</f>
@@ -10963,22 +10963,22 @@
         <v/>
       </c>
       <c r="S26" s="22" t="n">
-        <v/>
+        <v>160.05</v>
       </c>
       <c r="T26" s="22" t="n">
-        <v>405.83</v>
+        <v>712.03</v>
       </c>
       <c r="U26" s="22" t="n">
-        <v>460.1</v>
+        <v>2980.7</v>
       </c>
       <c r="V26" s="22" t="n">
-        <v>799.78</v>
+        <v>3053.14</v>
       </c>
       <c r="W26" s="22" t="n">
-        <v>809.79</v>
+        <v>3153.14</v>
       </c>
       <c r="X26" s="22" t="n">
-        <v>809.79</v>
+        <v>3153.14</v>
       </c>
       <c r="Y26" s="22" t="n">
         <v/>
@@ -11043,7 +11043,7 @@
         <v/>
       </c>
       <c r="B27" s="14" t="n">
-        <v>3153.14</v>
+        <v>743.3599999999999</v>
       </c>
       <c r="C27" s="14">
         <f>++'Completion Factors'!J11</f>
@@ -11069,7 +11069,7 @@
         <v/>
       </c>
       <c r="I27" s="14" t="n">
-        <v>19697.08666666667</v>
+        <v>19600.65</v>
       </c>
       <c r="J27" s="14">
         <f>100*$G27/$I27</f>
@@ -11101,19 +11101,19 @@
         <v/>
       </c>
       <c r="S27" s="22" t="n">
-        <v>160.05</v>
+        <v>25.34</v>
       </c>
       <c r="T27" s="22" t="n">
-        <v>712.03</v>
+        <v>337.3</v>
       </c>
       <c r="U27" s="22" t="n">
-        <v>2980.7</v>
+        <v>738.0999999999999</v>
       </c>
       <c r="V27" s="22" t="n">
-        <v>3053.14</v>
+        <v>738.0999999999999</v>
       </c>
       <c r="W27" s="22" t="n">
-        <v>3153.14</v>
+        <v>743.3599999999999</v>
       </c>
       <c r="X27" s="22" t="n">
         <v/>
@@ -11181,7 +11181,7 @@
         <v/>
       </c>
       <c r="B28" s="14" t="n">
-        <v>738.0999999999999</v>
+        <v>8078.11</v>
       </c>
       <c r="C28" s="14">
         <f>++'Completion Factors'!J10</f>
@@ -11207,7 +11207,7 @@
         <v/>
       </c>
       <c r="I28" s="14" t="n">
-        <v>19600.65</v>
+        <v>19349.41833333333</v>
       </c>
       <c r="J28" s="14">
         <f>100*$G28/$I28</f>
@@ -11239,16 +11239,16 @@
         <v/>
       </c>
       <c r="S28" s="22" t="n">
-        <v>25.34</v>
+        <v>21.39</v>
       </c>
       <c r="T28" s="22" t="n">
-        <v>337.3</v>
+        <v>3001.58</v>
       </c>
       <c r="U28" s="22" t="n">
-        <v>738.0999999999999</v>
+        <v>4733.03</v>
       </c>
       <c r="V28" s="22" t="n">
-        <v>738.0999999999999</v>
+        <v>8078.11</v>
       </c>
       <c r="W28" s="22" t="n">
         <v/>
@@ -11319,7 +11319,7 @@
         <v/>
       </c>
       <c r="B29" s="14" t="n">
-        <v>4733.03</v>
+        <v>2096.58</v>
       </c>
       <c r="C29" s="14">
         <f>++'Completion Factors'!J9</f>
@@ -11346,7 +11346,7 @@
         <v/>
       </c>
       <c r="I29" s="14" t="n">
-        <v>19349.41833333333</v>
+        <v>19166.44833333333</v>
       </c>
       <c r="J29" s="20" t="n">
         <v>80</v>
@@ -11377,13 +11377,13 @@
         <v/>
       </c>
       <c r="S29" s="22" t="n">
-        <v>21.39</v>
+        <v>105.89</v>
       </c>
       <c r="T29" s="22" t="n">
-        <v>3001.58</v>
+        <v>1371.13</v>
       </c>
       <c r="U29" s="22" t="n">
-        <v>4733.03</v>
+        <v>2096.58</v>
       </c>
       <c r="V29" s="22" t="n">
         <v/>
@@ -11457,7 +11457,7 @@
         <v/>
       </c>
       <c r="B30" s="14" t="n">
-        <v>1371.13</v>
+        <v>1118.89</v>
       </c>
       <c r="C30" s="14">
         <f>++'Completion Factors'!J8</f>
@@ -11484,7 +11484,7 @@
         <v/>
       </c>
       <c r="I30" s="14" t="n">
-        <v>19166.44833333333</v>
+        <v>19066.7175</v>
       </c>
       <c r="J30" s="20" t="n">
         <v>60</v>
@@ -11515,10 +11515,10 @@
         <v/>
       </c>
       <c r="S30" s="22" t="n">
-        <v>105.89</v>
+        <v>59.95</v>
       </c>
       <c r="T30" s="22" t="n">
-        <v>1371.13</v>
+        <v>1118.89</v>
       </c>
       <c r="U30" s="22" t="n">
         <v/>
@@ -11595,7 +11595,7 @@
         <v/>
       </c>
       <c r="B31" s="14" t="n">
-        <v>59.95</v>
+        <v>90.65000000000001</v>
       </c>
       <c r="C31" s="14">
         <f>+'Completion Factors'!J7</f>
@@ -11622,7 +11622,7 @@
         <v/>
       </c>
       <c r="I31" s="14" t="n">
-        <v>19066.7175</v>
+        <v>18818.15</v>
       </c>
       <c r="J31" s="20" t="n">
         <v>60</v>
@@ -11653,7 +11653,7 @@
         <v/>
       </c>
       <c r="S31" s="22" t="n">
-        <v>59.95</v>
+        <v>90.65000000000001</v>
       </c>
       <c r="T31" s="22" t="n">
         <v/>
